--- a/00框架文件/02SR.xlsx
+++ b/00框架文件/02SR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45BC907-60AA-4CEA-A179-26B3DAC8306F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADA5F3E-8C08-4317-96C9-C27134D87443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$54:$E$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$56:$E$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="120">
   <si>
     <t>对应科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,12 @@
   <si>
     <t>反方向科目重分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224199/借</t>
+  </si>
+  <si>
+    <t>22410501/借</t>
   </si>
 </sst>
 </file>
@@ -2380,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR97"/>
+  <dimension ref="A1:AR99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2482,7 +2488,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B45" si="0">LEFT(A2,E2-1)&amp;F2</f>
+        <f t="shared" ref="B2:B47" si="0">LEFT(A2,E2-1)&amp;F2</f>
         <v>123101/借</v>
       </c>
       <c r="C2" t="s">
@@ -2527,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E44" si="1">FIND("\",A4)</f>
+        <f t="shared" ref="E4:E46" si="1">FIND("\",A4)</f>
         <v>7</v>
       </c>
       <c r="F4" t="s">
@@ -2541,11 +2547,11 @@
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V97" si="2">TRIM($B4)</f>
+        <f t="shared" ref="V4:V99" si="2">TRIM($B4)</f>
         <v>123102/借</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W97" si="3">_xlfn.IFNA(AE4,AH4)</f>
+        <f t="shared" ref="W4:W99" si="3">_xlfn.IFNA(AE4,AH4)</f>
         <v>其他应收款坏账准备</v>
       </c>
       <c r="X4" t="str">
@@ -2557,15 +2563,15 @@
         <v>其他应收款</v>
       </c>
       <c r="Z4" t="e">
-        <f t="shared" ref="Z4:Z97" si="4">U4&amp;"\"&amp;$C4</f>
+        <f t="shared" ref="Z4:Z99" si="4">U4&amp;"\"&amp;$C4</f>
         <v>#N/A</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA97" si="5">IF($P4="借",$R4,-$R4)</f>
+        <f t="shared" ref="AA4:AA99" si="5">IF($P4="借",$R4,-$R4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB97" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
+        <f t="shared" ref="AB4:AB99" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
         <v>0</v>
       </c>
       <c r="AE4" t="str">
@@ -2573,15 +2579,15 @@
         <v>其他应收款坏账准备</v>
       </c>
       <c r="AF4" t="e">
-        <f t="shared" ref="AF4:AF97" si="7">FIND("\",$C4)</f>
+        <f t="shared" ref="AF4:AF99" si="7">FIND("\",$C4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG97" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
+        <f t="shared" ref="AG4:AG99" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH4" t="e">
-        <f t="shared" ref="AH4:AH97" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
+        <f t="shared" ref="AH4:AH99" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
@@ -2593,7 +2599,7 @@
         <v>BS</v>
       </c>
       <c r="AK4" t="e">
-        <f t="shared" ref="AK4:AK97" si="10">AI4&amp;"/"&amp;AJ4</f>
+        <f t="shared" ref="AK4:AK99" si="10">AI4&amp;"/"&amp;AJ4</f>
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
@@ -2601,7 +2607,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
-        <f t="shared" ref="AM4:AM97" si="11">ROUND(AA4*AL4,2)</f>
+        <f t="shared" ref="AM4:AM99" si="11">ROUND(AA4*AL4,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
@@ -2609,19 +2615,19 @@
         <v>#N/A</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO97" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
+        <f t="shared" ref="AO4:AO99" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
         <v>0</v>
       </c>
       <c r="AP4" t="e">
-        <f t="shared" ref="AP4:AP97" si="13">FIND("]",AO4)</f>
+        <f t="shared" ref="AP4:AP99" si="13">FIND("]",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ4" t="e">
-        <f t="shared" ref="AQ4:AQ97" si="14">FIND("#",AO4)</f>
+        <f t="shared" ref="AQ4:AQ99" si="14">FIND("#",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR4" t="e">
-        <f t="shared" ref="AR4:AR97" si="15">FIND("#",AO4,AQ4+1)</f>
+        <f t="shared" ref="AR4:AR99" si="15">FIND("#",AO4,AQ4+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2689,176 +2695,72 @@
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>53010200/借</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10" si="17">FIND("\",A10)</f>
+      <c r="E12">
+        <f t="shared" ref="E12" si="17">FIND("\",A12)</f>
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
-      <c r="A11" t="s">
+    <row r="13" spans="1:44">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>53010200/贷</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <f t="shared" ref="E11" si="18">FIND("\",A11)</f>
+      <c r="E13">
+        <f t="shared" ref="E13" si="18">FIND("\",A13)</f>
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
-      <c r="A12" t="s">
+    <row r="14" spans="1:44">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>600100/借</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="U12" t="e">
-        <f>VLOOKUP($A12,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="2"/>
-        <v>600100/借</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X12" t="str">
-        <f>VLOOKUP(W12,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Y12" t="str">
-        <f>VLOOKUP(W12,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z12" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" t="str">
-        <f>VLOOKUP(V12,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF12" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI12" t="e">
-        <f>VLOOKUP(U12,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" t="str">
-        <f>VLOOKUP(W12,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK12" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" t="e">
-        <f>VLOOKUP(AK12,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM12" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN12" t="e">
-        <f>VLOOKUP(Z12,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP12" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ12" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR12" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>600100/贷</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13" si="19">FIND("\",A13)</f>
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>605100/借</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -2876,7 +2778,7 @@
       </c>
       <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>605100/借</v>
+        <v>600100/借</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="3"/>
@@ -2961,17 +2863,17 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>605100/贷</v>
+        <v>600100/贷</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="20">FIND("\",A15)</f>
+        <f t="shared" ref="E15" si="19">FIND("\",A15)</f>
         <v>7</v>
       </c>
       <c r="F15" t="s">
@@ -2980,11 +2882,11 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>611100/借</v>
+        <v>605100/借</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -3002,7 +2904,7 @@
       </c>
       <c r="V16" t="str">
         <f t="shared" si="2"/>
-        <v>611100/借</v>
+        <v>605100/借</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="3"/>
@@ -3087,17 +2989,17 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>611100/贷</v>
+        <v>605100/贷</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="21">FIND("\",A17)</f>
+        <f t="shared" ref="E17" si="20">FIND("\",A17)</f>
         <v>7</v>
       </c>
       <c r="F17" t="s">
@@ -3106,36 +3008,124 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>605100/借</v>
+        <v>611100/借</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="22">FIND("\",A18)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
       </c>
+      <c r="U18" t="e">
+        <f>VLOOKUP($A18,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="2"/>
+        <v>611100/借</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X18" t="str">
+        <f>VLOOKUP(W18,[2]科目!$A:$C,2,0)</f>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="Y18" t="str">
+        <f>VLOOKUP(W18,[2]科目!$A:$C,3,0)</f>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="Z18" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" t="str">
+        <f>VLOOKUP(V18,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF18" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI18" t="e">
+        <f>VLOOKUP(U18,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f>VLOOKUP(W18,[2]科目!$A:$D,4,0)</f>
+        <v>PV</v>
+      </c>
+      <c r="AK18" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL18" t="e">
+        <f>VLOOKUP(AK18,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM18" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN18" t="e">
+        <f>VLOOKUP(Z18,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR18" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>605100/贷</v>
+        <v>611100/贷</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="23">FIND("\",A19)</f>
+        <f t="shared" ref="E19" si="21">FIND("\",A19)</f>
         <v>7</v>
       </c>
       <c r="F19" t="s">
@@ -3144,124 +3134,36 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>630100/借</v>
+        <v>605100/借</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E20" si="22">FIND("\",A20)</f>
         <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="U20" t="e">
-        <f>VLOOKUP($A20,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V20" t="str">
-        <f t="shared" si="2"/>
-        <v>630100/借</v>
-      </c>
-      <c r="W20" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X20" t="str">
-        <f>VLOOKUP(W20,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Y20" t="str">
-        <f>VLOOKUP(W20,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z20" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" t="str">
-        <f>VLOOKUP(V20,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF20" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH20" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI20" t="e">
-        <f>VLOOKUP(U20,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ20" t="str">
-        <f>VLOOKUP(W20,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK20" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL20" t="e">
-        <f>VLOOKUP(AK20,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM20" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN20" t="e">
-        <f>VLOOKUP(Z20,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP20" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ20" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR20" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>630100/贷</v>
+        <v>605100/贷</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="24">FIND("\",A21)</f>
+        <f t="shared" ref="E21" si="23">FIND("\",A21)</f>
         <v>7</v>
       </c>
       <c r="F21" t="s">
@@ -3270,14 +3172,14 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>630102/借</v>
+        <v>630100/借</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -3286,20 +3188,108 @@
       <c r="F22" t="s">
         <v>72</v>
       </c>
+      <c r="U22" t="e">
+        <f>VLOOKUP($A22,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="2"/>
+        <v>630100/借</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X22" t="str">
+        <f>VLOOKUP(W22,[2]科目!$A:$C,2,0)</f>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="Y22" t="str">
+        <f>VLOOKUP(W22,[2]科目!$A:$C,3,0)</f>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" t="str">
+        <f>VLOOKUP(V22,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF22" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI22" t="e">
+        <f>VLOOKUP(U22,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" t="str">
+        <f>VLOOKUP(W22,[2]科目!$A:$D,4,0)</f>
+        <v>PV</v>
+      </c>
+      <c r="AK22" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" t="e">
+        <f>VLOOKUP(AK22,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM22" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN22" t="e">
+        <f>VLOOKUP(Z22,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ22" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR22" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>630102/贷</v>
+        <v>630100/贷</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="25">FIND("\",A23)</f>
+        <f t="shared" ref="E23" si="24">FIND("\",A23)</f>
         <v>7</v>
       </c>
       <c r="F23" t="s">
@@ -3308,18 +3298,18 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>63019801/借</v>
+        <v>630102/借</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="26">FIND("\",A24)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>72</v>
@@ -3327,18 +3317,18 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>63019801/贷</v>
+        <v>630102/贷</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="27">FIND("\",A25)</f>
-        <v>9</v>
+        <f t="shared" ref="E25" si="25">FIND("\",A25)</f>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
         <v>73</v>
@@ -3346,301 +3336,213 @@
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
+        <v>63019801/借</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="26">FIND("\",A26)</f>
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>63019801/贷</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="27">FIND("\",A27)</f>
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
         <v>640100/借</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>72</v>
       </c>
-      <c r="U26" t="e">
-        <f>VLOOKUP($A26,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V26" t="str">
+      <c r="U28" t="e">
+        <f>VLOOKUP($A28,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="str">
         <f t="shared" si="2"/>
         <v>640100/借</v>
       </c>
-      <c r="W26" t="str">
+      <c r="W28" t="str">
         <f t="shared" si="3"/>
         <v>本年利润抵消明细</v>
       </c>
-      <c r="X26" t="str">
-        <f>VLOOKUP(W26,[2]科目!$A:$C,2,0)</f>
+      <c r="X28" t="str">
+        <f>VLOOKUP(W28,[2]科目!$A:$C,2,0)</f>
         <v>年初未分配利润（调整后）</v>
       </c>
-      <c r="Y26" t="str">
-        <f>VLOOKUP(W26,[2]科目!$A:$C,3,0)</f>
+      <c r="Y28" t="str">
+        <f>VLOOKUP(W28,[2]科目!$A:$C,3,0)</f>
         <v>年初未分配利润（调整后）</v>
       </c>
-      <c r="Z26" t="e">
+      <c r="Z28" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA26">
+      <c r="AA28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB26">
+      <c r="AB28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE26" t="str">
-        <f>VLOOKUP(V26,科目!$B:$C,2,0)</f>
+      <c r="AE28" t="str">
+        <f>VLOOKUP(V28,科目!$B:$C,2,0)</f>
         <v>本年利润抵消明细</v>
       </c>
-      <c r="AF26" t="e">
+      <c r="AF28" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG26">
+      <c r="AG28">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH26" t="e">
+      <c r="AH28" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI26" t="e">
-        <f>VLOOKUP(U26,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ26" t="str">
-        <f>VLOOKUP(W26,[2]科目!$A:$D,4,0)</f>
+      <c r="AI28" t="e">
+        <f>VLOOKUP(U28,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" t="str">
+        <f>VLOOKUP(W28,[2]科目!$A:$D,4,0)</f>
         <v>PV</v>
       </c>
-      <c r="AK26" t="e">
+      <c r="AK28" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL26" t="e">
-        <f>VLOOKUP(AK26,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM26" t="e">
+      <c r="AL28" t="e">
+        <f>VLOOKUP(AK28,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM28" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN26" t="e">
-        <f>VLOOKUP(Z26,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO26">
+      <c r="AN28" t="e">
+        <f>VLOOKUP(Z28,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO28">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP26" t="e">
+      <c r="AP28" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ26" t="e">
+      <c r="AQ28" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR26" t="e">
+      <c r="AR28" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
-      <c r="A27" t="s">
+    <row r="29" spans="1:44">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>640100/贷</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="E27">
-        <f t="shared" ref="E27" si="28">FIND("\",A27)</f>
+      <c r="E29">
+        <f t="shared" ref="E29" si="28">FIND("\",A29)</f>
         <v>7</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
-      <c r="A28" t="s">
+    <row r="30" spans="1:44">
+      <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>640200/借</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="E28">
-        <f t="shared" ref="E28" si="29">FIND("\",A28)</f>
+      <c r="E30">
+        <f t="shared" ref="E30" si="29">FIND("\",A30)</f>
         <v>7</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
-      <c r="A29" t="s">
+    <row r="31" spans="1:44">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>640200/贷</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="E29">
-        <f t="shared" ref="E29" si="30">FIND("\",A29)</f>
+      <c r="E31">
+        <f t="shared" ref="E31" si="30">FIND("\",A31)</f>
         <v>7</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
-      <c r="A30" t="s">
+    <row r="32" spans="1:44">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>640300/借</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
-      <c r="U30" t="e">
-        <f>VLOOKUP($A30,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="2"/>
-        <v>640300/借</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X30" t="str">
-        <f>VLOOKUP(W30,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Y30" t="str">
-        <f>VLOOKUP(W30,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z30" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" t="str">
-        <f>VLOOKUP(V30,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF30" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI30" t="e">
-        <f>VLOOKUP(U30,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ30" t="str">
-        <f>VLOOKUP(W30,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK30" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL30" t="e">
-        <f>VLOOKUP(AK30,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM30" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN30" t="e">
-        <f>VLOOKUP(Z30,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP30" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ30" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR30" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:44">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>640300/贷</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31" si="31">FIND("\",A31)</f>
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:44">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>660100/借</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -3658,7 +3560,7 @@
       </c>
       <c r="V32" t="str">
         <f t="shared" si="2"/>
-        <v>660100/借</v>
+        <v>640300/借</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="3"/>
@@ -3743,17 +3645,17 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>660100/贷</v>
+        <v>640300/贷</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33" si="32">FIND("\",A33)</f>
+        <f t="shared" ref="E33" si="31">FIND("\",A33)</f>
         <v>7</v>
       </c>
       <c r="F33" t="s">
@@ -3762,11 +3664,11 @@
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>660200/借</v>
+        <v>660100/借</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -3778,20 +3680,108 @@
       <c r="F34" t="s">
         <v>72</v>
       </c>
+      <c r="U34" t="e">
+        <f>VLOOKUP($A34,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="2"/>
+        <v>660100/借</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X34" t="str">
+        <f>VLOOKUP(W34,[2]科目!$A:$C,2,0)</f>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="Y34" t="str">
+        <f>VLOOKUP(W34,[2]科目!$A:$C,3,0)</f>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="Z34" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" t="str">
+        <f>VLOOKUP(V34,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF34" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI34" t="e">
+        <f>VLOOKUP(U34,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ34" t="str">
+        <f>VLOOKUP(W34,[2]科目!$A:$D,4,0)</f>
+        <v>PV</v>
+      </c>
+      <c r="AK34" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL34" t="e">
+        <f>VLOOKUP(AK34,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM34" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN34" t="e">
+        <f>VLOOKUP(Z34,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP34" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ34" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR34" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>660200/贷</v>
+        <v>660100/贷</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35" si="33">FIND("\",A35)</f>
+        <f t="shared" ref="E35" si="32">FIND("\",A35)</f>
         <v>7</v>
       </c>
       <c r="F35" t="s">
@@ -3800,39 +3790,36 @@
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>660216/借</v>
+        <v>660200/借</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36" si="34">FIND("\",A36)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>72</v>
       </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>660216/贷</v>
+        <v>660200/贷</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="35">FIND("\",A37)</f>
+        <f t="shared" ref="E37" si="33">FIND("\",A37)</f>
         <v>7</v>
       </c>
       <c r="F37" t="s">
@@ -3841,36 +3828,39 @@
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>660300/借</v>
+        <v>660216/借</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E38" si="34">FIND("\",A38)</f>
         <v>7</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
       </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>660300/贷</v>
+        <v>660216/贷</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="36">FIND("\",A39)</f>
+        <f t="shared" ref="E39" si="35">FIND("\",A39)</f>
         <v>7</v>
       </c>
       <c r="F39" t="s">
@@ -3879,11 +3869,11 @@
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>671100/借</v>
+        <v>660300/借</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -3898,17 +3888,17 @@
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>671100/贷</v>
+        <v>660300/贷</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="37">FIND("\",A41)</f>
+        <f t="shared" ref="E41" si="36">FIND("\",A41)</f>
         <v>7</v>
       </c>
       <c r="F41" t="s">
@@ -3917,17 +3907,17 @@
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>671102/借</v>
+        <v>671100/借</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42" si="38">FIND("\",A42)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F42" t="s">
@@ -3936,17 +3926,17 @@
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>671102/贷</v>
+        <v>671100/贷</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43" si="39">FIND("\",A43)</f>
+        <f t="shared" ref="E43" si="37">FIND("\",A43)</f>
         <v>7</v>
       </c>
       <c r="F43" t="s">
@@ -3955,226 +3945,78 @@
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
+        <v>671102/借</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44" si="38">FIND("\",A44)</f>
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>671102/贷</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="39">FIND("\",A45)</f>
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
         <v>680100/借</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
-      <c r="A45" t="s">
+    <row r="47" spans="1:44">
+      <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>680100/贷</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="E45">
-        <f t="shared" ref="E45" si="40">FIND("\",A45)</f>
+      <c r="E47">
+        <f t="shared" ref="E47" si="40">FIND("\",A47)</f>
         <v>7</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F47" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:44">
-      <c r="U46" t="e">
-        <f>VLOOKUP($A46,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W46" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X46" t="e">
-        <f>VLOOKUP(W46,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y46" t="e">
-        <f>VLOOKUP(W46,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z46" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" t="e">
-        <f>VLOOKUP(V46,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF46" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG46">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH46" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI46" t="e">
-        <f>VLOOKUP(U46,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ46" t="e">
-        <f>VLOOKUP(W46,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK46" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL46" t="e">
-        <f>VLOOKUP(AK46,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM46" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN46" t="e">
-        <f>VLOOKUP(Z46,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP46" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ46" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR46" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:44">
-      <c r="B47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="U47" t="e">
-        <f>VLOOKUP($A47,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V47" t="str">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="W47" t="str">
-        <f t="shared" si="3"/>
-        <v>外币报表折算差额</v>
-      </c>
-      <c r="X47" t="str">
-        <f>VLOOKUP(W47,[2]科目!$A:$C,2,0)</f>
-        <v>外币报表折算差额</v>
-      </c>
-      <c r="Y47" t="str">
-        <f>VLOOKUP(W47,[2]科目!$A:$C,3,0)</f>
-        <v>外币报表折算差额</v>
-      </c>
-      <c r="Z47" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE47" t="str">
-        <f>VLOOKUP(V47,科目!$B:$C,2,0)</f>
-        <v>外币报表折算差额</v>
-      </c>
-      <c r="AF47" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG47">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH47" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI47" t="e">
-        <f>VLOOKUP(U47,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ47" t="str">
-        <f>VLOOKUP(W47,[2]科目!$A:$D,4,0)</f>
-        <v>CV</v>
-      </c>
-      <c r="AK47" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL47" t="e">
-        <f>VLOOKUP(AK47,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM47" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN47" t="e">
-        <f>VLOOKUP(Z47,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP47" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ47" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR47" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:44">
@@ -4269,35 +4111,207 @@
     </row>
     <row r="49" spans="2:44">
       <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" t="e">
+        <f>VLOOKUP($A49,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="2"/>
+        <v>9999</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="3"/>
+        <v>外币报表折算差额</v>
+      </c>
+      <c r="X49" t="str">
+        <f>VLOOKUP(W49,[2]科目!$A:$C,2,0)</f>
+        <v>外币报表折算差额</v>
+      </c>
+      <c r="Y49" t="str">
+        <f>VLOOKUP(W49,[2]科目!$A:$C,3,0)</f>
+        <v>外币报表折算差额</v>
+      </c>
+      <c r="Z49" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" t="str">
+        <f>VLOOKUP(V49,科目!$B:$C,2,0)</f>
+        <v>外币报表折算差额</v>
+      </c>
+      <c r="AF49" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI49" t="e">
+        <f>VLOOKUP(U49,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ49" t="str">
+        <f>VLOOKUP(W49,[2]科目!$A:$D,4,0)</f>
+        <v>CV</v>
+      </c>
+      <c r="AK49" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL49" t="e">
+        <f>VLOOKUP(AK49,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM49" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN49" t="e">
+        <f>VLOOKUP(Z49,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP49" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ49" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR49" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:44">
+      <c r="U50" t="e">
+        <f>VLOOKUP($A50,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W50" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X50" t="e">
+        <f>VLOOKUP(W50,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y50" t="e">
+        <f>VLOOKUP(W50,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z50" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" t="e">
+        <f>VLOOKUP(V50,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF50" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH50" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI50" t="e">
+        <f>VLOOKUP(U50,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ50" t="e">
+        <f>VLOOKUP(W50,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK50" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL50" t="e">
+        <f>VLOOKUP(AK50,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM50" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN50" t="e">
+        <f>VLOOKUP(Z50,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP50" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ50" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR50" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:44">
+      <c r="B51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="E49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:44">
-      <c r="B50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:44">
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -4306,247 +4320,57 @@
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="2:44">
-      <c r="B53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:44">
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
         <v>18</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="2:44">
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:44">
+      <c r="B57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>63</v>
       </c>
-      <c r="U55" t="e">
-        <f>VLOOKUP($A55,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V55" t="str">
+      <c r="U57" t="e">
+        <f>VLOOKUP($A57,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V57" t="str">
         <f t="shared" si="2"/>
         <v>122101/贷</v>
-      </c>
-      <c r="W55" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X55">
-        <f>VLOOKUP(W55,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <f>VLOOKUP(W55,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z55" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE55" t="str">
-        <f>VLOOKUP(V55,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF55" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG55">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH55" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI55" t="e">
-        <f>VLOOKUP(U55,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ55" t="str">
-        <f>VLOOKUP(W55,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK55" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL55" t="e">
-        <f>VLOOKUP(AK55,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM55" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN55" t="e">
-        <f>VLOOKUP(Z55,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP55" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ55" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR55" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:44">
-      <c r="B56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>63</v>
-      </c>
-      <c r="U56" t="e">
-        <f>VLOOKUP($A56,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="2"/>
-        <v>122101/借</v>
-      </c>
-      <c r="W56" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X56">
-        <f>VLOOKUP(W56,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <f>VLOOKUP(W56,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z56" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE56" t="str">
-        <f>VLOOKUP(V56,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF56" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG56">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH56" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI56" t="e">
-        <f>VLOOKUP(U56,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ56" t="str">
-        <f>VLOOKUP(W56,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK56" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL56" t="e">
-        <f>VLOOKUP(AK56,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM56" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN56" t="e">
-        <f>VLOOKUP(Z56,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP56" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ56" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR56" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:44">
-      <c r="B57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>63</v>
-      </c>
-      <c r="U57" t="e">
-        <f>VLOOKUP($A57,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="2"/>
-        <v>122102/贷</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="3"/>
@@ -4631,7 +4455,7 @@
     </row>
     <row r="58" spans="2:44">
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -4648,7 +4472,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="2"/>
-        <v>122102/借</v>
+        <v>122101/借</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="3"/>
@@ -4733,13 +4557,13 @@
     </row>
     <row r="59" spans="2:44">
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
         <v>63</v>
@@ -4750,7 +4574,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="2"/>
-        <v>12210301/贷</v>
+        <v>122102/贷</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
@@ -4835,13 +4659,13 @@
     </row>
     <row r="60" spans="2:44">
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
         <v>63</v>
@@ -4852,7 +4676,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="2"/>
-        <v>12210301/借</v>
+        <v>122102/借</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="3"/>
@@ -4937,13 +4761,13 @@
     </row>
     <row r="61" spans="2:44">
       <c r="B61" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
         <v>63</v>
@@ -4954,7 +4778,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/贷</v>
+        <v>12210301/贷</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="3"/>
@@ -5039,13 +4863,13 @@
     </row>
     <row r="62" spans="2:44">
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
         <v>63</v>
@@ -5056,7 +4880,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/借</v>
+        <v>12210301/借</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="3"/>
@@ -5141,13 +4965,13 @@
     </row>
     <row r="63" spans="2:44">
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
         <v>63</v>
@@ -5158,7 +4982,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/贷</v>
+        <v>12210302/贷</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="3"/>
@@ -5243,13 +5067,13 @@
     </row>
     <row r="64" spans="2:44">
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
         <v>63</v>
@@ -5260,7 +5084,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/借</v>
+        <v>12210302/借</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="3"/>
@@ -5345,7 +5169,7 @@
     </row>
     <row r="65" spans="2:44">
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -5362,7 +5186,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/贷</v>
+        <v>12210401/贷</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="3"/>
@@ -5447,7 +5271,7 @@
     </row>
     <row r="66" spans="2:44">
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -5464,7 +5288,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/借</v>
+        <v>12210401/借</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="3"/>
@@ -5549,7 +5373,7 @@
     </row>
     <row r="67" spans="2:44">
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -5566,7 +5390,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="2"/>
-        <v>122105/贷</v>
+        <v>12210402/贷</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="3"/>
@@ -5651,7 +5475,7 @@
     </row>
     <row r="68" spans="2:44">
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -5662,10 +5486,98 @@
       <c r="E68" t="s">
         <v>63</v>
       </c>
+      <c r="U68" t="e">
+        <f>VLOOKUP($A68,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="2"/>
+        <v>12210402/借</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X68">
+        <f>VLOOKUP(W68,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f>VLOOKUP(W68,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z68" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" t="str">
+        <f>VLOOKUP(V68,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF68" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH68" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI68" t="e">
+        <f>VLOOKUP(U68,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ68" t="str">
+        <f>VLOOKUP(W68,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK68" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL68" t="e">
+        <f>VLOOKUP(AK68,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM68" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN68" t="e">
+        <f>VLOOKUP(Z68,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP68" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ68" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR68" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="69" spans="2:44">
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -5676,10 +5588,98 @@
       <c r="E69" t="s">
         <v>63</v>
       </c>
+      <c r="U69" t="e">
+        <f>VLOOKUP($A69,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="2"/>
+        <v>122105/贷</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X69">
+        <f>VLOOKUP(W69,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f>VLOOKUP(W69,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z69" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" t="str">
+        <f>VLOOKUP(V69,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF69" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH69" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI69" t="e">
+        <f>VLOOKUP(U69,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ69" t="str">
+        <f>VLOOKUP(W69,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK69" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL69" t="e">
+        <f>VLOOKUP(AK69,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM69" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN69" t="e">
+        <f>VLOOKUP(Z69,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP69" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ69" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR69" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="70" spans="2:44">
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="71" spans="2:44">
       <c r="B71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="72" spans="2:44">
       <c r="B72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="73" spans="2:44">
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>63</v>
@@ -5735,13 +5735,13 @@
     </row>
     <row r="74" spans="2:44">
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
         <v>63</v>
@@ -5749,13 +5749,13 @@
     </row>
     <row r="75" spans="2:44">
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
         <v>63</v>
@@ -5763,13 +5763,13 @@
     </row>
     <row r="76" spans="2:44">
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
         <v>63</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="77" spans="2:44">
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="78" spans="2:44">
       <c r="B78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="79" spans="2:44">
       <c r="B79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="80" spans="2:44">
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="81" spans="1:44">
       <c r="B81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="82" spans="1:44">
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -5860,10 +5860,32 @@
       </c>
     </row>
     <row r="83" spans="1:44">
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="84" spans="1:44">
-      <c r="B84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="85" spans="1:44">
       <c r="B85" s="1"/>
@@ -5878,507 +5900,513 @@
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:44">
-      <c r="U89" t="e">
-        <f>VLOOKUP($A95,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V89" t="str">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:44">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:44">
+      <c r="U91" t="e">
+        <f>VLOOKUP($A97,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W89" t="e">
+      <c r="W91" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X89" t="e">
-        <f>VLOOKUP(W89,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y89" t="e">
-        <f>VLOOKUP(W89,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z89" t="e">
+      <c r="X91" t="e">
+        <f>VLOOKUP(W91,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y91" t="e">
+        <f>VLOOKUP(W91,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z91" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA89">
+      <c r="AA91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB89">
+      <c r="AB91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE89" t="e">
-        <f>VLOOKUP(V89,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF89" t="e">
+      <c r="AE91" t="e">
+        <f>VLOOKUP(V91,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF91" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG89">
+      <c r="AG91">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH89" t="e">
+      <c r="AH91" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI89" t="e">
-        <f>VLOOKUP(U89,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ89" t="e">
-        <f>VLOOKUP(W89,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK89" t="e">
+      <c r="AI91" t="e">
+        <f>VLOOKUP(U91,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ91" t="e">
+        <f>VLOOKUP(W91,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK91" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL89" t="e">
-        <f>VLOOKUP(AK89,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM89" t="e">
+      <c r="AL91" t="e">
+        <f>VLOOKUP(AK91,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM91" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN89" t="e">
-        <f>VLOOKUP(Z89,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO89">
+      <c r="AN91" t="e">
+        <f>VLOOKUP(Z91,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP89" t="e">
+      <c r="AP91" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ89" t="e">
+      <c r="AQ91" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR89" t="e">
+      <c r="AR91" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:44">
-      <c r="A90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:44">
-      <c r="A91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:44">
       <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:44">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:44">
+      <c r="A94" t="s">
         <v>23</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>26</v>
       </c>
-      <c r="U92" t="e">
-        <f>VLOOKUP($A92,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V92" t="str">
+      <c r="U94" t="e">
+        <f>VLOOKUP($A94,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W92" t="e">
+      <c r="W94" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X92" t="e">
-        <f>VLOOKUP(W92,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y92" t="e">
-        <f>VLOOKUP(W92,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z92" t="e">
+      <c r="X94" t="e">
+        <f>VLOOKUP(W94,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y94" t="e">
+        <f>VLOOKUP(W94,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z94" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA92">
+      <c r="AA94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB92">
+      <c r="AB94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE92" t="e">
-        <f>VLOOKUP(V92,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF92" t="e">
+      <c r="AE94" t="e">
+        <f>VLOOKUP(V94,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF94" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG92">
+      <c r="AG94">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH92" t="e">
+      <c r="AH94" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI92" t="e">
-        <f>VLOOKUP(U92,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ92" t="e">
-        <f>VLOOKUP(W92,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK92" t="e">
+      <c r="AI94" t="e">
+        <f>VLOOKUP(U94,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ94" t="e">
+        <f>VLOOKUP(W94,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK94" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL92" t="e">
-        <f>VLOOKUP(AK92,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM92" t="e">
+      <c r="AL94" t="e">
+        <f>VLOOKUP(AK94,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM94" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN92" t="e">
-        <f>VLOOKUP(Z92,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO92">
+      <c r="AN94" t="e">
+        <f>VLOOKUP(Z94,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO94">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP92" t="e">
+      <c r="AP94" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ92" t="e">
+      <c r="AQ94" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR92" t="e">
+      <c r="AR94" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:44">
-      <c r="A93" t="s">
+    <row r="95" spans="1:44">
+      <c r="A95" t="s">
         <v>25</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>27</v>
       </c>
-      <c r="U93" t="e">
-        <f>VLOOKUP($A93,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V93" t="str">
+      <c r="U95" t="e">
+        <f>VLOOKUP($A95,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W93" t="e">
+      <c r="W95" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X93" t="e">
-        <f>VLOOKUP(W93,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y93" t="e">
-        <f>VLOOKUP(W93,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z93" t="e">
+      <c r="X95" t="e">
+        <f>VLOOKUP(W95,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y95" t="e">
+        <f>VLOOKUP(W95,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z95" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA93">
+      <c r="AA95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB93">
+      <c r="AB95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE93" t="e">
-        <f>VLOOKUP(V93,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF93" t="e">
+      <c r="AE95" t="e">
+        <f>VLOOKUP(V95,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF95" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG93">
+      <c r="AG95">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH93" t="e">
+      <c r="AH95" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI93" t="e">
-        <f>VLOOKUP(U93,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ93" t="e">
-        <f>VLOOKUP(W93,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK93" t="e">
+      <c r="AI95" t="e">
+        <f>VLOOKUP(U95,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ95" t="e">
+        <f>VLOOKUP(W95,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK95" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL93" t="e">
-        <f>VLOOKUP(AK93,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM93" t="e">
+      <c r="AL95" t="e">
+        <f>VLOOKUP(AK95,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM95" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN93" t="e">
-        <f>VLOOKUP(Z93,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO93">
+      <c r="AN95" t="e">
+        <f>VLOOKUP(Z95,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO95">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP93" t="e">
+      <c r="AP95" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ93" t="e">
+      <c r="AQ95" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR93" t="e">
+      <c r="AR95" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:44">
-      <c r="A94" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:44">
-      <c r="A95" t="s">
-        <v>112</v>
-      </c>
-      <c r="C95" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:44">
       <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44">
+      <c r="A98" t="s">
         <v>22</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>26</v>
       </c>
-      <c r="U96" t="e">
-        <f>VLOOKUP($A96,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V96" t="str">
+      <c r="U98" t="e">
+        <f>VLOOKUP($A98,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W96" t="e">
+      <c r="W98" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X96" t="e">
-        <f>VLOOKUP(W96,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y96" t="e">
-        <f>VLOOKUP(W96,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z96" t="e">
+      <c r="X98" t="e">
+        <f>VLOOKUP(W98,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y98" t="e">
+        <f>VLOOKUP(W98,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z98" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA96">
+      <c r="AA98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB96">
+      <c r="AB98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE96" t="e">
-        <f>VLOOKUP(V96,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF96" t="e">
+      <c r="AE98" t="e">
+        <f>VLOOKUP(V98,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF98" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG96">
+      <c r="AG98">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH96" t="e">
+      <c r="AH98" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI96" t="e">
-        <f>VLOOKUP(U96,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ96" t="e">
-        <f>VLOOKUP(W96,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK96" t="e">
+      <c r="AI98" t="e">
+        <f>VLOOKUP(U98,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ98" t="e">
+        <f>VLOOKUP(W98,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK98" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL96" t="e">
-        <f>VLOOKUP(AK96,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM96" t="e">
+      <c r="AL98" t="e">
+        <f>VLOOKUP(AK98,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM98" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN96" t="e">
-        <f>VLOOKUP(Z96,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO96">
+      <c r="AN98" t="e">
+        <f>VLOOKUP(Z98,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO98">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP96" t="e">
+      <c r="AP98" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ96" t="e">
+      <c r="AQ98" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR96" t="e">
+      <c r="AR98" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:44">
-      <c r="A97" t="s">
+    <row r="99" spans="1:44">
+      <c r="A99" t="s">
         <v>24</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>27</v>
       </c>
-      <c r="U97" t="e">
-        <f>VLOOKUP($A97,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V97" t="str">
+      <c r="U99" t="e">
+        <f>VLOOKUP($A99,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V99" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W97" t="e">
+      <c r="W99" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X97" t="e">
-        <f>VLOOKUP(W97,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y97" t="e">
-        <f>VLOOKUP(W97,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z97" t="e">
+      <c r="X99" t="e">
+        <f>VLOOKUP(W99,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y99" t="e">
+        <f>VLOOKUP(W99,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z99" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA97">
+      <c r="AA99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB97">
+      <c r="AB99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE97" t="e">
-        <f>VLOOKUP(V97,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF97" t="e">
+      <c r="AE99" t="e">
+        <f>VLOOKUP(V99,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF99" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG97">
+      <c r="AG99">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH97" t="e">
+      <c r="AH99" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI97" t="e">
-        <f>VLOOKUP(U97,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ97" t="e">
-        <f>VLOOKUP(W97,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK97" t="e">
+      <c r="AI99" t="e">
+        <f>VLOOKUP(U99,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ99" t="e">
+        <f>VLOOKUP(W99,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK99" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL97" t="e">
-        <f>VLOOKUP(AK97,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM97" t="e">
+      <c r="AL99" t="e">
+        <f>VLOOKUP(AK99,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM99" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN97" t="e">
-        <f>VLOOKUP(Z97,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO97">
+      <c r="AN99" t="e">
+        <f>VLOOKUP(Z99,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO99">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP97" t="e">
+      <c r="AP99" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ97" t="e">
+      <c r="AQ99" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR97" t="e">
+      <c r="AR99" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>

--- a/00框架文件/02SR.xlsx
+++ b/00框架文件/02SR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADA5F3E-8C08-4317-96C9-C27134D87443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CB55F-F578-4E43-87A3-10978FFE1F25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$56:$E$84</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,7 +458,8 @@
     <t>224199/借</t>
   </si>
   <si>
-    <t>22410501/借</t>
+    <t>224105/借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -880,6 +881,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="科目"/>
+      <sheetName val="报表筛选"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -902,7 +904,7 @@
             <v>库存现金</v>
           </cell>
           <cell r="B2" t="str">
-            <v>货币资金</v>
+            <v xml:space="preserve">    货币资金</v>
           </cell>
           <cell r="C2" t="str">
             <v>货币资金</v>
@@ -916,7 +918,7 @@
             <v>银行存款</v>
           </cell>
           <cell r="B3" t="str">
-            <v>货币资金</v>
+            <v xml:space="preserve">    货币资金</v>
           </cell>
           <cell r="C3" t="str">
             <v>货币资金</v>
@@ -930,7 +932,7 @@
             <v>其他货币资金</v>
           </cell>
           <cell r="B4" t="str">
-            <v>货币资金</v>
+            <v xml:space="preserve">    货币资金</v>
           </cell>
           <cell r="C4" t="str">
             <v>货币资金</v>
@@ -944,7 +946,7 @@
             <v>交易性金融资产</v>
           </cell>
           <cell r="B5" t="str">
-            <v>交易性金融资产</v>
+            <v xml:space="preserve">    交易性金融资产</v>
           </cell>
           <cell r="C5" t="str">
             <v>交易性金融资产</v>
@@ -958,7 +960,7 @@
             <v>应收票据</v>
           </cell>
           <cell r="B6" t="str">
-            <v>应收票据</v>
+            <v xml:space="preserve">    应收票据</v>
           </cell>
           <cell r="C6" t="str">
             <v>应收票据</v>
@@ -972,7 +974,7 @@
             <v>应收账款</v>
           </cell>
           <cell r="B7" t="str">
-            <v>应收账款</v>
+            <v xml:space="preserve">    应收账款</v>
           </cell>
           <cell r="C7" t="str">
             <v>应收账款</v>
@@ -986,7 +988,7 @@
             <v>应收账款坏账准备</v>
           </cell>
           <cell r="B8" t="str">
-            <v>应收账款</v>
+            <v xml:space="preserve">    应收账款</v>
           </cell>
           <cell r="C8" t="str">
             <v>应收账款</v>
@@ -1000,7 +1002,7 @@
             <v>预付账款</v>
           </cell>
           <cell r="B9" t="str">
-            <v>预付款项</v>
+            <v xml:space="preserve">    预付款项</v>
           </cell>
           <cell r="C9" t="str">
             <v>预付款项</v>
@@ -1013,6 +1015,9 @@
           <cell r="A10" t="str">
             <v>应收股利</v>
           </cell>
+          <cell r="B10" t="str">
+            <v xml:space="preserve">    其他应收款</v>
+          </cell>
           <cell r="C10" t="str">
             <v>应收股利</v>
           </cell>
@@ -1025,7 +1030,7 @@
             <v>应收利息</v>
           </cell>
           <cell r="B11" t="str">
-            <v>应收利息</v>
+            <v xml:space="preserve">    其他应收款</v>
           </cell>
           <cell r="C11" t="str">
             <v>应收利息</v>
@@ -1039,7 +1044,7 @@
             <v>其他应收款</v>
           </cell>
           <cell r="B12" t="str">
-            <v>其他应收款</v>
+            <v xml:space="preserve">    其他应收款</v>
           </cell>
           <cell r="C12" t="str">
             <v>其他应收款</v>
@@ -1053,7 +1058,7 @@
             <v>其他应收款坏账准备</v>
           </cell>
           <cell r="B13" t="str">
-            <v>其他应收款</v>
+            <v xml:space="preserve">    其他应收款</v>
           </cell>
           <cell r="C13" t="str">
             <v>其他应收款</v>
@@ -1067,7 +1072,7 @@
             <v>材料采购</v>
           </cell>
           <cell r="B14" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C14" t="str">
             <v>存货</v>
@@ -1081,7 +1086,7 @@
             <v>在途物资</v>
           </cell>
           <cell r="B15" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C15" t="str">
             <v>存货</v>
@@ -1095,7 +1100,7 @@
             <v>原材料</v>
           </cell>
           <cell r="B16" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C16" t="str">
             <v>存货</v>
@@ -1109,7 +1114,7 @@
             <v>半成品</v>
           </cell>
           <cell r="B17" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C17" t="str">
             <v>存货</v>
@@ -1123,7 +1128,7 @@
             <v>材料成本差异</v>
           </cell>
           <cell r="B18" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C18" t="str">
             <v>存货</v>
@@ -1137,7 +1142,7 @@
             <v>库存商品</v>
           </cell>
           <cell r="B19" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C19" t="str">
             <v>存货</v>
@@ -1151,7 +1156,7 @@
             <v>发出商品</v>
           </cell>
           <cell r="B20" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C20" t="str">
             <v>存货</v>
@@ -1165,7 +1170,7 @@
             <v>商品进销差价</v>
           </cell>
           <cell r="B21" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C21" t="str">
             <v>存货</v>
@@ -1179,7 +1184,7 @@
             <v>委托加工物资</v>
           </cell>
           <cell r="B22" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C22" t="str">
             <v>存货</v>
@@ -1193,7 +1198,7 @@
             <v>周转材料</v>
           </cell>
           <cell r="B23" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C23" t="str">
             <v>存货</v>
@@ -1207,7 +1212,7 @@
             <v>存货跌价准备</v>
           </cell>
           <cell r="B24" t="str">
-            <v>存货</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C24" t="str">
             <v>存货减值准备</v>
@@ -1249,7 +1254,7 @@
             <v>可供出售金融资产</v>
           </cell>
           <cell r="B27" t="str">
-            <v>其他权益工具投资</v>
+            <v xml:space="preserve">    其他权益工具投资</v>
           </cell>
           <cell r="C27" t="str">
             <v>其他权益工具投资</v>
@@ -1263,7 +1268,7 @@
             <v>长期股权投资</v>
           </cell>
           <cell r="B28" t="str">
-            <v>长期股权投资</v>
+            <v xml:space="preserve">    长期股权投资</v>
           </cell>
           <cell r="C28" t="str">
             <v>长期股权投资</v>
@@ -1277,7 +1282,7 @@
             <v>长期股权投资减值准备</v>
           </cell>
           <cell r="B29" t="str">
-            <v>长期股权投资</v>
+            <v xml:space="preserve">    长期股权投资</v>
           </cell>
           <cell r="C29" t="str">
             <v>长期股权投资</v>
@@ -1291,7 +1296,7 @@
             <v>长期投资减值准备</v>
           </cell>
           <cell r="B30" t="str">
-            <v>长期股权投资</v>
+            <v xml:space="preserve">    长期股权投资</v>
           </cell>
           <cell r="C30" t="str">
             <v>长期股权投资</v>
@@ -1305,7 +1310,7 @@
             <v>长期应收款</v>
           </cell>
           <cell r="B31" t="str">
-            <v>长期应收款</v>
+            <v xml:space="preserve">    长期应收款</v>
           </cell>
           <cell r="C31" t="str">
             <v>长期应收款</v>
@@ -1319,7 +1324,7 @@
             <v>使用权资产</v>
           </cell>
           <cell r="B32" t="str">
-            <v>使用权资产</v>
+            <v xml:space="preserve">    使用权资产</v>
           </cell>
           <cell r="C32" t="str">
             <v>使用权资产</v>
@@ -1333,7 +1338,7 @@
             <v>固定资产</v>
           </cell>
           <cell r="B33" t="str">
-            <v>固定资产</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C33" t="str">
             <v>固定资产原价</v>
@@ -1347,7 +1352,7 @@
             <v>累计折旧</v>
           </cell>
           <cell r="B34" t="str">
-            <v>固定资产</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C34" t="str">
             <v>减：累计折旧</v>
@@ -1361,7 +1366,7 @@
             <v>固定资产减值准备</v>
           </cell>
           <cell r="B35" t="str">
-            <v>固定资产</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C35" t="str">
             <v>固定资产</v>
@@ -1375,7 +1380,7 @@
             <v>在建工程</v>
           </cell>
           <cell r="B36" t="str">
-            <v>在建工程</v>
+            <v xml:space="preserve">    在建工程</v>
           </cell>
           <cell r="C36" t="str">
             <v>在建工程</v>
@@ -1417,7 +1422,7 @@
             <v>无形资产</v>
           </cell>
           <cell r="B39" t="str">
-            <v>无形资产</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C39" t="str">
             <v>无形资产</v>
@@ -1431,7 +1436,7 @@
             <v>累计摊销</v>
           </cell>
           <cell r="B40" t="str">
-            <v>无形资产</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C40" t="str">
             <v>无形资产</v>
@@ -1445,7 +1450,7 @@
             <v>无形资产减值准备</v>
           </cell>
           <cell r="B41" t="str">
-            <v>无形资产</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C41" t="str">
             <v>无形资产</v>
@@ -1459,7 +1464,7 @@
             <v>商誉</v>
           </cell>
           <cell r="B42" t="str">
-            <v>商誉</v>
+            <v xml:space="preserve">    商誉</v>
           </cell>
           <cell r="C42" t="str">
             <v>商誉</v>
@@ -1473,7 +1478,7 @@
             <v>长期待摊费用</v>
           </cell>
           <cell r="B43" t="str">
-            <v>长期待摊费用</v>
+            <v xml:space="preserve">    长期待摊费用</v>
           </cell>
           <cell r="C43" t="str">
             <v>长期待摊费用</v>
@@ -1487,7 +1492,7 @@
             <v>递延所得税资产</v>
           </cell>
           <cell r="B44" t="str">
-            <v>递延所得税资产</v>
+            <v xml:space="preserve">    递延所得税资产</v>
           </cell>
           <cell r="C44" t="str">
             <v>递延所得税资产</v>
@@ -1501,7 +1506,7 @@
             <v>短期借款</v>
           </cell>
           <cell r="B45" t="str">
-            <v>短期借款</v>
+            <v xml:space="preserve">    短期借款</v>
           </cell>
           <cell r="C45" t="str">
             <v>短期借款</v>
@@ -1515,7 +1520,7 @@
             <v>应付票据</v>
           </cell>
           <cell r="B46" t="str">
-            <v>应付票据</v>
+            <v xml:space="preserve">    应付票据</v>
           </cell>
           <cell r="C46" t="str">
             <v>应付票据</v>
@@ -1529,7 +1534,7 @@
             <v>应付账款</v>
           </cell>
           <cell r="B47" t="str">
-            <v>应付账款</v>
+            <v xml:space="preserve">    应付账款</v>
           </cell>
           <cell r="C47" t="str">
             <v>应付账款</v>
@@ -1543,7 +1548,7 @@
             <v>预收账款</v>
           </cell>
           <cell r="B48" t="str">
-            <v>预收款项</v>
+            <v xml:space="preserve">    预收款项</v>
           </cell>
           <cell r="C48" t="str">
             <v>预收款项</v>
@@ -1557,7 +1562,7 @@
             <v>应付职工薪酬</v>
           </cell>
           <cell r="B49" t="str">
-            <v>应付职工薪酬</v>
+            <v xml:space="preserve">    应付职工薪酬</v>
           </cell>
           <cell r="C49" t="str">
             <v>应付职工薪酬</v>
@@ -1571,7 +1576,7 @@
             <v>应交税费</v>
           </cell>
           <cell r="B50" t="str">
-            <v>应交税费</v>
+            <v xml:space="preserve">    应交税费</v>
           </cell>
           <cell r="C50" t="str">
             <v>应交税费</v>
@@ -1585,7 +1590,7 @@
             <v>应付利息</v>
           </cell>
           <cell r="B51" t="str">
-            <v>应付利息</v>
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C51" t="str">
             <v>应付利息</v>
@@ -1599,7 +1604,7 @@
             <v>应付股利</v>
           </cell>
           <cell r="B52" t="str">
-            <v>其他应付款</v>
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C52" t="str">
             <v>应付股利</v>
@@ -1613,7 +1618,7 @@
             <v>其他应付款</v>
           </cell>
           <cell r="B53" t="str">
-            <v>其他应付款</v>
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C53" t="str">
             <v>其他应付款</v>
@@ -1638,7 +1643,7 @@
             <v>租赁负债</v>
           </cell>
           <cell r="B55" t="str">
-            <v>租赁负债</v>
+            <v xml:space="preserve">    租赁负债</v>
           </cell>
           <cell r="C55" t="str">
             <v>租赁负债</v>
@@ -1652,7 +1657,7 @@
             <v>长期借款</v>
           </cell>
           <cell r="B56" t="str">
-            <v>长期借款</v>
+            <v xml:space="preserve">    长期借款</v>
           </cell>
           <cell r="C56" t="str">
             <v>长期借款</v>
@@ -1666,7 +1671,7 @@
             <v>长期应付款</v>
           </cell>
           <cell r="B57" t="str">
-            <v>长期应付款</v>
+            <v xml:space="preserve">    长期应付款</v>
           </cell>
           <cell r="C57" t="str">
             <v>长期应付款</v>
@@ -1680,7 +1685,7 @@
             <v>预计负债</v>
           </cell>
           <cell r="B58" t="str">
-            <v>预计负债</v>
+            <v xml:space="preserve">    预计负债</v>
           </cell>
           <cell r="C58" t="str">
             <v>预计负债</v>
@@ -1694,7 +1699,7 @@
             <v>递延所得税负债</v>
           </cell>
           <cell r="B59" t="str">
-            <v>递延所得税负债</v>
+            <v xml:space="preserve">    递延所得税负债</v>
           </cell>
           <cell r="C59" t="str">
             <v>递延所得税负债</v>
@@ -1708,7 +1713,7 @@
             <v>实收资本</v>
           </cell>
           <cell r="B60" t="str">
-            <v>实收资本（或股本）</v>
+            <v xml:space="preserve">    实收资本(或股本)</v>
           </cell>
           <cell r="C60" t="str">
             <v>实收资本</v>
@@ -1722,7 +1727,7 @@
             <v>资本公积</v>
           </cell>
           <cell r="B61" t="str">
-            <v>资本公积</v>
+            <v xml:space="preserve">    资本公积</v>
           </cell>
           <cell r="C61" t="str">
             <v>资本公积</v>
@@ -1736,7 +1741,7 @@
             <v>盈余公积</v>
           </cell>
           <cell r="B62" t="str">
-            <v>盈余公积</v>
+            <v xml:space="preserve">    盈余公积</v>
           </cell>
           <cell r="C62" t="str">
             <v>盈余公积</v>
@@ -1750,7 +1755,7 @@
             <v>利润分配</v>
           </cell>
           <cell r="B63" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C63" t="str">
             <v>年初未分配利润（调整后）</v>
@@ -1764,7 +1769,7 @@
             <v>库存股</v>
           </cell>
           <cell r="B64" t="str">
-            <v>减：库存股</v>
+            <v xml:space="preserve">       减:库存股</v>
           </cell>
           <cell r="C64" t="str">
             <v>减：库存股</v>
@@ -1778,7 +1783,7 @@
             <v>其他综合收益</v>
           </cell>
           <cell r="B65" t="str">
-            <v>其他综合收益</v>
+            <v xml:space="preserve">    其他综合收益</v>
           </cell>
           <cell r="C65" t="str">
             <v>其他综合收益</v>
@@ -1792,7 +1797,7 @@
             <v>主营业务收入</v>
           </cell>
           <cell r="B66" t="str">
-            <v>营业收入</v>
+            <v>一、营业收入</v>
           </cell>
           <cell r="C66" t="str">
             <v>主营业务收入</v>
@@ -1806,7 +1811,7 @@
             <v>利息收入</v>
           </cell>
           <cell r="B67" t="str">
-            <v>利息收入</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C67" t="str">
             <v>财务费用</v>
@@ -1820,7 +1825,7 @@
             <v>其他业务收入</v>
           </cell>
           <cell r="B68" t="str">
-            <v>营业收入</v>
+            <v>一、营业收入</v>
           </cell>
           <cell r="C68" t="str">
             <v>其他业务收入</v>
@@ -1834,7 +1839,7 @@
             <v>汇兑损益</v>
           </cell>
           <cell r="B69" t="str">
-            <v>汇兑收益（损失以“-”号填列）</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C69" t="str">
             <v>财务费用</v>
@@ -1848,7 +1853,7 @@
             <v>公允价值变动损益</v>
           </cell>
           <cell r="B70" t="str">
-            <v>公允价值变动收益（损失以“-”号填列）</v>
+            <v xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C70" t="str">
             <v>公允价值变动收益</v>
@@ -1862,7 +1867,7 @@
             <v>投资收益</v>
           </cell>
           <cell r="B71" t="str">
-            <v>投资收益（损失以“-”号填列）</v>
+            <v xml:space="preserve">         投资收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C71" t="str">
             <v>投资收益</v>
@@ -1876,7 +1881,7 @@
             <v>营业外收入</v>
           </cell>
           <cell r="B72" t="str">
-            <v>营业外收入</v>
+            <v xml:space="preserve">    加: 营业外收入</v>
           </cell>
           <cell r="C72" t="str">
             <v>加：营业外收入</v>
@@ -1890,7 +1895,7 @@
             <v>主营业务成本</v>
           </cell>
           <cell r="B73" t="str">
-            <v>营业成本</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C73" t="str">
             <v>其中：主营业务成本</v>
@@ -1904,7 +1909,7 @@
             <v>其他业务成本</v>
           </cell>
           <cell r="B74" t="str">
-            <v>营业成本</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C74" t="str">
             <v>其他业务支出</v>
@@ -1918,7 +1923,7 @@
             <v>营业税金及附加</v>
           </cell>
           <cell r="B75" t="str">
-            <v>营业税金及附加</v>
+            <v xml:space="preserve">        税金及附加</v>
           </cell>
           <cell r="C75" t="str">
             <v>营业税金及附加</v>
@@ -1932,7 +1937,7 @@
             <v>利息支出</v>
           </cell>
           <cell r="B76" t="str">
-            <v>利息支出</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C76" t="str">
             <v>财务费用</v>
@@ -1946,7 +1951,7 @@
             <v>销售费用</v>
           </cell>
           <cell r="B77" t="str">
-            <v>销售费用</v>
+            <v xml:space="preserve">        销售费用</v>
           </cell>
           <cell r="C77" t="str">
             <v>营业费用</v>
@@ -1960,7 +1965,7 @@
             <v>管理费用</v>
           </cell>
           <cell r="B78" t="str">
-            <v>管理费用</v>
+            <v xml:space="preserve">        管理费用</v>
           </cell>
           <cell r="C78" t="str">
             <v>管理费用</v>
@@ -1974,7 +1979,7 @@
             <v>研发费用</v>
           </cell>
           <cell r="B79" t="str">
-            <v>研发费用</v>
+            <v xml:space="preserve">        研发费用</v>
           </cell>
           <cell r="C79" t="str">
             <v>研发费用</v>
@@ -1988,7 +1993,7 @@
             <v>财务费用</v>
           </cell>
           <cell r="B80" t="str">
-            <v>财务费用</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C80" t="str">
             <v>财务费用</v>
@@ -2002,7 +2007,7 @@
             <v>资产减值损失</v>
           </cell>
           <cell r="B81" t="str">
-            <v>资产减值损失</v>
+            <v xml:space="preserve">   资产减值损失（损失以“－”号填列）</v>
           </cell>
           <cell r="C81" t="str">
             <v>资产减值损失</v>
@@ -2016,7 +2021,7 @@
             <v>营业外支出</v>
           </cell>
           <cell r="B82" t="str">
-            <v>营业外支出</v>
+            <v xml:space="preserve">    减：营业外支出</v>
           </cell>
           <cell r="C82" t="str">
             <v>减：营业外支出</v>
@@ -2030,7 +2035,7 @@
             <v>所得税费用</v>
           </cell>
           <cell r="B83" t="str">
-            <v>所得税费用</v>
+            <v xml:space="preserve">    减：所得税费用</v>
           </cell>
           <cell r="C83" t="str">
             <v>减：所得税</v>
@@ -2052,7 +2057,7 @@
             <v>本年利润</v>
           </cell>
           <cell r="B86" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C86" t="str">
             <v>年初未分配利润（调整后）</v>
@@ -2066,7 +2071,7 @@
             <v>本年利润抵消明细</v>
           </cell>
           <cell r="B87" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="C87" t="str">
             <v>年初未分配利润（调整后）</v>
@@ -2117,7 +2122,22 @@
             <v>PL</v>
           </cell>
         </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>代扣代缴特殊逻辑</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v xml:space="preserve">    其他应收款</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>其他应收款</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>BS</v>
+          </cell>
+        </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2386,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR99"/>
+  <dimension ref="A1:AR95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2547,31 +2567,31 @@
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V99" si="2">TRIM($B4)</f>
+        <f t="shared" ref="V4:V95" si="2">TRIM($B4)</f>
         <v>123102/借</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W99" si="3">_xlfn.IFNA(AE4,AH4)</f>
+        <f t="shared" ref="W4:W95" si="3">_xlfn.IFNA(AE4,AH4)</f>
         <v>其他应收款坏账准备</v>
       </c>
       <c r="X4" t="str">
         <f>VLOOKUP(W4,[2]科目!$A:$C,2,0)</f>
-        <v>其他应收款</v>
+        <v xml:space="preserve">    其他应收款</v>
       </c>
       <c r="Y4" t="str">
         <f>VLOOKUP(W4,[2]科目!$A:$C,3,0)</f>
         <v>其他应收款</v>
       </c>
       <c r="Z4" t="e">
-        <f t="shared" ref="Z4:Z99" si="4">U4&amp;"\"&amp;$C4</f>
+        <f t="shared" ref="Z4:Z95" si="4">U4&amp;"\"&amp;$C4</f>
         <v>#N/A</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA99" si="5">IF($P4="借",$R4,-$R4)</f>
+        <f t="shared" ref="AA4:AA95" si="5">IF($P4="借",$R4,-$R4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB99" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
+        <f t="shared" ref="AB4:AB95" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
         <v>0</v>
       </c>
       <c r="AE4" t="str">
@@ -2579,15 +2599,15 @@
         <v>其他应收款坏账准备</v>
       </c>
       <c r="AF4" t="e">
-        <f t="shared" ref="AF4:AF99" si="7">FIND("\",$C4)</f>
+        <f t="shared" ref="AF4:AF95" si="7">FIND("\",$C4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG99" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
+        <f t="shared" ref="AG4:AG95" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH4" t="e">
-        <f t="shared" ref="AH4:AH99" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
+        <f t="shared" ref="AH4:AH95" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
@@ -2599,7 +2619,7 @@
         <v>BS</v>
       </c>
       <c r="AK4" t="e">
-        <f t="shared" ref="AK4:AK99" si="10">AI4&amp;"/"&amp;AJ4</f>
+        <f t="shared" ref="AK4:AK95" si="10">AI4&amp;"/"&amp;AJ4</f>
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
@@ -2607,7 +2627,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
-        <f t="shared" ref="AM4:AM99" si="11">ROUND(AA4*AL4,2)</f>
+        <f t="shared" ref="AM4:AM95" si="11">ROUND(AA4*AL4,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
@@ -2615,19 +2635,19 @@
         <v>#N/A</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO99" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
+        <f t="shared" ref="AO4:AO95" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
         <v>0</v>
       </c>
       <c r="AP4" t="e">
-        <f t="shared" ref="AP4:AP99" si="13">FIND("]",AO4)</f>
+        <f t="shared" ref="AP4:AP95" si="13">FIND("]",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ4" t="e">
-        <f t="shared" ref="AQ4:AQ99" si="14">FIND("#",AO4)</f>
+        <f t="shared" ref="AQ4:AQ95" si="14">FIND("#",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR4" t="e">
-        <f t="shared" ref="AR4:AR99" si="15">FIND("#",AO4,AQ4+1)</f>
+        <f t="shared" ref="AR4:AR95" si="15">FIND("#",AO4,AQ4+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2786,7 +2806,7 @@
       </c>
       <c r="X14" t="str">
         <f>VLOOKUP(W14,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Y14" t="str">
         <f>VLOOKUP(W14,[2]科目!$A:$C,3,0)</f>
@@ -2912,7 +2932,7 @@
       </c>
       <c r="X16" t="str">
         <f>VLOOKUP(W16,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Y16" t="str">
         <f>VLOOKUP(W16,[2]科目!$A:$C,3,0)</f>
@@ -3038,7 +3058,7 @@
       </c>
       <c r="X18" t="str">
         <f>VLOOKUP(W18,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Y18" t="str">
         <f>VLOOKUP(W18,[2]科目!$A:$C,3,0)</f>
@@ -3202,7 +3222,7 @@
       </c>
       <c r="X22" t="str">
         <f>VLOOKUP(W22,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Y22" t="str">
         <f>VLOOKUP(W22,[2]科目!$A:$C,3,0)</f>
@@ -3404,7 +3424,7 @@
       </c>
       <c r="X28" t="str">
         <f>VLOOKUP(W28,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Y28" t="str">
         <f>VLOOKUP(W28,[2]科目!$A:$C,3,0)</f>
@@ -3568,7 +3588,7 @@
       </c>
       <c r="X32" t="str">
         <f>VLOOKUP(W32,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Y32" t="str">
         <f>VLOOKUP(W32,[2]科目!$A:$C,3,0)</f>
@@ -3694,7 +3714,7 @@
       </c>
       <c r="X34" t="str">
         <f>VLOOKUP(W34,[2]科目!$A:$C,2,0)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Y34" t="str">
         <f>VLOOKUP(W34,[2]科目!$A:$C,3,0)</f>
@@ -5894,20 +5914,216 @@
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:44">
-      <c r="B87" s="1"/>
+      <c r="U87" t="e">
+        <f>VLOOKUP($A93,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W87" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X87" t="e">
+        <f>VLOOKUP(W87,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y87" t="e">
+        <f>VLOOKUP(W87,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z87" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" t="e">
+        <f>VLOOKUP(V87,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF87" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH87" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI87" t="e">
+        <f>VLOOKUP(U87,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ87" t="e">
+        <f>VLOOKUP(W87,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK87" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL87" t="e">
+        <f>VLOOKUP(AK87,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM87" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN87" t="e">
+        <f>VLOOKUP(Z87,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP87" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ87" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR87" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="88" spans="1:44">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="89" spans="1:44">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="90" spans="1:44">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="U90" t="e">
+        <f>VLOOKUP($A90,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W90" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X90" t="e">
+        <f>VLOOKUP(W90,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y90" t="e">
+        <f>VLOOKUP(W90,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z90" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" t="e">
+        <f>VLOOKUP(V90,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF90" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH90" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI90" t="e">
+        <f>VLOOKUP(U90,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ90" t="e">
+        <f>VLOOKUP(W90,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK90" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL90" t="e">
+        <f>VLOOKUP(AK90,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM90" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN90" t="e">
+        <f>VLOOKUP(Z90,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP90" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ90" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR90" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="91" spans="1:44">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
       <c r="U91" t="e">
-        <f>VLOOKUP($A97,[1]Basic!$A:$B,2,0)</f>
+        <f>VLOOKUP($A91,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V91" t="str">
@@ -5997,23 +6213,23 @@
     </row>
     <row r="92" spans="1:44">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:44">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:44">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>26</v>
@@ -6109,7 +6325,7 @@
     </row>
     <row r="95" spans="1:44">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -6199,214 +6415,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AR95" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:44">
-      <c r="A96" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:44">
-      <c r="A97" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:44">
-      <c r="A98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" t="s">
-        <v>26</v>
-      </c>
-      <c r="U98" t="e">
-        <f>VLOOKUP($A98,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V98" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W98" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X98" t="e">
-        <f>VLOOKUP(W98,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y98" t="e">
-        <f>VLOOKUP(W98,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z98" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB98">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE98" t="e">
-        <f>VLOOKUP(V98,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF98" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG98">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH98" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI98" t="e">
-        <f>VLOOKUP(U98,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ98" t="e">
-        <f>VLOOKUP(W98,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK98" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL98" t="e">
-        <f>VLOOKUP(AK98,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM98" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN98" t="e">
-        <f>VLOOKUP(Z98,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO98">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP98" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ98" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR98" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:44">
-      <c r="A99" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" t="s">
-        <v>27</v>
-      </c>
-      <c r="U99" t="e">
-        <f>VLOOKUP($A99,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V99" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W99" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X99" t="e">
-        <f>VLOOKUP(W99,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y99" t="e">
-        <f>VLOOKUP(W99,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z99" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE99" t="e">
-        <f>VLOOKUP(V99,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF99" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG99">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH99" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI99" t="e">
-        <f>VLOOKUP(U99,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ99" t="e">
-        <f>VLOOKUP(W99,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK99" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL99" t="e">
-        <f>VLOOKUP(AK99,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM99" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN99" t="e">
-        <f>VLOOKUP(Z99,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO99">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP99" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ99" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR99" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>

--- a/00框架文件/02SR.xlsx
+++ b/00框架文件/02SR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CB55F-F578-4E43-87A3-10978FFE1F25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52952E99-DA75-440D-8C71-370A628EF3FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,9 +15,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$56:$E$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$59:$E$87</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="122">
   <si>
     <t>对应科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,13 @@
   <si>
     <t>224105/借</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670100\资产减值损失\资产减值损失结转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12219801/贷</t>
   </si>
 </sst>
 </file>
@@ -991,7 +998,7 @@
             <v xml:space="preserve">    应收账款</v>
           </cell>
           <cell r="C8" t="str">
-            <v>应收账款</v>
+            <v>减：应收账款坏账准备</v>
           </cell>
           <cell r="D8" t="str">
             <v>BS</v>
@@ -1005,7 +1012,7 @@
             <v xml:space="preserve">    预付款项</v>
           </cell>
           <cell r="C9" t="str">
-            <v>预付款项</v>
+            <v>预付账款</v>
           </cell>
           <cell r="D9" t="str">
             <v>BS</v>
@@ -1061,7 +1068,7 @@
             <v xml:space="preserve">    其他应收款</v>
           </cell>
           <cell r="C13" t="str">
-            <v>其他应收款</v>
+            <v>减：其他应收款坏账准备</v>
           </cell>
           <cell r="D13" t="str">
             <v>BS</v>
@@ -1209,13 +1216,13 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>存货跌价准备</v>
+            <v>委托加工商品</v>
           </cell>
           <cell r="B24" t="str">
             <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C24" t="str">
-            <v>存货减值准备</v>
+            <v>存货</v>
           </cell>
           <cell r="D24" t="str">
             <v>BS</v>
@@ -1223,13 +1230,13 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>持有至到期投资</v>
+            <v>存货跌价准备</v>
           </cell>
           <cell r="B25" t="str">
-            <v>持有至到期投资</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C25" t="str">
-            <v>持有至到期投资</v>
+            <v>存货减值准备</v>
           </cell>
           <cell r="D25" t="str">
             <v>BS</v>
@@ -1237,7 +1244,7 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>持有至到期投资减值准备</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="B26" t="str">
             <v>持有至到期投资</v>
@@ -1251,13 +1258,13 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>可供出售金融资产</v>
+            <v>持有至到期投资减值准备</v>
           </cell>
           <cell r="B27" t="str">
-            <v xml:space="preserve">    其他权益工具投资</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="C27" t="str">
-            <v>其他权益工具投资</v>
+            <v>持有至到期投资</v>
           </cell>
           <cell r="D27" t="str">
             <v>BS</v>
@@ -1265,13 +1272,13 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>长期股权投资</v>
+            <v>可供出售金融资产</v>
           </cell>
           <cell r="B28" t="str">
-            <v xml:space="preserve">    长期股权投资</v>
+            <v xml:space="preserve">    其他权益工具投资</v>
           </cell>
           <cell r="C28" t="str">
-            <v>长期股权投资</v>
+            <v>其他权益工具投资</v>
           </cell>
           <cell r="D28" t="str">
             <v>BS</v>
@@ -1279,7 +1286,7 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>长期股权投资减值准备</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="B29" t="str">
             <v xml:space="preserve">    长期股权投资</v>
@@ -1293,7 +1300,7 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>长期投资减值准备</v>
+            <v>长期股权投资减值准备</v>
           </cell>
           <cell r="B30" t="str">
             <v xml:space="preserve">    长期股权投资</v>
@@ -1307,13 +1314,13 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>长期应收款</v>
+            <v>长期投资减值准备</v>
           </cell>
           <cell r="B31" t="str">
-            <v xml:space="preserve">    长期应收款</v>
+            <v xml:space="preserve">    长期股权投资</v>
           </cell>
           <cell r="C31" t="str">
-            <v>长期应收款</v>
+            <v>长期股权投资</v>
           </cell>
           <cell r="D31" t="str">
             <v>BS</v>
@@ -1321,13 +1328,13 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>使用权资产</v>
+            <v>长期应收款</v>
           </cell>
           <cell r="B32" t="str">
-            <v xml:space="preserve">    使用权资产</v>
+            <v xml:space="preserve">    长期应收款</v>
           </cell>
           <cell r="C32" t="str">
-            <v>使用权资产</v>
+            <v>长期应收款</v>
           </cell>
           <cell r="D32" t="str">
             <v>BS</v>
@@ -1335,13 +1342,13 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>固定资产</v>
+            <v>使用权资产</v>
           </cell>
           <cell r="B33" t="str">
-            <v xml:space="preserve">    固定资产</v>
+            <v xml:space="preserve">    使用权资产</v>
           </cell>
           <cell r="C33" t="str">
-            <v>固定资产原价</v>
+            <v>使用权资产</v>
           </cell>
           <cell r="D33" t="str">
             <v>BS</v>
@@ -1349,13 +1356,13 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>累计折旧</v>
+            <v>固定资产</v>
           </cell>
           <cell r="B34" t="str">
             <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C34" t="str">
-            <v>减：累计折旧</v>
+            <v>固定资产原价</v>
           </cell>
           <cell r="D34" t="str">
             <v>BS</v>
@@ -1363,13 +1370,13 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>固定资产减值准备</v>
+            <v>累计折旧</v>
           </cell>
           <cell r="B35" t="str">
             <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C35" t="str">
-            <v>固定资产</v>
+            <v>减：累计折旧</v>
           </cell>
           <cell r="D35" t="str">
             <v>BS</v>
@@ -1377,13 +1384,13 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>在建工程</v>
+            <v>固定资产减值准备</v>
           </cell>
           <cell r="B36" t="str">
-            <v xml:space="preserve">    在建工程</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C36" t="str">
-            <v>在建工程</v>
+            <v>固定资产</v>
           </cell>
           <cell r="D36" t="str">
             <v>BS</v>
@@ -1391,13 +1398,13 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>工程物资</v>
+            <v>在建工程</v>
           </cell>
           <cell r="B37" t="str">
-            <v>工程物资</v>
+            <v xml:space="preserve">    在建工程</v>
           </cell>
           <cell r="C37" t="str">
-            <v>工程物资</v>
+            <v>在建工程</v>
           </cell>
           <cell r="D37" t="str">
             <v>BS</v>
@@ -1405,13 +1412,13 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>固定资产清理</v>
+            <v>工程物资</v>
           </cell>
           <cell r="B38" t="str">
-            <v>固定资产清理</v>
+            <v>工程物资</v>
           </cell>
           <cell r="C38" t="str">
-            <v>固定资产清理</v>
+            <v>工程物资</v>
           </cell>
           <cell r="D38" t="str">
             <v>BS</v>
@@ -1419,13 +1426,13 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="B39" t="str">
-            <v xml:space="preserve">    无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="C39" t="str">
-            <v>无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="D39" t="str">
             <v>BS</v>
@@ -1433,7 +1440,7 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>累计摊销</v>
+            <v>无形资产</v>
           </cell>
           <cell r="B40" t="str">
             <v xml:space="preserve">    无形资产</v>
@@ -1447,7 +1454,7 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>无形资产减值准备</v>
+            <v>累计摊销</v>
           </cell>
           <cell r="B41" t="str">
             <v xml:space="preserve">    无形资产</v>
@@ -1461,13 +1468,13 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>商誉</v>
+            <v>无形资产减值准备</v>
           </cell>
           <cell r="B42" t="str">
-            <v xml:space="preserve">    商誉</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C42" t="str">
-            <v>商誉</v>
+            <v>无形资产</v>
           </cell>
           <cell r="D42" t="str">
             <v>BS</v>
@@ -1475,13 +1482,13 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>长期待摊费用</v>
+            <v>商誉</v>
           </cell>
           <cell r="B43" t="str">
-            <v xml:space="preserve">    长期待摊费用</v>
+            <v xml:space="preserve">    商誉</v>
           </cell>
           <cell r="C43" t="str">
-            <v>长期待摊费用</v>
+            <v>商誉</v>
           </cell>
           <cell r="D43" t="str">
             <v>BS</v>
@@ -1489,13 +1496,13 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>递延所得税资产</v>
+            <v>长期待摊费用</v>
           </cell>
           <cell r="B44" t="str">
-            <v xml:space="preserve">    递延所得税资产</v>
+            <v xml:space="preserve">    长期待摊费用</v>
           </cell>
           <cell r="C44" t="str">
-            <v>递延所得税资产</v>
+            <v>长期待摊费用</v>
           </cell>
           <cell r="D44" t="str">
             <v>BS</v>
@@ -1503,13 +1510,13 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>短期借款</v>
+            <v>递延所得税资产</v>
           </cell>
           <cell r="B45" t="str">
-            <v xml:space="preserve">    短期借款</v>
+            <v xml:space="preserve">    递延所得税资产</v>
           </cell>
           <cell r="C45" t="str">
-            <v>短期借款</v>
+            <v>递延所得税资产</v>
           </cell>
           <cell r="D45" t="str">
             <v>BS</v>
@@ -1517,13 +1524,13 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>应付票据</v>
+            <v>短期借款</v>
           </cell>
           <cell r="B46" t="str">
-            <v xml:space="preserve">    应付票据</v>
+            <v xml:space="preserve">    短期借款</v>
           </cell>
           <cell r="C46" t="str">
-            <v>应付票据</v>
+            <v>短期借款</v>
           </cell>
           <cell r="D46" t="str">
             <v>BS</v>
@@ -1531,13 +1538,13 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>应付账款</v>
+            <v>应付票据</v>
           </cell>
           <cell r="B47" t="str">
-            <v xml:space="preserve">    应付账款</v>
+            <v xml:space="preserve">    应付票据</v>
           </cell>
           <cell r="C47" t="str">
-            <v>应付账款</v>
+            <v>应付票据</v>
           </cell>
           <cell r="D47" t="str">
             <v>BS</v>
@@ -1545,13 +1552,13 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>预收账款</v>
+            <v>应付账款</v>
           </cell>
           <cell r="B48" t="str">
-            <v xml:space="preserve">    预收款项</v>
+            <v xml:space="preserve">    应付账款</v>
           </cell>
           <cell r="C48" t="str">
-            <v>预收款项</v>
+            <v>应付账款</v>
           </cell>
           <cell r="D48" t="str">
             <v>BS</v>
@@ -1559,13 +1566,13 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>应付职工薪酬</v>
+            <v>预收账款</v>
           </cell>
           <cell r="B49" t="str">
-            <v xml:space="preserve">    应付职工薪酬</v>
+            <v xml:space="preserve">    预收款项</v>
           </cell>
           <cell r="C49" t="str">
-            <v>应付职工薪酬</v>
+            <v>预收账款</v>
           </cell>
           <cell r="D49" t="str">
             <v>BS</v>
@@ -1573,13 +1580,13 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>应交税费</v>
+            <v>应付职工薪酬</v>
           </cell>
           <cell r="B50" t="str">
-            <v xml:space="preserve">    应交税费</v>
+            <v xml:space="preserve">    应付职工薪酬</v>
           </cell>
           <cell r="C50" t="str">
-            <v>应交税费</v>
+            <v>应付职工薪酬</v>
           </cell>
           <cell r="D50" t="str">
             <v>BS</v>
@@ -1587,13 +1594,13 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>应付利息</v>
+            <v>应交税费</v>
           </cell>
           <cell r="B51" t="str">
-            <v xml:space="preserve">    其他应付款</v>
+            <v xml:space="preserve">    应交税费</v>
           </cell>
           <cell r="C51" t="str">
-            <v>应付利息</v>
+            <v>应交税费</v>
           </cell>
           <cell r="D51" t="str">
             <v>BS</v>
@@ -1601,13 +1608,13 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>应付股利</v>
+            <v>应付利息</v>
           </cell>
           <cell r="B52" t="str">
             <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C52" t="str">
-            <v>应付股利</v>
+            <v>应付利息</v>
           </cell>
           <cell r="D52" t="str">
             <v>BS</v>
@@ -1615,13 +1622,13 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>其他应付款</v>
+            <v>应付股利</v>
           </cell>
           <cell r="B53" t="str">
             <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C53" t="str">
-            <v>其他应付款</v>
+            <v>应付股利</v>
           </cell>
           <cell r="D53" t="str">
             <v>BS</v>
@@ -1629,10 +1636,13 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>递延收益</v>
+            <v>其他应付款</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C54" t="str">
-            <v>递延收益-非流动</v>
+            <v>其他应付款</v>
           </cell>
           <cell r="D54" t="str">
             <v>BS</v>
@@ -1640,13 +1650,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>租赁负债</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v xml:space="preserve">    租赁负债</v>
+            <v>递延收益</v>
           </cell>
           <cell r="C55" t="str">
-            <v>租赁负债</v>
+            <v>递延收益-非流动</v>
           </cell>
           <cell r="D55" t="str">
             <v>BS</v>
@@ -1654,13 +1661,13 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>长期借款</v>
+            <v>租赁负债</v>
           </cell>
           <cell r="B56" t="str">
-            <v xml:space="preserve">    长期借款</v>
+            <v xml:space="preserve">    租赁负债</v>
           </cell>
           <cell r="C56" t="str">
-            <v>长期借款</v>
+            <v>租赁负债</v>
           </cell>
           <cell r="D56" t="str">
             <v>BS</v>
@@ -1668,13 +1675,13 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>长期应付款</v>
+            <v>长期借款</v>
           </cell>
           <cell r="B57" t="str">
-            <v xml:space="preserve">    长期应付款</v>
+            <v xml:space="preserve">    长期借款</v>
           </cell>
           <cell r="C57" t="str">
-            <v>长期应付款</v>
+            <v>长期借款</v>
           </cell>
           <cell r="D57" t="str">
             <v>BS</v>
@@ -1682,13 +1689,13 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>预计负债</v>
+            <v>长期应付款</v>
           </cell>
           <cell r="B58" t="str">
-            <v xml:space="preserve">    预计负债</v>
+            <v xml:space="preserve">    长期应付款</v>
           </cell>
           <cell r="C58" t="str">
-            <v>预计负债</v>
+            <v>长期应付款</v>
           </cell>
           <cell r="D58" t="str">
             <v>BS</v>
@@ -1696,13 +1703,13 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>递延所得税负债</v>
+            <v>预计负债</v>
           </cell>
           <cell r="B59" t="str">
-            <v xml:space="preserve">    递延所得税负债</v>
+            <v xml:space="preserve">    预计负债</v>
           </cell>
           <cell r="C59" t="str">
-            <v>递延所得税负债</v>
+            <v>预计负债</v>
           </cell>
           <cell r="D59" t="str">
             <v>BS</v>
@@ -1710,27 +1717,27 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>实收资本</v>
+            <v>递延所得税负债</v>
           </cell>
           <cell r="B60" t="str">
-            <v xml:space="preserve">    实收资本(或股本)</v>
+            <v xml:space="preserve">    递延所得税负债</v>
           </cell>
           <cell r="C60" t="str">
-            <v>实收资本</v>
+            <v>递延所得税负债</v>
           </cell>
           <cell r="D60" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>资本公积</v>
+            <v>实收资本</v>
           </cell>
           <cell r="B61" t="str">
-            <v xml:space="preserve">    资本公积</v>
+            <v xml:space="preserve">    实收资本(或股本)</v>
           </cell>
           <cell r="C61" t="str">
-            <v>资本公积</v>
+            <v>实收资本</v>
           </cell>
           <cell r="D61" t="str">
             <v>PV</v>
@@ -1738,13 +1745,13 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>盈余公积</v>
+            <v>资本公积</v>
           </cell>
           <cell r="B62" t="str">
-            <v xml:space="preserve">    盈余公积</v>
+            <v xml:space="preserve">    资本公积</v>
           </cell>
           <cell r="C62" t="str">
-            <v>盈余公积</v>
+            <v>资本公积</v>
           </cell>
           <cell r="D62" t="str">
             <v>PV</v>
@@ -1752,13 +1759,13 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>利润分配</v>
+            <v>盈余公积</v>
           </cell>
           <cell r="B63" t="str">
-            <v xml:space="preserve">    未分配利润</v>
+            <v xml:space="preserve">    盈余公积</v>
           </cell>
           <cell r="C63" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v>盈余公积</v>
           </cell>
           <cell r="D63" t="str">
             <v>PV</v>
@@ -1766,13 +1773,13 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>库存股</v>
+            <v>利润分配</v>
           </cell>
           <cell r="B64" t="str">
-            <v xml:space="preserve">       减:库存股</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C64" t="str">
-            <v>减：库存股</v>
+            <v>未分配利润</v>
           </cell>
           <cell r="D64" t="str">
             <v>PV</v>
@@ -1780,13 +1787,13 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>其他综合收益</v>
+            <v>库存股</v>
           </cell>
           <cell r="B65" t="str">
-            <v xml:space="preserve">    其他综合收益</v>
+            <v xml:space="preserve">       减:库存股</v>
           </cell>
           <cell r="C65" t="str">
-            <v>其他综合收益</v>
+            <v>减：库存股</v>
           </cell>
           <cell r="D65" t="str">
             <v>PV</v>
@@ -1794,41 +1801,41 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>主营业务收入</v>
+            <v>其他综合收益</v>
           </cell>
           <cell r="B66" t="str">
-            <v>一、营业收入</v>
+            <v xml:space="preserve">    其他综合收益</v>
           </cell>
           <cell r="C66" t="str">
-            <v>主营业务收入</v>
+            <v>其他综合收益</v>
           </cell>
           <cell r="D66" t="str">
-            <v>PL</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>利息收入</v>
+            <v>生产成本</v>
           </cell>
           <cell r="B67" t="str">
-            <v xml:space="preserve">        财务费用</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C67" t="str">
-            <v>财务费用</v>
+            <v>存货</v>
           </cell>
           <cell r="D67" t="str">
-            <v>PL</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>其他业务收入</v>
+            <v>主营业务收入</v>
           </cell>
           <cell r="B68" t="str">
             <v>一、营业收入</v>
           </cell>
           <cell r="C68" t="str">
-            <v>其他业务收入</v>
+            <v>主营业务收入</v>
           </cell>
           <cell r="D68" t="str">
             <v>PL</v>
@@ -1836,7 +1843,7 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>汇兑损益</v>
+            <v>利息收入</v>
           </cell>
           <cell r="B69" t="str">
             <v xml:space="preserve">        财务费用</v>
@@ -1850,13 +1857,13 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>公允价值变动损益</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="B70" t="str">
-            <v xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</v>
+            <v>一、营业收入</v>
           </cell>
           <cell r="C70" t="str">
-            <v>公允价值变动收益</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="D70" t="str">
             <v>PL</v>
@@ -1864,13 +1871,13 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>投资收益</v>
+            <v>汇兑损益</v>
           </cell>
           <cell r="B71" t="str">
-            <v xml:space="preserve">         投资收益（损失以“－”号填列）</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C71" t="str">
-            <v>投资收益</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D71" t="str">
             <v>PL</v>
@@ -1878,13 +1885,13 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>营业外收入</v>
+            <v>公允价值变动损益</v>
           </cell>
           <cell r="B72" t="str">
-            <v xml:space="preserve">    加: 营业外收入</v>
+            <v xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C72" t="str">
-            <v>加：营业外收入</v>
+            <v>公允价值变动收益</v>
           </cell>
           <cell r="D72" t="str">
             <v>PL</v>
@@ -1892,13 +1899,13 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>主营业务成本</v>
+            <v>投资收益</v>
           </cell>
           <cell r="B73" t="str">
-            <v xml:space="preserve">    减：营业成本</v>
+            <v xml:space="preserve">         投资收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C73" t="str">
-            <v>其中：主营业务成本</v>
+            <v>投资收益</v>
           </cell>
           <cell r="D73" t="str">
             <v>PL</v>
@@ -1906,13 +1913,13 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>其他业务成本</v>
+            <v>营业外收入</v>
           </cell>
           <cell r="B74" t="str">
-            <v xml:space="preserve">    减：营业成本</v>
+            <v xml:space="preserve">    加: 营业外收入</v>
           </cell>
           <cell r="C74" t="str">
-            <v>其他业务支出</v>
+            <v>加：营业外收入</v>
           </cell>
           <cell r="D74" t="str">
             <v>PL</v>
@@ -1920,13 +1927,13 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>营业税金及附加</v>
+            <v>主营业务成本</v>
           </cell>
           <cell r="B75" t="str">
-            <v xml:space="preserve">        税金及附加</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C75" t="str">
-            <v>营业税金及附加</v>
+            <v>其中：主营业务成本</v>
           </cell>
           <cell r="D75" t="str">
             <v>PL</v>
@@ -1934,13 +1941,13 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>利息支出</v>
+            <v>其他业务成本</v>
           </cell>
           <cell r="B76" t="str">
-            <v xml:space="preserve">        财务费用</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C76" t="str">
-            <v>财务费用</v>
+            <v>其他业务支出</v>
           </cell>
           <cell r="D76" t="str">
             <v>PL</v>
@@ -1948,13 +1955,13 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>销售费用</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="B77" t="str">
-            <v xml:space="preserve">        销售费用</v>
+            <v xml:space="preserve">        税金及附加</v>
           </cell>
           <cell r="C77" t="str">
-            <v>营业费用</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="D77" t="str">
             <v>PL</v>
@@ -1962,13 +1969,13 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>管理费用</v>
+            <v>利息支出</v>
           </cell>
           <cell r="B78" t="str">
-            <v xml:space="preserve">        管理费用</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C78" t="str">
-            <v>管理费用</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D78" t="str">
             <v>PL</v>
@@ -1976,13 +1983,13 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>研发费用</v>
+            <v>销售费用</v>
           </cell>
           <cell r="B79" t="str">
-            <v xml:space="preserve">        研发费用</v>
+            <v xml:space="preserve">        销售费用</v>
           </cell>
           <cell r="C79" t="str">
-            <v>研发费用</v>
+            <v>营业费用</v>
           </cell>
           <cell r="D79" t="str">
             <v>PL</v>
@@ -1990,13 +1997,13 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>财务费用</v>
+            <v>管理费用</v>
           </cell>
           <cell r="B80" t="str">
-            <v xml:space="preserve">        财务费用</v>
+            <v xml:space="preserve">        管理费用</v>
           </cell>
           <cell r="C80" t="str">
-            <v>财务费用</v>
+            <v>管理费用</v>
           </cell>
           <cell r="D80" t="str">
             <v>PL</v>
@@ -2004,13 +2011,13 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>资产减值损失</v>
+            <v>研发费用</v>
           </cell>
           <cell r="B81" t="str">
-            <v xml:space="preserve">   资产减值损失（损失以“－”号填列）</v>
+            <v xml:space="preserve">        研发费用</v>
           </cell>
           <cell r="C81" t="str">
-            <v>资产减值损失</v>
+            <v>研发费用</v>
           </cell>
           <cell r="D81" t="str">
             <v>PL</v>
@@ -2018,13 +2025,13 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>营业外支出</v>
+            <v>财务费用</v>
           </cell>
           <cell r="B82" t="str">
-            <v xml:space="preserve">    减：营业外支出</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C82" t="str">
-            <v>减：营业外支出</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D82" t="str">
             <v>PL</v>
@@ -2032,77 +2039,77 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>所得税费用</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="B83" t="str">
-            <v xml:space="preserve">    减：所得税费用</v>
+            <v xml:space="preserve">   信用减值损失（损失以“－”号填列）</v>
           </cell>
           <cell r="C83" t="str">
-            <v>减：所得税</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="D83" t="str">
             <v>PL</v>
           </cell>
         </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>营业外支出</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v xml:space="preserve">    减：营业外支出</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>减：营业外支出</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>重复明细</v>
+            <v>所得税费用</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v xml:space="preserve">    减：所得税费用</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>减：所得税</v>
           </cell>
           <cell r="D85" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>本年利润</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v xml:space="preserve">    未分配利润</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>年初未分配利润（调整后）</v>
-          </cell>
-          <cell r="D86" t="str">
-            <v>PV</v>
+            <v>PL</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-          <cell r="C87" t="str">
-            <v>年初未分配利润（调整后）</v>
+            <v>重复明细</v>
           </cell>
           <cell r="D87" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>外币报表折算差额</v>
+            <v>本年利润</v>
           </cell>
           <cell r="B88" t="str">
-            <v>外币报表折算差额</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C88" t="str">
-            <v>外币报表折算差额</v>
+            <v>未分配利润</v>
           </cell>
           <cell r="D88" t="str">
-            <v>CV</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="B89" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="C89" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v>未分配利润</v>
           </cell>
           <cell r="D89" t="str">
             <v>PL</v>
@@ -2110,34 +2117,62 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+            <v>外币报表折算差额</v>
           </cell>
           <cell r="B90" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C90" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+            <v>外币报表折算</v>
           </cell>
           <cell r="D90" t="str">
-            <v>PL</v>
+            <v>CV</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
+            <v xml:space="preserve">       加：其他收益</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v xml:space="preserve">       加：其他收益</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>其他收益</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>资产处置收益</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
             <v>代扣代缴特殊逻辑</v>
           </cell>
-          <cell r="B91" t="str">
+          <cell r="B93" t="str">
             <v xml:space="preserve">    其他应收款</v>
           </cell>
-          <cell r="C91" t="str">
+          <cell r="C93" t="str">
             <v>其他应收款</v>
           </cell>
-          <cell r="D91" t="str">
+          <cell r="D93" t="str">
             <v>BS</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2406,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR95"/>
+  <dimension ref="A1:AR98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2508,7 +2543,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B47" si="0">LEFT(A2,E2-1)&amp;F2</f>
+        <f t="shared" ref="B2:B50" si="0">LEFT(A2,E2-1)&amp;F2</f>
         <v>123101/借</v>
       </c>
       <c r="C2" t="s">
@@ -2553,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E46" si="1">FIND("\",A4)</f>
+        <f t="shared" ref="E4:E49" si="1">FIND("\",A4)</f>
         <v>7</v>
       </c>
       <c r="F4" t="s">
@@ -2567,11 +2602,11 @@
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V95" si="2">TRIM($B4)</f>
+        <f t="shared" ref="V4:V98" si="2">TRIM($B4)</f>
         <v>123102/借</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W95" si="3">_xlfn.IFNA(AE4,AH4)</f>
+        <f t="shared" ref="W4:W98" si="3">_xlfn.IFNA(AE4,AH4)</f>
         <v>其他应收款坏账准备</v>
       </c>
       <c r="X4" t="str">
@@ -2580,18 +2615,18 @@
       </c>
       <c r="Y4" t="str">
         <f>VLOOKUP(W4,[2]科目!$A:$C,3,0)</f>
-        <v>其他应收款</v>
+        <v>减：其他应收款坏账准备</v>
       </c>
       <c r="Z4" t="e">
-        <f t="shared" ref="Z4:Z95" si="4">U4&amp;"\"&amp;$C4</f>
+        <f t="shared" ref="Z4:Z98" si="4">U4&amp;"\"&amp;$C4</f>
         <v>#N/A</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA95" si="5">IF($P4="借",$R4,-$R4)</f>
+        <f t="shared" ref="AA4:AA98" si="5">IF($P4="借",$R4,-$R4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB95" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
+        <f t="shared" ref="AB4:AB98" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
         <v>0</v>
       </c>
       <c r="AE4" t="str">
@@ -2599,15 +2634,15 @@
         <v>其他应收款坏账准备</v>
       </c>
       <c r="AF4" t="e">
-        <f t="shared" ref="AF4:AF95" si="7">FIND("\",$C4)</f>
+        <f t="shared" ref="AF4:AF98" si="7">FIND("\",$C4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG95" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
+        <f t="shared" ref="AG4:AG98" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH4" t="e">
-        <f t="shared" ref="AH4:AH95" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
+        <f t="shared" ref="AH4:AH98" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
@@ -2619,7 +2654,7 @@
         <v>BS</v>
       </c>
       <c r="AK4" t="e">
-        <f t="shared" ref="AK4:AK95" si="10">AI4&amp;"/"&amp;AJ4</f>
+        <f t="shared" ref="AK4:AK98" si="10">AI4&amp;"/"&amp;AJ4</f>
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
@@ -2627,7 +2662,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
-        <f t="shared" ref="AM4:AM95" si="11">ROUND(AA4*AL4,2)</f>
+        <f t="shared" ref="AM4:AM98" si="11">ROUND(AA4*AL4,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
@@ -2635,19 +2670,19 @@
         <v>#N/A</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO95" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
+        <f t="shared" ref="AO4:AO98" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
         <v>0</v>
       </c>
       <c r="AP4" t="e">
-        <f t="shared" ref="AP4:AP95" si="13">FIND("]",AO4)</f>
+        <f t="shared" ref="AP4:AP98" si="13">FIND("]",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ4" t="e">
-        <f t="shared" ref="AQ4:AQ95" si="14">FIND("#",AO4)</f>
+        <f t="shared" ref="AQ4:AQ98" si="14">FIND("#",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR4" t="e">
-        <f t="shared" ref="AR4:AR95" si="15">FIND("#",AO4,AQ4+1)</f>
+        <f t="shared" ref="AR4:AR98" si="15">FIND("#",AO4,AQ4+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2694,10 +2729,10 @@
     </row>
     <row r="8" spans="1:44">
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
@@ -2705,7 +2740,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>110</v>
@@ -2716,10 +2751,10 @@
     </row>
     <row r="10" spans="1:44">
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>117</v>
@@ -2727,7 +2762,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -2737,22 +2772,14 @@
       </c>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>53010200/借</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12" si="17">FIND("\",A12)</f>
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -2761,124 +2788,36 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>53010200/贷</v>
+        <v>53010200/借</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="18">FIND("\",A13)</f>
+        <f t="shared" ref="E13" si="17">FIND("\",A13)</f>
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>600100/借</v>
+        <v>53010200/贷</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" ref="E14" si="18">FIND("\",A14)</f>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="U14" t="e">
-        <f>VLOOKUP($A14,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="2"/>
-        <v>600100/借</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X14" t="str">
-        <f>VLOOKUP(W14,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y14" t="str">
-        <f>VLOOKUP(W14,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z14" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" t="str">
-        <f>VLOOKUP(V14,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF14" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI14" t="e">
-        <f>VLOOKUP(U14,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" t="str">
-        <f>VLOOKUP(W14,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK14" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" t="e">
-        <f>VLOOKUP(AK14,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN14" t="e">
-        <f>VLOOKUP(Z14,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP14" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ14" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR14" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:44">
@@ -2887,124 +2826,124 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>600100/贷</v>
+        <v>600100/借</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="19">FIND("\",A15)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="U15" t="e">
+        <f>VLOOKUP($A15,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="2"/>
+        <v>600100/借</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X15" t="str">
+        <f>VLOOKUP(W15,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y15" t="str">
+        <f>VLOOKUP(W15,[2]科目!$A:$C,3,0)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" t="str">
+        <f>VLOOKUP(V15,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI15" t="e">
+        <f>VLOOKUP(U15,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f>VLOOKUP(W15,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK15" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL15" t="e">
+        <f>VLOOKUP(AK15,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM15" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN15" t="e">
+        <f>VLOOKUP(Z15,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ15" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>605100/借</v>
+        <v>600100/贷</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E16" si="19">FIND("\",A16)</f>
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16" t="e">
-        <f>VLOOKUP($A16,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="2"/>
-        <v>605100/借</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X16" t="str">
-        <f>VLOOKUP(W16,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y16" t="str">
-        <f>VLOOKUP(W16,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z16" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" t="str">
-        <f>VLOOKUP(V16,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF16" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI16" t="e">
-        <f>VLOOKUP(U16,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" t="str">
-        <f>VLOOKUP(W16,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK16" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" t="e">
-        <f>VLOOKUP(AK16,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM16" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN16" t="e">
-        <f>VLOOKUP(Z16,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP16" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ16" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR16" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:44">
@@ -3013,124 +2952,124 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>605100/贷</v>
+        <v>605100/借</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="20">FIND("\",A17)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="U17" t="e">
+        <f>VLOOKUP($A17,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="2"/>
+        <v>605100/借</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X17" t="str">
+        <f>VLOOKUP(W17,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y17" t="str">
+        <f>VLOOKUP(W17,[2]科目!$A:$C,3,0)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" t="str">
+        <f>VLOOKUP(V17,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF17" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI17" t="e">
+        <f>VLOOKUP(U17,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f>VLOOKUP(W17,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK17" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL17" t="e">
+        <f>VLOOKUP(AK17,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM17" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN17" t="e">
+        <f>VLOOKUP(Z17,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ17" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR17" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>611100/借</v>
+        <v>605100/贷</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E18" si="20">FIND("\",A18)</f>
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="U18" t="e">
-        <f>VLOOKUP($A18,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V18" t="str">
-        <f t="shared" si="2"/>
-        <v>611100/借</v>
-      </c>
-      <c r="W18" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X18" t="str">
-        <f>VLOOKUP(W18,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y18" t="str">
-        <f>VLOOKUP(W18,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z18" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" t="str">
-        <f>VLOOKUP(V18,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF18" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI18" t="e">
-        <f>VLOOKUP(U18,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ18" t="str">
-        <f>VLOOKUP(W18,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK18" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL18" t="e">
-        <f>VLOOKUP(AK18,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM18" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN18" t="e">
-        <f>VLOOKUP(Z18,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP18" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ18" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR18" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:44">
@@ -3139,162 +3078,162 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>611100/贷</v>
+        <v>611100/借</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="21">FIND("\",A19)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="U19" t="e">
+        <f>VLOOKUP($A19,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="2"/>
+        <v>611100/借</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X19" t="str">
+        <f>VLOOKUP(W19,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y19" t="str">
+        <f>VLOOKUP(W19,[2]科目!$A:$C,3,0)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="Z19" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" t="str">
+        <f>VLOOKUP(V19,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF19" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI19" t="e">
+        <f>VLOOKUP(U19,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f>VLOOKUP(W19,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK19" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" t="e">
+        <f>VLOOKUP(AK19,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM19" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN19" t="e">
+        <f>VLOOKUP(Z19,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ19" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR19" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>605100/借</v>
+        <v>611100/贷</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="22">FIND("\",A20)</f>
+        <f t="shared" ref="E20" si="21">FIND("\",A20)</f>
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>605100/贷</v>
+        <v>605100/借</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="23">FIND("\",A21)</f>
+        <f t="shared" ref="E21" si="22">FIND("\",A21)</f>
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>630100/借</v>
+        <v>605100/贷</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E22" si="23">FIND("\",A22)</f>
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U22" t="e">
-        <f>VLOOKUP($A22,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" si="2"/>
-        <v>630100/借</v>
-      </c>
-      <c r="W22" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X22" t="str">
-        <f>VLOOKUP(W22,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y22" t="str">
-        <f>VLOOKUP(W22,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z22" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" t="str">
-        <f>VLOOKUP(V22,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF22" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI22" t="e">
-        <f>VLOOKUP(U22,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" t="str">
-        <f>VLOOKUP(W22,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK22" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL22" t="e">
-        <f>VLOOKUP(AK22,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM22" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN22" t="e">
-        <f>VLOOKUP(Z22,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP22" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ22" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR22" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:44">
@@ -3303,36 +3242,124 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>630100/贷</v>
+        <v>630100/借</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="24">FIND("\",A23)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="U23" t="e">
+        <f>VLOOKUP($A23,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="2"/>
+        <v>630100/借</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X23" t="str">
+        <f>VLOOKUP(W23,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y23" t="str">
+        <f>VLOOKUP(W23,[2]科目!$A:$C,3,0)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="Z23" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" t="str">
+        <f>VLOOKUP(V23,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF23" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI23" t="e">
+        <f>VLOOKUP(U23,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" t="str">
+        <f>VLOOKUP(W23,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK23" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" t="e">
+        <f>VLOOKUP(AK23,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM23" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN23" t="e">
+        <f>VLOOKUP(Z23,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ23" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR23" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>630102/借</v>
+        <v>630100/贷</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E24" si="24">FIND("\",A24)</f>
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:44">
@@ -3341,36 +3368,36 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>630102/贷</v>
+        <v>630102/借</v>
       </c>
       <c r="C25" t="s">
         <v>59</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="25">FIND("\",A25)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>63019801/借</v>
+        <v>630102/贷</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="26">FIND("\",A26)</f>
-        <v>9</v>
+        <f t="shared" ref="E26" si="25">FIND("\",A26)</f>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:44">
@@ -3379,124 +3406,36 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>63019801/贷</v>
+        <v>63019801/借</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="27">FIND("\",A27)</f>
+        <f t="shared" ref="E27" si="26">FIND("\",A27)</f>
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>640100/借</v>
+        <v>63019801/贷</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" ref="E28" si="27">FIND("\",A28)</f>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="U28" t="e">
-        <f>VLOOKUP($A28,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="2"/>
-        <v>640100/借</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X28" t="str">
-        <f>VLOOKUP(W28,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y28" t="str">
-        <f>VLOOKUP(W28,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z28" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" t="str">
-        <f>VLOOKUP(V28,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF28" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI28" t="e">
-        <f>VLOOKUP(U28,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ28" t="str">
-        <f>VLOOKUP(W28,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK28" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL28" t="e">
-        <f>VLOOKUP(AK28,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM28" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN28" t="e">
-        <f>VLOOKUP(Z28,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP28" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ28" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR28" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:44">
@@ -3505,36 +3444,124 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>640100/贷</v>
+        <v>640100/借</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29" si="28">FIND("\",A29)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="U29" t="e">
+        <f>VLOOKUP($A29,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="2"/>
+        <v>640100/借</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X29" t="str">
+        <f>VLOOKUP(W29,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y29" t="str">
+        <f>VLOOKUP(W29,[2]科目!$A:$C,3,0)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="Z29" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" t="str">
+        <f>VLOOKUP(V29,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF29" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI29" t="e">
+        <f>VLOOKUP(U29,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" t="str">
+        <f>VLOOKUP(W29,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK29" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" t="e">
+        <f>VLOOKUP(AK29,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM29" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN29" t="e">
+        <f>VLOOKUP(Z29,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ29" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR29" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>640200/借</v>
+        <v>640100/贷</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" si="29">FIND("\",A30)</f>
+        <f t="shared" ref="E30" si="28">FIND("\",A30)</f>
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:44">
@@ -3543,124 +3570,36 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>640200/贷</v>
+        <v>640200/借</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31" si="30">FIND("\",A31)</f>
+        <f t="shared" ref="E31" si="29">FIND("\",A31)</f>
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>640300/借</v>
+        <v>640200/贷</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E32" si="30">FIND("\",A32)</f>
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
-      </c>
-      <c r="U32" t="e">
-        <f>VLOOKUP($A32,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="2"/>
-        <v>640300/借</v>
-      </c>
-      <c r="W32" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X32" t="str">
-        <f>VLOOKUP(W32,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y32" t="str">
-        <f>VLOOKUP(W32,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z32" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" t="str">
-        <f>VLOOKUP(V32,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF32" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI32" t="e">
-        <f>VLOOKUP(U32,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ32" t="str">
-        <f>VLOOKUP(W32,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK32" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL32" t="e">
-        <f>VLOOKUP(AK32,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM32" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN32" t="e">
-        <f>VLOOKUP(Z32,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP32" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ32" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR32" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:44">
@@ -3669,124 +3608,124 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>640300/贷</v>
+        <v>640300/借</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33" si="31">FIND("\",A33)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="U33" t="e">
+        <f>VLOOKUP($A33,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="2"/>
+        <v>640300/借</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X33" t="str">
+        <f>VLOOKUP(W33,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y33" t="str">
+        <f>VLOOKUP(W33,[2]科目!$A:$C,3,0)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="Z33" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" t="str">
+        <f>VLOOKUP(V33,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF33" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI33" t="e">
+        <f>VLOOKUP(U33,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ33" t="str">
+        <f>VLOOKUP(W33,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK33" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL33" t="e">
+        <f>VLOOKUP(AK33,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM33" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN33" t="e">
+        <f>VLOOKUP(Z33,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP33" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ33" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR33" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>660100/借</v>
+        <v>640300/贷</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E34" si="31">FIND("\",A34)</f>
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
-      </c>
-      <c r="U34" t="e">
-        <f>VLOOKUP($A34,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="2"/>
-        <v>660100/借</v>
-      </c>
-      <c r="W34" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X34" t="str">
-        <f>VLOOKUP(W34,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y34" t="str">
-        <f>VLOOKUP(W34,[2]科目!$A:$C,3,0)</f>
-        <v>年初未分配利润（调整后）</v>
-      </c>
-      <c r="Z34" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" t="str">
-        <f>VLOOKUP(V34,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF34" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH34" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI34" t="e">
-        <f>VLOOKUP(U34,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ34" t="str">
-        <f>VLOOKUP(W34,[2]科目!$A:$D,4,0)</f>
-        <v>PV</v>
-      </c>
-      <c r="AK34" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL34" t="e">
-        <f>VLOOKUP(AK34,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM34" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN34" t="e">
-        <f>VLOOKUP(Z34,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP34" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ34" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR34" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:44">
@@ -3795,36 +3734,124 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>660100/贷</v>
+        <v>660100/借</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35" si="32">FIND("\",A35)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="U35" t="e">
+        <f>VLOOKUP($A35,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="2"/>
+        <v>660100/借</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X35" t="str">
+        <f>VLOOKUP(W35,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y35" t="str">
+        <f>VLOOKUP(W35,[2]科目!$A:$C,3,0)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="Z35" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" t="str">
+        <f>VLOOKUP(V35,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF35" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI35" t="e">
+        <f>VLOOKUP(U35,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ35" t="str">
+        <f>VLOOKUP(W35,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK35" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL35" t="e">
+        <f>VLOOKUP(AK35,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM35" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN35" t="e">
+        <f>VLOOKUP(Z35,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ35" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR35" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>660200/借</v>
+        <v>660100/贷</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E36" si="32">FIND("\",A36)</f>
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:44">
@@ -3833,39 +3860,36 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>660200/贷</v>
+        <v>660200/借</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="33">FIND("\",A37)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>660216/借</v>
+        <v>660200/贷</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="34">FIND("\",A38)</f>
+        <f t="shared" ref="E38" si="33">FIND("\",A38)</f>
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:44">
@@ -3874,36 +3898,39 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>660216/贷</v>
+        <v>660216/借</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="35">FIND("\",A39)</f>
+        <f t="shared" ref="E39" si="34">FIND("\",A39)</f>
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>660300/借</v>
+        <v>660216/贷</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E40" si="35">FIND("\",A40)</f>
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:44">
@@ -3912,440 +3939,469 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>660300/贷</v>
+        <v>660300/借</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="36">FIND("\",A41)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>671100/借</v>
+        <v>660300/贷</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="E42">
+        <f t="shared" ref="E42:E44" si="36">FIND("\",A42)</f>
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:B44" si="37">LEFT(A43,E43-1)&amp;F43</f>
+        <v>670100/借</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="37"/>
+        <v>670100/贷</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>671100/借</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:44">
-      <c r="A43" t="s">
+    <row r="46" spans="1:44">
+      <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>671100/贷</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="E43">
-        <f t="shared" ref="E43" si="37">FIND("\",A43)</f>
+      <c r="E46">
+        <f t="shared" ref="E46" si="38">FIND("\",A46)</f>
         <v>7</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:44">
-      <c r="A44" t="s">
+    <row r="47" spans="1:44">
+      <c r="A47" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>671102/借</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="E44">
-        <f t="shared" ref="E44" si="38">FIND("\",A44)</f>
+      <c r="E47">
+        <f t="shared" ref="E47" si="39">FIND("\",A47)</f>
         <v>7</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
-      <c r="A45" t="s">
+    <row r="48" spans="1:44">
+      <c r="A48" t="s">
         <v>60</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>671102/贷</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>59</v>
       </c>
-      <c r="E45">
-        <f t="shared" ref="E45" si="39">FIND("\",A45)</f>
+      <c r="E48">
+        <f t="shared" ref="E48" si="40">FIND("\",A48)</f>
         <v>7</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:44">
-      <c r="A46" t="s">
+    <row r="49" spans="1:44">
+      <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>680100/借</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:44">
-      <c r="A47" t="s">
+    <row r="50" spans="1:44">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>680100/贷</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="E47">
-        <f t="shared" ref="E47" si="40">FIND("\",A47)</f>
+      <c r="E50">
+        <f t="shared" ref="E50" si="41">FIND("\",A50)</f>
         <v>7</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
-      <c r="U48" t="e">
-        <f>VLOOKUP($A48,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V48" t="str">
+    <row r="51" spans="1:44">
+      <c r="U51" t="e">
+        <f>VLOOKUP($A51,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V51" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W48" t="e">
+      <c r="W51" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X48" t="e">
-        <f>VLOOKUP(W48,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y48" t="e">
-        <f>VLOOKUP(W48,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z48" t="e">
+      <c r="X51" t="e">
+        <f>VLOOKUP(W51,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y51" t="e">
+        <f>VLOOKUP(W51,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z51" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA48">
+      <c r="AA51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB48">
+      <c r="AB51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE48" t="e">
-        <f>VLOOKUP(V48,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF48" t="e">
+      <c r="AE51" t="e">
+        <f>VLOOKUP(V51,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG48">
+      <c r="AG51">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH48" t="e">
+      <c r="AH51" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI48" t="e">
-        <f>VLOOKUP(U48,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ48" t="e">
-        <f>VLOOKUP(W48,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK48" t="e">
+      <c r="AI51" t="e">
+        <f>VLOOKUP(U51,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ51" t="e">
+        <f>VLOOKUP(W51,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK51" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL48" t="e">
-        <f>VLOOKUP(AK48,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM48" t="e">
+      <c r="AL51" t="e">
+        <f>VLOOKUP(AK51,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM51" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN48" t="e">
-        <f>VLOOKUP(Z48,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO48">
+      <c r="AN51" t="e">
+        <f>VLOOKUP(Z51,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO51">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP48" t="e">
+      <c r="AP51" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ48" t="e">
+      <c r="AQ51" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR48" t="e">
+      <c r="AR51" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="2:44">
-      <c r="B49" s="1" t="s">
+    <row r="52" spans="1:44">
+      <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>21</v>
       </c>
-      <c r="U49" t="e">
-        <f>VLOOKUP($A49,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V49" t="str">
+      <c r="U52" t="e">
+        <f>VLOOKUP($A52,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V52" t="str">
         <f t="shared" si="2"/>
         <v>9999</v>
       </c>
-      <c r="W49" t="str">
+      <c r="W52" t="str">
         <f t="shared" si="3"/>
         <v>外币报表折算差额</v>
       </c>
-      <c r="X49" t="str">
-        <f>VLOOKUP(W49,[2]科目!$A:$C,2,0)</f>
+      <c r="X52" t="str">
+        <f>VLOOKUP(W52,[2]科目!$A:$C,2,0)</f>
+        <v xml:space="preserve">    未分配利润</v>
+      </c>
+      <c r="Y52" t="str">
+        <f>VLOOKUP(W52,[2]科目!$A:$C,3,0)</f>
+        <v>外币报表折算</v>
+      </c>
+      <c r="Z52" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE52" t="str">
+        <f>VLOOKUP(V52,科目!$B:$C,2,0)</f>
         <v>外币报表折算差额</v>
       </c>
-      <c r="Y49" t="str">
-        <f>VLOOKUP(W49,[2]科目!$A:$C,3,0)</f>
-        <v>外币报表折算差额</v>
-      </c>
-      <c r="Z49" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE49" t="str">
-        <f>VLOOKUP(V49,科目!$B:$C,2,0)</f>
-        <v>外币报表折算差额</v>
-      </c>
-      <c r="AF49" t="e">
+      <c r="AF52" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG49">
+      <c r="AG52">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH49" t="e">
+      <c r="AH52" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI49" t="e">
-        <f>VLOOKUP(U49,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ49" t="str">
-        <f>VLOOKUP(W49,[2]科目!$A:$D,4,0)</f>
+      <c r="AI52" t="e">
+        <f>VLOOKUP(U52,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ52" t="str">
+        <f>VLOOKUP(W52,[2]科目!$A:$D,4,0)</f>
         <v>CV</v>
       </c>
-      <c r="AK49" t="e">
+      <c r="AK52" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL49" t="e">
-        <f>VLOOKUP(AK49,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM49" t="e">
+      <c r="AL52" t="e">
+        <f>VLOOKUP(AK52,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM52" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN49" t="e">
-        <f>VLOOKUP(Z49,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO49">
+      <c r="AN52" t="e">
+        <f>VLOOKUP(Z52,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO52">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP49" t="e">
+      <c r="AP52" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ49" t="e">
+      <c r="AQ52" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR49" t="e">
+      <c r="AR52" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="2:44">
-      <c r="U50" t="e">
-        <f>VLOOKUP($A50,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V50" t="str">
+    <row r="53" spans="1:44">
+      <c r="U53" t="e">
+        <f>VLOOKUP($A53,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W50" t="e">
+      <c r="W53" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X50" t="e">
-        <f>VLOOKUP(W50,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y50" t="e">
-        <f>VLOOKUP(W50,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z50" t="e">
+      <c r="X53" t="e">
+        <f>VLOOKUP(W53,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y53" t="e">
+        <f>VLOOKUP(W53,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z53" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA50">
+      <c r="AA53">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB50">
+      <c r="AB53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE50" t="e">
-        <f>VLOOKUP(V50,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF50" t="e">
+      <c r="AE53" t="e">
+        <f>VLOOKUP(V53,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF53" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG50">
+      <c r="AG53">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH50" t="e">
+      <c r="AH53" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI50" t="e">
-        <f>VLOOKUP(U50,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ50" t="e">
-        <f>VLOOKUP(W50,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK50" t="e">
+      <c r="AI53" t="e">
+        <f>VLOOKUP(U53,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ53" t="e">
+        <f>VLOOKUP(W53,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK53" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL50" t="e">
-        <f>VLOOKUP(AK50,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM50" t="e">
+      <c r="AL53" t="e">
+        <f>VLOOKUP(AK53,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM53" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN50" t="e">
-        <f>VLOOKUP(Z50,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO50">
+      <c r="AN53" t="e">
+        <f>VLOOKUP(Z53,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO53">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP50" t="e">
+      <c r="AP53" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ50" t="e">
+      <c r="AQ53" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR50" t="e">
+      <c r="AR53" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="2:44">
-      <c r="B51" s="1" t="s">
+    <row r="54" spans="1:44">
+      <c r="B54" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:44">
-      <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="2:44">
-      <c r="B54" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -4354,12 +4410,12 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44">
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -4368,335 +4424,57 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="2:44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44">
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44">
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44">
+      <c r="B60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E60" t="s">
         <v>63</v>
       </c>
-      <c r="U57" t="e">
-        <f>VLOOKUP($A57,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V57" t="str">
+      <c r="U60" t="e">
+        <f>VLOOKUP($A60,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V60" t="str">
         <f t="shared" si="2"/>
         <v>122101/贷</v>
-      </c>
-      <c r="W57" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X57">
-        <f>VLOOKUP(W57,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <f>VLOOKUP(W57,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z57" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE57" t="str">
-        <f>VLOOKUP(V57,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF57" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG57">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH57" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI57" t="e">
-        <f>VLOOKUP(U57,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ57" t="str">
-        <f>VLOOKUP(W57,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK57" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL57" t="e">
-        <f>VLOOKUP(AK57,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM57" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN57" t="e">
-        <f>VLOOKUP(Z57,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO57">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP57" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ57" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR57" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:44">
-      <c r="B58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" t="s">
-        <v>63</v>
-      </c>
-      <c r="U58" t="e">
-        <f>VLOOKUP($A58,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="2"/>
-        <v>122101/借</v>
-      </c>
-      <c r="W58" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X58">
-        <f>VLOOKUP(W58,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <f>VLOOKUP(W58,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE58" t="str">
-        <f>VLOOKUP(V58,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF58" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG58">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH58" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI58" t="e">
-        <f>VLOOKUP(U58,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ58" t="str">
-        <f>VLOOKUP(W58,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK58" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL58" t="e">
-        <f>VLOOKUP(AK58,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM58" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN58" t="e">
-        <f>VLOOKUP(Z58,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP58" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ58" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR58" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:44">
-      <c r="B59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" t="s">
-        <v>63</v>
-      </c>
-      <c r="U59" t="e">
-        <f>VLOOKUP($A59,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="2"/>
-        <v>122102/贷</v>
-      </c>
-      <c r="W59" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X59">
-        <f>VLOOKUP(W59,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <f>VLOOKUP(W59,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z59" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE59" t="str">
-        <f>VLOOKUP(V59,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF59" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG59">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH59" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI59" t="e">
-        <f>VLOOKUP(U59,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ59" t="str">
-        <f>VLOOKUP(W59,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK59" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL59" t="e">
-        <f>VLOOKUP(AK59,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM59" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN59" t="e">
-        <f>VLOOKUP(Z59,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO59">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP59" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ59" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR59" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:44">
-      <c r="B60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>63</v>
-      </c>
-      <c r="U60" t="e">
-        <f>VLOOKUP($A60,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V60" t="str">
-        <f t="shared" si="2"/>
-        <v>122102/借</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="3"/>
@@ -4779,15 +4557,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="1:44">
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
         <v>63</v>
@@ -4798,7 +4576,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="2"/>
-        <v>12210301/贷</v>
+        <v>122101/借</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="3"/>
@@ -4881,15 +4659,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="1:44">
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
         <v>63</v>
@@ -4900,7 +4678,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="2"/>
-        <v>12210301/借</v>
+        <v>122102/贷</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="3"/>
@@ -4983,15 +4761,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="1:44">
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
         <v>63</v>
@@ -5002,7 +4780,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/贷</v>
+        <v>122102/借</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="3"/>
@@ -5085,15 +4863,15 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="1:44">
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
         <v>63</v>
@@ -5104,7 +4882,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/借</v>
+        <v>12210301/贷</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="3"/>
@@ -5189,7 +4967,7 @@
     </row>
     <row r="65" spans="2:44">
       <c r="B65" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -5206,7 +4984,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/贷</v>
+        <v>12210301/借</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="3"/>
@@ -5291,13 +5069,13 @@
     </row>
     <row r="66" spans="2:44">
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
@@ -5308,7 +5086,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/借</v>
+        <v>12210302/贷</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="3"/>
@@ -5393,13 +5171,13 @@
     </row>
     <row r="67" spans="2:44">
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
         <v>63</v>
@@ -5410,7 +5188,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/贷</v>
+        <v>12210302/借</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="3"/>
@@ -5495,7 +5273,7 @@
     </row>
     <row r="68" spans="2:44">
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -5512,7 +5290,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/借</v>
+        <v>12210401/贷</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="3"/>
@@ -5597,7 +5375,7 @@
     </row>
     <row r="69" spans="2:44">
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -5614,7 +5392,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="2"/>
-        <v>122105/贷</v>
+        <v>12210401/借</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="3"/>
@@ -5699,7 +5477,7 @@
     </row>
     <row r="70" spans="2:44">
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5710,10 +5488,98 @@
       <c r="E70" t="s">
         <v>63</v>
       </c>
+      <c r="U70" t="e">
+        <f>VLOOKUP($A70,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" si="2"/>
+        <v>12210402/贷</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X70">
+        <f>VLOOKUP(W70,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <f>VLOOKUP(W70,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" t="str">
+        <f>VLOOKUP(V70,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF70" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH70" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI70" t="e">
+        <f>VLOOKUP(U70,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ70" t="str">
+        <f>VLOOKUP(W70,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK70" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL70" t="e">
+        <f>VLOOKUP(AK70,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM70" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN70" t="e">
+        <f>VLOOKUP(Z70,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP70" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ70" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR70" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="71" spans="2:44">
       <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5724,10 +5590,98 @@
       <c r="E71" t="s">
         <v>63</v>
       </c>
+      <c r="U71" t="e">
+        <f>VLOOKUP($A71,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="2"/>
+        <v>12210402/借</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X71">
+        <f>VLOOKUP(W71,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f>VLOOKUP(W71,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" t="str">
+        <f>VLOOKUP(V71,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF71" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH71" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI71" t="e">
+        <f>VLOOKUP(U71,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ71" t="str">
+        <f>VLOOKUP(W71,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK71" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL71" t="e">
+        <f>VLOOKUP(AK71,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM71" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN71" t="e">
+        <f>VLOOKUP(Z71,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP71" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ71" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR71" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="72" spans="2:44">
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -5738,10 +5692,98 @@
       <c r="E72" t="s">
         <v>63</v>
       </c>
+      <c r="U72" t="e">
+        <f>VLOOKUP($A72,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" si="2"/>
+        <v>122105/贷</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X72">
+        <f>VLOOKUP(W72,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <f>VLOOKUP(W72,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z72" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" t="str">
+        <f>VLOOKUP(V72,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF72" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH72" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI72" t="e">
+        <f>VLOOKUP(U72,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ72" t="str">
+        <f>VLOOKUP(W72,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK72" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL72" t="e">
+        <f>VLOOKUP(AK72,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM72" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN72" t="e">
+        <f>VLOOKUP(Z72,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP72" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ72" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR72" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="73" spans="2:44">
       <c r="B73" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -5755,7 +5797,7 @@
     </row>
     <row r="74" spans="2:44">
       <c r="B74" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -5769,13 +5811,13 @@
     </row>
     <row r="75" spans="2:44">
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>63</v>
@@ -5783,13 +5825,13 @@
     </row>
     <row r="76" spans="2:44">
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
         <v>63</v>
@@ -5797,7 +5839,7 @@
     </row>
     <row r="77" spans="2:44">
       <c r="B77" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -5811,13 +5853,13 @@
     </row>
     <row r="78" spans="2:44">
       <c r="B78" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
         <v>63</v>
@@ -5825,13 +5867,13 @@
     </row>
     <row r="79" spans="2:44">
       <c r="B79" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
         <v>63</v>
@@ -5839,7 +5881,7 @@
     </row>
     <row r="80" spans="2:44">
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -5853,7 +5895,7 @@
     </row>
     <row r="81" spans="1:44">
       <c r="B81" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -5867,7 +5909,7 @@
     </row>
     <row r="82" spans="1:44">
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -5881,7 +5923,7 @@
     </row>
     <row r="83" spans="1:44">
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -5895,7 +5937,7 @@
     </row>
     <row r="84" spans="1:44">
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -5908,126 +5950,56 @@
       </c>
     </row>
     <row r="85" spans="1:44">
-      <c r="B85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="86" spans="1:44">
-      <c r="B86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="87" spans="1:44">
-      <c r="U87" t="e">
-        <f>VLOOKUP($A93,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V87" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W87" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X87" t="e">
-        <f>VLOOKUP(W87,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y87" t="e">
-        <f>VLOOKUP(W87,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z87" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE87" t="e">
-        <f>VLOOKUP(V87,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF87" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG87">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH87" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI87" t="e">
-        <f>VLOOKUP(U87,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ87" t="e">
-        <f>VLOOKUP(W87,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK87" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL87" t="e">
-        <f>VLOOKUP(AK87,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM87" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN87" t="e">
-        <f>VLOOKUP(Z87,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO87">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP87" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ87" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR87" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="B87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:44">
-      <c r="A88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" t="s">
-        <v>66</v>
-      </c>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:44">
-      <c r="A89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" t="s">
-        <v>67</v>
-      </c>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:44">
-      <c r="A90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" t="s">
-        <v>26</v>
-      </c>
       <c r="U90" t="e">
-        <f>VLOOKUP($A90,[1]Basic!$A:$B,2,0)</f>
+        <f>VLOOKUP($A96,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V90" t="str">
@@ -6117,122 +6089,122 @@
     </row>
     <row r="91" spans="1:44">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
-      </c>
-      <c r="U91" t="e">
-        <f>VLOOKUP($A91,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V91" t="str">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:44">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:44">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="U93" t="e">
+        <f>VLOOKUP($A93,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W91" t="e">
+      <c r="W93" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X91" t="e">
-        <f>VLOOKUP(W91,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y91" t="e">
-        <f>VLOOKUP(W91,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z91" t="e">
+      <c r="X93" t="e">
+        <f>VLOOKUP(W93,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y93" t="e">
+        <f>VLOOKUP(W93,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z93" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA91">
+      <c r="AA93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB91">
+      <c r="AB93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE91" t="e">
-        <f>VLOOKUP(V91,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF91" t="e">
+      <c r="AE93" t="e">
+        <f>VLOOKUP(V93,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF93" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG91">
+      <c r="AG93">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH91" t="e">
+      <c r="AH93" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI91" t="e">
-        <f>VLOOKUP(U91,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ91" t="e">
-        <f>VLOOKUP(W91,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK91" t="e">
+      <c r="AI93" t="e">
+        <f>VLOOKUP(U93,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ93" t="e">
+        <f>VLOOKUP(W93,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK93" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL91" t="e">
-        <f>VLOOKUP(AK91,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM91" t="e">
+      <c r="AL93" t="e">
+        <f>VLOOKUP(AK93,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM93" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN91" t="e">
-        <f>VLOOKUP(Z91,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO91">
+      <c r="AN93" t="e">
+        <f>VLOOKUP(Z93,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO93">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP91" t="e">
+      <c r="AP93" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ91" t="e">
+      <c r="AQ93" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR91" t="e">
+      <c r="AR93" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:44">
-      <c r="A92" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:44">
-      <c r="A93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:44">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U94" t="e">
         <f>VLOOKUP($A94,[1]Basic!$A:$B,2,0)</f>
@@ -6325,96 +6297,208 @@
     </row>
     <row r="95" spans="1:44">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
-      </c>
-      <c r="U95" t="e">
-        <f>VLOOKUP($A95,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V95" t="str">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:44">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="U97" t="e">
+        <f>VLOOKUP($A97,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W95" t="e">
+      <c r="W97" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X95" t="e">
-        <f>VLOOKUP(W95,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y95" t="e">
-        <f>VLOOKUP(W95,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z95" t="e">
+      <c r="X97" t="e">
+        <f>VLOOKUP(W97,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y97" t="e">
+        <f>VLOOKUP(W97,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z97" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA95">
+      <c r="AA97">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB95">
+      <c r="AB97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE95" t="e">
-        <f>VLOOKUP(V95,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF95" t="e">
+      <c r="AE97" t="e">
+        <f>VLOOKUP(V97,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF97" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG95">
+      <c r="AG97">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH95" t="e">
+      <c r="AH97" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI95" t="e">
-        <f>VLOOKUP(U95,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ95" t="e">
-        <f>VLOOKUP(W95,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK95" t="e">
+      <c r="AI97" t="e">
+        <f>VLOOKUP(U97,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ97" t="e">
+        <f>VLOOKUP(W97,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK97" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL95" t="e">
-        <f>VLOOKUP(AK95,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM95" t="e">
+      <c r="AL97" t="e">
+        <f>VLOOKUP(AK97,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM97" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN95" t="e">
-        <f>VLOOKUP(Z95,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO95">
+      <c r="AN97" t="e">
+        <f>VLOOKUP(Z97,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO97">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP95" t="e">
+      <c r="AP97" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ95" t="e">
+      <c r="AQ97" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR95" t="e">
+      <c r="AR97" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="U98" t="e">
+        <f>VLOOKUP($A98,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W98" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X98" t="e">
+        <f>VLOOKUP(W98,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y98" t="e">
+        <f>VLOOKUP(W98,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z98" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE98" t="e">
+        <f>VLOOKUP(V98,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF98" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH98" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI98" t="e">
+        <f>VLOOKUP(U98,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ98" t="e">
+        <f>VLOOKUP(W98,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK98" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL98" t="e">
+        <f>VLOOKUP(AK98,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM98" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN98" t="e">
+        <f>VLOOKUP(Z98,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP98" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ98" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR98" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>

--- a/00框架文件/02SR.xlsx
+++ b/00框架文件/02SR.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52952E99-DA75-440D-8C71-370A628EF3FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623CA5C1-5250-42BA-91EA-674074E318DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$59:$E$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$60:$E$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="128">
   <si>
     <t>对应科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,26 @@
   </si>
   <si>
     <t>12219801/贷</t>
+  </si>
+  <si>
+    <t>信用减值损失</t>
+  </si>
+  <si>
+    <t>坏账准备从资产减值损失中单独列示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67010101/借</t>
+  </si>
+  <si>
+    <t>67010101\资产减值损失\坏账准备\计提坏帐准备</t>
+  </si>
+  <si>
+    <t>220299/贷</t>
+  </si>
+  <si>
+    <t>22/01/12针对HK进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -784,7 +804,7 @@
             <v>USD/BS</v>
           </cell>
           <cell r="G3">
-            <v>6.4600999999999997</v>
+            <v>6.3757000000000001</v>
           </cell>
         </row>
         <row r="4">
@@ -792,7 +812,7 @@
             <v>HKD/BS</v>
           </cell>
           <cell r="G4">
-            <v>0.83208000000000004</v>
+            <v>0.81759999999999999</v>
           </cell>
         </row>
         <row r="5">
@@ -800,7 +820,15 @@
             <v>GBP/BS</v>
           </cell>
           <cell r="G5">
-            <v>8.9410000000000007</v>
+            <v>8.6064000000000007</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>RMB/BS_H</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
           </cell>
         </row>
         <row r="9">
@@ -816,7 +844,7 @@
             <v>USD/PL</v>
           </cell>
           <cell r="G10">
-            <v>6.4924999999999997</v>
+            <v>6.4503000000000004</v>
           </cell>
         </row>
         <row r="11">
@@ -824,7 +852,7 @@
             <v>HKD/PL</v>
           </cell>
           <cell r="G11">
-            <v>0.83686000000000005</v>
+            <v>0.82962000000000002</v>
           </cell>
         </row>
         <row r="12">
@@ -832,7 +860,7 @@
             <v>GBP/PL</v>
           </cell>
           <cell r="G12">
-            <v>8.9156499999999994</v>
+            <v>8.7483500000000003</v>
           </cell>
         </row>
         <row r="14">
@@ -875,6 +903,22 @@
           </cell>
           <cell r="B4">
             <v>-240730882.72279382</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>05 控股(HK)\151102020201\长期股权投资\其他股权投资\其他公司股份\中国海洋集团有限公司\中国海洋股本投资</v>
+          </cell>
+          <cell r="B5">
+            <v>41000000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>05 控股(HK)\151102020301\长期股权投资\其他股权投资\其他公司股份\Bioxis Pharmaceuticals\Bioxis Pharmaceuticals股本投资</v>
+          </cell>
+          <cell r="B6">
+            <v>15218225.360000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1295,7 +1339,7 @@
             <v>长期股权投资</v>
           </cell>
           <cell r="D29" t="str">
-            <v>BS</v>
+            <v>BS_H</v>
           </cell>
         </row>
         <row r="30">
@@ -2039,13 +2083,13 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>资产减值损失</v>
+            <v>信用减值损失</v>
           </cell>
           <cell r="B83" t="str">
             <v xml:space="preserve">   信用减值损失（损失以“－”号填列）</v>
           </cell>
           <cell r="C83" t="str">
-            <v>资产减值损失</v>
+            <v>信用减值损失</v>
           </cell>
           <cell r="D83" t="str">
             <v>PL</v>
@@ -2053,13 +2097,13 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>营业外支出</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="B84" t="str">
-            <v xml:space="preserve">    减：营业外支出</v>
+            <v xml:space="preserve">   资产减值损失（损失以“－”号填列）</v>
           </cell>
           <cell r="C84" t="str">
-            <v>减：营业外支出</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="D84" t="str">
             <v>PL</v>
@@ -2067,46 +2111,46 @@
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>所得税费用</v>
+            <v>营业外支出</v>
           </cell>
           <cell r="B85" t="str">
-            <v xml:space="preserve">    减：所得税费用</v>
+            <v xml:space="preserve">    减：营业外支出</v>
           </cell>
           <cell r="C85" t="str">
-            <v>减：所得税</v>
+            <v>减：营业外支出</v>
           </cell>
           <cell r="D85" t="str">
             <v>PL</v>
           </cell>
         </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>重复明细</v>
-          </cell>
-          <cell r="D87" t="str">
-            <v>BS</v>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>所得税费用</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v xml:space="preserve">    减：所得税费用</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>减：所得税</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>PL</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>本年利润</v>
-          </cell>
-          <cell r="B88" t="str">
-            <v xml:space="preserve">    未分配利润</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>未分配利润</v>
+            <v>重复明细</v>
           </cell>
           <cell r="D88" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>本年利润抵消明细</v>
+            <v>本年利润</v>
           </cell>
           <cell r="B89" t="str">
-            <v>本年利润抵消明细</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C89" t="str">
             <v>未分配利润</v>
@@ -2117,41 +2161,41 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>外币报表折算差额</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="B90" t="str">
-            <v xml:space="preserve">    未分配利润</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="C90" t="str">
-            <v>外币报表折算</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="D90" t="str">
-            <v>CV</v>
+            <v>PL</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v>外币报表折算差额</v>
           </cell>
           <cell r="B91" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v>外币报表折算</v>
           </cell>
           <cell r="C91" t="str">
-            <v>其他收益</v>
+            <v>外币报表折算</v>
           </cell>
           <cell r="D91" t="str">
-            <v>PL</v>
+            <v>CV</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
           <cell r="B92" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
           <cell r="C92" t="str">
-            <v>资产处置收益</v>
+            <v>其他收益</v>
           </cell>
           <cell r="D92" t="str">
             <v>PL</v>
@@ -2159,15 +2203,43 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>资产处置收益</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
             <v>代扣代缴特殊逻辑</v>
           </cell>
-          <cell r="B93" t="str">
+          <cell r="B94" t="str">
             <v xml:space="preserve">    其他应收款</v>
           </cell>
-          <cell r="C93" t="str">
+          <cell r="C94" t="str">
             <v>其他应收款</v>
           </cell>
-          <cell r="D93" t="str">
+          <cell r="D94" t="str">
+            <v>BS</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>制造费用</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v xml:space="preserve">    存货</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>存货</v>
+          </cell>
+          <cell r="D95" t="str">
             <v>BS</v>
           </cell>
         </row>
@@ -2441,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR98"/>
+  <dimension ref="A1:AR100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2543,7 +2615,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B50" si="0">LEFT(A2,E2-1)&amp;F2</f>
+        <f t="shared" ref="B2:B51" si="0">LEFT(A2,E2-1)&amp;F2</f>
         <v>123101/借</v>
       </c>
       <c r="C2" t="s">
@@ -2588,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E49" si="1">FIND("\",A4)</f>
+        <f t="shared" ref="E4:E50" si="1">FIND("\",A4)</f>
         <v>7</v>
       </c>
       <c r="F4" t="s">
@@ -2602,11 +2674,11 @@
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V98" si="2">TRIM($B4)</f>
+        <f t="shared" ref="V4:V100" si="2">TRIM($B4)</f>
         <v>123102/借</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W98" si="3">_xlfn.IFNA(AE4,AH4)</f>
+        <f t="shared" ref="W4:W100" si="3">_xlfn.IFNA(AE4,AH4)</f>
         <v>其他应收款坏账准备</v>
       </c>
       <c r="X4" t="str">
@@ -2618,15 +2690,15 @@
         <v>减：其他应收款坏账准备</v>
       </c>
       <c r="Z4" t="e">
-        <f t="shared" ref="Z4:Z98" si="4">U4&amp;"\"&amp;$C4</f>
+        <f t="shared" ref="Z4:Z100" si="4">U4&amp;"\"&amp;$C4</f>
         <v>#N/A</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA98" si="5">IF($P4="借",$R4,-$R4)</f>
+        <f t="shared" ref="AA4:AA100" si="5">IF($P4="借",$R4,-$R4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB98" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
+        <f t="shared" ref="AB4:AB100" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
         <v>0</v>
       </c>
       <c r="AE4" t="str">
@@ -2634,15 +2706,15 @@
         <v>其他应收款坏账准备</v>
       </c>
       <c r="AF4" t="e">
-        <f t="shared" ref="AF4:AF98" si="7">FIND("\",$C4)</f>
+        <f t="shared" ref="AF4:AF100" si="7">FIND("\",$C4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG98" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
+        <f t="shared" ref="AG4:AG100" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH4" t="e">
-        <f t="shared" ref="AH4:AH98" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
+        <f t="shared" ref="AH4:AH100" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
@@ -2654,7 +2726,7 @@
         <v>BS</v>
       </c>
       <c r="AK4" t="e">
-        <f t="shared" ref="AK4:AK98" si="10">AI4&amp;"/"&amp;AJ4</f>
+        <f t="shared" ref="AK4:AK100" si="10">AI4&amp;"/"&amp;AJ4</f>
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
@@ -2662,7 +2734,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
-        <f t="shared" ref="AM4:AM98" si="11">ROUND(AA4*AL4,2)</f>
+        <f t="shared" ref="AM4:AM100" si="11">ROUND(AA4*AL4,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
@@ -2670,19 +2742,19 @@
         <v>#N/A</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO98" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
+        <f t="shared" ref="AO4:AO100" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
         <v>0</v>
       </c>
       <c r="AP4" t="e">
-        <f t="shared" ref="AP4:AP98" si="13">FIND("]",AO4)</f>
+        <f t="shared" ref="AP4:AP100" si="13">FIND("]",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ4" t="e">
-        <f t="shared" ref="AQ4:AQ98" si="14">FIND("#",AO4)</f>
+        <f t="shared" ref="AQ4:AQ100" si="14">FIND("#",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR4" t="e">
-        <f t="shared" ref="AR4:AR98" si="15">FIND("#",AO4,AQ4+1)</f>
+        <f t="shared" ref="AR4:AR100" si="15">FIND("#",AO4,AQ4+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2749,17 +2821,6 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="11" spans="1:44">
       <c r="B11" s="2" t="s">
         <v>118</v>
@@ -2856,7 +2917,7 @@
       </c>
       <c r="Y15" t="str">
         <f>VLOOKUP(W15,[2]科目!$A:$C,3,0)</f>
-        <v>未分配利润</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Z15" t="e">
         <f t="shared" si="4"/>
@@ -2982,7 +3043,7 @@
       </c>
       <c r="Y17" t="str">
         <f>VLOOKUP(W17,[2]科目!$A:$C,3,0)</f>
-        <v>未分配利润</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Z17" t="e">
         <f t="shared" si="4"/>
@@ -3108,7 +3169,7 @@
       </c>
       <c r="Y19" t="str">
         <f>VLOOKUP(W19,[2]科目!$A:$C,3,0)</f>
-        <v>未分配利润</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Z19" t="e">
         <f t="shared" si="4"/>
@@ -3272,7 +3333,7 @@
       </c>
       <c r="Y23" t="str">
         <f>VLOOKUP(W23,[2]科目!$A:$C,3,0)</f>
-        <v>未分配利润</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Z23" t="e">
         <f t="shared" si="4"/>
@@ -3474,7 +3535,7 @@
       </c>
       <c r="Y29" t="str">
         <f>VLOOKUP(W29,[2]科目!$A:$C,3,0)</f>
-        <v>未分配利润</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Z29" t="e">
         <f t="shared" si="4"/>
@@ -3638,7 +3699,7 @@
       </c>
       <c r="Y33" t="str">
         <f>VLOOKUP(W33,[2]科目!$A:$C,3,0)</f>
-        <v>未分配利润</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Z33" t="e">
         <f t="shared" si="4"/>
@@ -3764,7 +3825,7 @@
       </c>
       <c r="Y35" t="str">
         <f>VLOOKUP(W35,[2]科目!$A:$C,3,0)</f>
-        <v>未分配利润</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="Z35" t="e">
         <f t="shared" si="4"/>
@@ -4011,21 +4072,23 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>671100/借</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" ref="E45" si="38">FIND("\",A45)</f>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="G45" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:44">
@@ -4034,36 +4097,36 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>671100/贷</v>
+        <v>671100/借</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46" si="38">FIND("\",A46)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>671102/借</v>
+        <v>671100/贷</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <f t="shared" ref="E47" si="39">FIND("\",A47)</f>
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:44">
@@ -4072,7 +4135,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>671102/贷</v>
+        <v>671102/借</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
@@ -4082,26 +4145,26 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>680100/借</v>
+        <v>671102/贷</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E49" si="41">FIND("\",A49)</f>
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:44">
@@ -4110,135 +4173,58 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>680100/贷</v>
+        <v>680100/借</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50" si="41">FIND("\",A50)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>680100/贷</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="42">FIND("\",A51)</f>
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:44">
-      <c r="U51" t="e">
-        <f>VLOOKUP($A51,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V51" t="str">
+    <row r="52" spans="1:44">
+      <c r="U52" t="e">
+        <f>VLOOKUP($A52,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W51" t="e">
+      <c r="W52" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X51" t="e">
-        <f>VLOOKUP(W51,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y51" t="e">
-        <f>VLOOKUP(W51,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z51" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE51" t="e">
-        <f>VLOOKUP(V51,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF51" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG51">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH51" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI51" t="e">
-        <f>VLOOKUP(U51,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ51" t="e">
-        <f>VLOOKUP(W51,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK51" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL51" t="e">
-        <f>VLOOKUP(AK51,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM51" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN51" t="e">
-        <f>VLOOKUP(Z51,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP51" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ51" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR51" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44">
-      <c r="B52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>21</v>
-      </c>
-      <c r="U52" t="e">
-        <f>VLOOKUP($A52,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="W52" t="str">
-        <f t="shared" si="3"/>
-        <v>外币报表折算差额</v>
-      </c>
-      <c r="X52" t="str">
+      <c r="X52" t="e">
         <f>VLOOKUP(W52,[2]科目!$A:$C,2,0)</f>
-        <v xml:space="preserve">    未分配利润</v>
-      </c>
-      <c r="Y52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y52" t="e">
         <f>VLOOKUP(W52,[2]科目!$A:$C,3,0)</f>
-        <v>外币报表折算</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z52" t="e">
         <f t="shared" si="4"/>
@@ -4252,9 +4238,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE52" t="str">
+      <c r="AE52" t="e">
         <f>VLOOKUP(V52,科目!$B:$C,2,0)</f>
-        <v>外币报表折算差额</v>
+        <v>#N/A</v>
       </c>
       <c r="AF52" t="e">
         <f t="shared" si="7"/>
@@ -4272,9 +4258,9 @@
         <f>VLOOKUP(U52,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AJ52" t="str">
+      <c r="AJ52" t="e">
         <f>VLOOKUP(W52,[2]科目!$A:$D,4,0)</f>
-        <v>CV</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AK52" t="e">
         <f t="shared" si="10"/>
@@ -4310,25 +4296,31 @@
       </c>
     </row>
     <row r="53" spans="1:44">
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
       <c r="U53" t="e">
         <f>VLOOKUP($A53,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W53" t="e">
+        <v>9999</v>
+      </c>
+      <c r="W53" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X53" t="e">
+        <v>外币报表折算差额</v>
+      </c>
+      <c r="X53" t="str">
         <f>VLOOKUP(W53,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y53" t="e">
+        <v>外币报表折算</v>
+      </c>
+      <c r="Y53" t="str">
         <f>VLOOKUP(W53,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
+        <v>外币报表折算</v>
       </c>
       <c r="Z53" t="e">
         <f t="shared" si="4"/>
@@ -4342,9 +4334,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE53" t="e">
+      <c r="AE53" t="str">
         <f>VLOOKUP(V53,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
+        <v>外币报表折算差额</v>
       </c>
       <c r="AF53" t="e">
         <f t="shared" si="7"/>
@@ -4362,9 +4354,9 @@
         <f>VLOOKUP(U53,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AJ53" t="e">
+      <c r="AJ53" t="str">
         <f>VLOOKUP(W53,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
+        <v>CV</v>
       </c>
       <c r="AK53" t="e">
         <f t="shared" si="10"/>
@@ -4400,22 +4392,98 @@
       </c>
     </row>
     <row r="54" spans="1:44">
-      <c r="B54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>64</v>
+      <c r="U54" t="e">
+        <f>VLOOKUP($A54,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W54" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X54" t="e">
+        <f>VLOOKUP(W54,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y54" t="e">
+        <f>VLOOKUP(W54,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z54" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE54" t="e">
+        <f>VLOOKUP(V54,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF54" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI54" t="e">
+        <f>VLOOKUP(U54,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ54" t="e">
+        <f>VLOOKUP(W54,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK54" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL54" t="e">
+        <f>VLOOKUP(AK54,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM54" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN54" t="e">
+        <f>VLOOKUP(Z54,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP54" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ54" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR54" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:44">
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -4427,23 +4495,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
-      <c r="B57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="56" spans="1:44">
+      <c r="B56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
         <v>18</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="E57" t="s">
-        <v>105</v>
+      <c r="E56" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:44">
       <c r="B58" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -4455,128 +4523,40 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
-      <c r="B60" s="1" t="s">
+    <row r="59" spans="1:44">
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44">
+      <c r="B61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>18</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>15</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>63</v>
       </c>
-      <c r="U60" t="e">
-        <f>VLOOKUP($A60,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V60" t="str">
+      <c r="U61" t="e">
+        <f>VLOOKUP($A61,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V61" t="str">
         <f t="shared" si="2"/>
         <v>122101/贷</v>
-      </c>
-      <c r="W60" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X60">
-        <f>VLOOKUP(W60,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <f>VLOOKUP(W60,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z60" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE60" t="str">
-        <f>VLOOKUP(V60,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF60" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG60">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH60" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI60" t="e">
-        <f>VLOOKUP(U60,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ60" t="str">
-        <f>VLOOKUP(W60,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK60" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL60" t="e">
-        <f>VLOOKUP(AK60,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM60" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN60" t="e">
-        <f>VLOOKUP(Z60,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP60" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ60" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR60" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:44">
-      <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>63</v>
-      </c>
-      <c r="U61" t="e">
-        <f>VLOOKUP($A61,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V61" t="str">
-        <f t="shared" si="2"/>
-        <v>122101/借</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="3"/>
@@ -4661,7 +4641,7 @@
     </row>
     <row r="62" spans="1:44">
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -4678,7 +4658,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="2"/>
-        <v>122102/贷</v>
+        <v>122101/借</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="3"/>
@@ -4763,7 +4743,7 @@
     </row>
     <row r="63" spans="1:44">
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -4780,7 +4760,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="2"/>
-        <v>122102/借</v>
+        <v>122102/贷</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="3"/>
@@ -4865,13 +4845,13 @@
     </row>
     <row r="64" spans="1:44">
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
         <v>63</v>
@@ -4882,7 +4862,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="2"/>
-        <v>12210301/贷</v>
+        <v>122102/借</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="3"/>
@@ -4967,7 +4947,7 @@
     </row>
     <row r="65" spans="2:44">
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -4984,7 +4964,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="2"/>
-        <v>12210301/借</v>
+        <v>12210301/贷</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="3"/>
@@ -5069,13 +5049,13 @@
     </row>
     <row r="66" spans="2:44">
       <c r="B66" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
@@ -5086,7 +5066,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/贷</v>
+        <v>12210301/借</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="3"/>
@@ -5171,7 +5151,7 @@
     </row>
     <row r="67" spans="2:44">
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -5188,7 +5168,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/借</v>
+        <v>12210302/贷</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="3"/>
@@ -5273,13 +5253,13 @@
     </row>
     <row r="68" spans="2:44">
       <c r="B68" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
@@ -5290,7 +5270,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/贷</v>
+        <v>12210302/借</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="3"/>
@@ -5375,7 +5355,7 @@
     </row>
     <row r="69" spans="2:44">
       <c r="B69" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -5392,7 +5372,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/借</v>
+        <v>12210401/贷</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="3"/>
@@ -5477,7 +5457,7 @@
     </row>
     <row r="70" spans="2:44">
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -5494,7 +5474,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/贷</v>
+        <v>12210401/借</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="3"/>
@@ -5579,7 +5559,7 @@
     </row>
     <row r="71" spans="2:44">
       <c r="B71" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -5596,7 +5576,7 @@
       </c>
       <c r="V71" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/借</v>
+        <v>12210402/贷</v>
       </c>
       <c r="W71" t="str">
         <f t="shared" si="3"/>
@@ -5681,7 +5661,7 @@
     </row>
     <row r="72" spans="2:44">
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -5698,7 +5678,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="2"/>
-        <v>122105/贷</v>
+        <v>12210402/借</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="3"/>
@@ -5783,7 +5763,7 @@
     </row>
     <row r="73" spans="2:44">
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -5794,10 +5774,98 @@
       <c r="E73" t="s">
         <v>63</v>
       </c>
+      <c r="U73" t="e">
+        <f>VLOOKUP($A73,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="2"/>
+        <v>122105/贷</v>
+      </c>
+      <c r="W73" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X73">
+        <f>VLOOKUP(W73,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <f>VLOOKUP(W73,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z73" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" t="str">
+        <f>VLOOKUP(V73,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF73" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG73">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH73" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI73" t="e">
+        <f>VLOOKUP(U73,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ73" t="str">
+        <f>VLOOKUP(W73,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK73" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL73" t="e">
+        <f>VLOOKUP(AK73,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM73" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN73" t="e">
+        <f>VLOOKUP(Z73,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP73" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ73" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR73" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="74" spans="2:44">
       <c r="B74" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -5811,7 +5879,7 @@
     </row>
     <row r="75" spans="2:44">
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -5825,7 +5893,7 @@
     </row>
     <row r="76" spans="2:44">
       <c r="B76" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -5839,7 +5907,7 @@
     </row>
     <row r="77" spans="2:44">
       <c r="B77" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -5853,13 +5921,13 @@
     </row>
     <row r="78" spans="2:44">
       <c r="B78" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
         <v>63</v>
@@ -5867,7 +5935,7 @@
     </row>
     <row r="79" spans="2:44">
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -5881,13 +5949,13 @@
     </row>
     <row r="80" spans="2:44">
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>63</v>
@@ -5895,7 +5963,7 @@
     </row>
     <row r="81" spans="1:44">
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -5909,7 +5977,7 @@
     </row>
     <row r="82" spans="1:44">
       <c r="B82" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -5923,7 +5991,7 @@
     </row>
     <row r="83" spans="1:44">
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -5937,7 +6005,7 @@
     </row>
     <row r="84" spans="1:44">
       <c r="B84" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -5951,7 +6019,7 @@
     </row>
     <row r="85" spans="1:44">
       <c r="B85" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -5965,7 +6033,7 @@
     </row>
     <row r="86" spans="1:44">
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -5979,7 +6047,7 @@
     </row>
     <row r="87" spans="1:44">
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -5992,513 +6060,558 @@
       </c>
     </row>
     <row r="88" spans="1:44">
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="89" spans="1:44">
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:44">
-      <c r="U90" t="e">
-        <f>VLOOKUP($A96,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V90" t="str">
+      <c r="B90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="G90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:44">
+      <c r="B91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:44">
+      <c r="U92" t="e">
+        <f>VLOOKUP($A98,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V92" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W90" t="e">
+      <c r="W92" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X90" t="e">
-        <f>VLOOKUP(W90,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y90" t="e">
-        <f>VLOOKUP(W90,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z90" t="e">
+      <c r="X92" t="e">
+        <f>VLOOKUP(W92,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y92" t="e">
+        <f>VLOOKUP(W92,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z92" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA90">
+      <c r="AA92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB90">
+      <c r="AB92">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE90" t="e">
-        <f>VLOOKUP(V90,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF90" t="e">
+      <c r="AE92" t="e">
+        <f>VLOOKUP(V92,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF92" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG90">
+      <c r="AG92">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH90" t="e">
+      <c r="AH92" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI90" t="e">
-        <f>VLOOKUP(U90,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ90" t="e">
-        <f>VLOOKUP(W90,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK90" t="e">
+      <c r="AI92" t="e">
+        <f>VLOOKUP(U92,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ92" t="e">
+        <f>VLOOKUP(W92,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK92" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL90" t="e">
-        <f>VLOOKUP(AK90,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM90" t="e">
+      <c r="AL92" t="e">
+        <f>VLOOKUP(AK92,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM92" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN90" t="e">
-        <f>VLOOKUP(Z90,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO90">
+      <c r="AN92" t="e">
+        <f>VLOOKUP(Z92,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO92">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP90" t="e">
+      <c r="AP92" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ90" t="e">
+      <c r="AQ92" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR90" t="e">
+      <c r="AR92" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:44">
-      <c r="A91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:44">
-      <c r="A92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:44">
       <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:44">
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:44">
+      <c r="A95" t="s">
         <v>23</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>26</v>
       </c>
-      <c r="U93" t="e">
-        <f>VLOOKUP($A93,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V93" t="str">
+      <c r="U95" t="e">
+        <f>VLOOKUP($A95,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W93" t="e">
+      <c r="W95" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X93" t="e">
-        <f>VLOOKUP(W93,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y93" t="e">
-        <f>VLOOKUP(W93,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z93" t="e">
+      <c r="X95" t="e">
+        <f>VLOOKUP(W95,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y95" t="e">
+        <f>VLOOKUP(W95,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z95" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA93">
+      <c r="AA95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB93">
+      <c r="AB95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE93" t="e">
-        <f>VLOOKUP(V93,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF93" t="e">
+      <c r="AE95" t="e">
+        <f>VLOOKUP(V95,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF95" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG93">
+      <c r="AG95">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH93" t="e">
+      <c r="AH95" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI93" t="e">
-        <f>VLOOKUP(U93,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ93" t="e">
-        <f>VLOOKUP(W93,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK93" t="e">
+      <c r="AI95" t="e">
+        <f>VLOOKUP(U95,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ95" t="e">
+        <f>VLOOKUP(W95,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK95" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL93" t="e">
-        <f>VLOOKUP(AK93,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM93" t="e">
+      <c r="AL95" t="e">
+        <f>VLOOKUP(AK95,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM95" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN93" t="e">
-        <f>VLOOKUP(Z93,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO93">
+      <c r="AN95" t="e">
+        <f>VLOOKUP(Z95,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO95">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP93" t="e">
+      <c r="AP95" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ93" t="e">
+      <c r="AQ95" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR93" t="e">
+      <c r="AR95" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:44">
-      <c r="A94" t="s">
+    <row r="96" spans="1:44">
+      <c r="A96" t="s">
         <v>25</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>27</v>
       </c>
-      <c r="U94" t="e">
-        <f>VLOOKUP($A94,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V94" t="str">
+      <c r="U96" t="e">
+        <f>VLOOKUP($A96,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V96" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W94" t="e">
+      <c r="W96" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X94" t="e">
-        <f>VLOOKUP(W94,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y94" t="e">
-        <f>VLOOKUP(W94,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z94" t="e">
+      <c r="X96" t="e">
+        <f>VLOOKUP(W96,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y96" t="e">
+        <f>VLOOKUP(W96,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z96" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA94">
+      <c r="AA96">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB94">
+      <c r="AB96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE94" t="e">
-        <f>VLOOKUP(V94,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF94" t="e">
+      <c r="AE96" t="e">
+        <f>VLOOKUP(V96,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF96" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG94">
+      <c r="AG96">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH94" t="e">
+      <c r="AH96" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI94" t="e">
-        <f>VLOOKUP(U94,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ94" t="e">
-        <f>VLOOKUP(W94,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK94" t="e">
+      <c r="AI96" t="e">
+        <f>VLOOKUP(U96,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ96" t="e">
+        <f>VLOOKUP(W96,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK96" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL94" t="e">
-        <f>VLOOKUP(AK94,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM94" t="e">
+      <c r="AL96" t="e">
+        <f>VLOOKUP(AK96,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM96" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN94" t="e">
-        <f>VLOOKUP(Z94,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO94">
+      <c r="AN96" t="e">
+        <f>VLOOKUP(Z96,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO96">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP94" t="e">
+      <c r="AP96" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ94" t="e">
+      <c r="AQ96" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR94" t="e">
+      <c r="AR96" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:44">
-      <c r="A95" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:44">
-      <c r="A96" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:44">
       <c r="A97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44">
+      <c r="A99" t="s">
         <v>22</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>26</v>
       </c>
-      <c r="U97" t="e">
-        <f>VLOOKUP($A97,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V97" t="str">
+      <c r="U99" t="e">
+        <f>VLOOKUP($A99,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V99" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W97" t="e">
+      <c r="W99" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X97" t="e">
-        <f>VLOOKUP(W97,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y97" t="e">
-        <f>VLOOKUP(W97,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z97" t="e">
+      <c r="X99" t="e">
+        <f>VLOOKUP(W99,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y99" t="e">
+        <f>VLOOKUP(W99,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z99" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA97">
+      <c r="AA99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB97">
+      <c r="AB99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE97" t="e">
-        <f>VLOOKUP(V97,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF97" t="e">
+      <c r="AE99" t="e">
+        <f>VLOOKUP(V99,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF99" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG97">
+      <c r="AG99">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH97" t="e">
+      <c r="AH99" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI97" t="e">
-        <f>VLOOKUP(U97,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ97" t="e">
-        <f>VLOOKUP(W97,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK97" t="e">
+      <c r="AI99" t="e">
+        <f>VLOOKUP(U99,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ99" t="e">
+        <f>VLOOKUP(W99,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK99" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL97" t="e">
-        <f>VLOOKUP(AK97,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM97" t="e">
+      <c r="AL99" t="e">
+        <f>VLOOKUP(AK99,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM99" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN97" t="e">
-        <f>VLOOKUP(Z97,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO97">
+      <c r="AN99" t="e">
+        <f>VLOOKUP(Z99,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO99">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP97" t="e">
+      <c r="AP99" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ97" t="e">
+      <c r="AQ99" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR97" t="e">
+      <c r="AR99" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="98" spans="1:44">
-      <c r="A98" t="s">
+    <row r="100" spans="1:44">
+      <c r="A100" t="s">
         <v>24</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>27</v>
       </c>
-      <c r="U98" t="e">
-        <f>VLOOKUP($A98,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V98" t="str">
+      <c r="U100" t="e">
+        <f>VLOOKUP($A100,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W98" t="e">
+      <c r="W100" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X98" t="e">
-        <f>VLOOKUP(W98,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y98" t="e">
-        <f>VLOOKUP(W98,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z98" t="e">
+      <c r="X100" t="e">
+        <f>VLOOKUP(W100,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y100" t="e">
+        <f>VLOOKUP(W100,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z100" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA98">
+      <c r="AA100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB98">
+      <c r="AB100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE98" t="e">
-        <f>VLOOKUP(V98,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF98" t="e">
+      <c r="AE100" t="e">
+        <f>VLOOKUP(V100,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF100" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG98">
+      <c r="AG100">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH98" t="e">
+      <c r="AH100" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI98" t="e">
-        <f>VLOOKUP(U98,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ98" t="e">
-        <f>VLOOKUP(W98,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK98" t="e">
+      <c r="AI100" t="e">
+        <f>VLOOKUP(U100,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ100" t="e">
+        <f>VLOOKUP(W100,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK100" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL98" t="e">
-        <f>VLOOKUP(AK98,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM98" t="e">
+      <c r="AL100" t="e">
+        <f>VLOOKUP(AK100,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM100" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN98" t="e">
-        <f>VLOOKUP(Z98,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO98">
+      <c r="AN100" t="e">
+        <f>VLOOKUP(Z100,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO100">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP98" t="e">
+      <c r="AP100" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ98" t="e">
+      <c r="AQ100" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR98" t="e">
+      <c r="AR100" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>

--- a/00框架文件/02SR.xlsx
+++ b/00框架文件/02SR.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623CA5C1-5250-42BA-91EA-674074E318DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23254B6B-6C85-4CEA-A83B-A015DAB49303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="科目" sheetId="1" r:id="rId1"/>
+    <sheet name="重分类" sheetId="3" r:id="rId2"/>
+    <sheet name="唯一识别码" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$60:$E$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$B$93:$E$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">唯一识别码!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,11 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="128">
-  <si>
-    <t>对应科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="199">
   <si>
     <t>123102\坏帐准备\其它应收款坏帐准备</t>
   </si>
@@ -341,151 +340,392 @@
     <t>224104/借</t>
   </si>
   <si>
+    <t>12210302/借</t>
+  </si>
+  <si>
+    <t>122101/贷</t>
+  </si>
+  <si>
+    <t>122102/贷</t>
+  </si>
+  <si>
+    <t>224101/贷</t>
+  </si>
+  <si>
+    <t>12210301/贷</t>
+  </si>
+  <si>
+    <t>12210401/贷</t>
+  </si>
+  <si>
+    <t>12210402/贷</t>
+  </si>
+  <si>
+    <t>122105/贷</t>
+  </si>
+  <si>
+    <t>122108/贷</t>
+  </si>
+  <si>
+    <t>122125/贷</t>
+  </si>
+  <si>
+    <t>224102/贷</t>
+  </si>
+  <si>
+    <t>224103/贷</t>
+  </si>
+  <si>
+    <t>224104/贷</t>
+  </si>
+  <si>
+    <t>224111/贷</t>
+  </si>
+  <si>
+    <t>12210302/贷</t>
+  </si>
+  <si>
+    <t>112201/借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112201/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112202/贷</t>
+  </si>
+  <si>
+    <t>预收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付预付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220201/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220201/借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220202/借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220299/借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款\借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款\贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122106/贷</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反方向科目重分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224199/借</t>
+  </si>
+  <si>
+    <t>224105/借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670100\资产减值损失\资产减值损失结转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12219801/贷</t>
+  </si>
+  <si>
+    <t>信用减值损失</t>
+  </si>
+  <si>
+    <t>坏账准备从资产减值损失中单独列示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67010101/借</t>
+  </si>
+  <si>
+    <t>67010101\资产减值损失\坏账准备\计提坏帐准备</t>
+  </si>
+  <si>
+    <t>22/01/12针对HK进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一识别码</t>
+  </si>
+  <si>
+    <t>01 生科\640202\其他业务成本\材料销售成本</t>
+  </si>
+  <si>
+    <t>03 建华\640203\其他业务成本\其他成本</t>
+  </si>
+  <si>
+    <t>其他业务收入</t>
+  </si>
+  <si>
+    <t>A3科目名称（特殊规则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中：主营业务成本</t>
+  </si>
+  <si>
+    <t>01 生科\1132\应收利息</t>
+  </si>
+  <si>
+    <t>02 其胜\1132\应收利息</t>
+  </si>
+  <si>
+    <t>04 利康瑞\1132\应收利息</t>
+  </si>
+  <si>
+    <t>货币资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 建华\1132\应收利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 生科\151102020101\长期股权投资\其他股权投资\其他公司股份\上海伦胜信息科技有限公司\股本投资</t>
+  </si>
+  <si>
+    <t>01 生科\151102020201\长期股权投资\其他股权投资\其他公司股份\上海软馨生物科技有限公司\股本投资</t>
+  </si>
+  <si>
+    <t>01 生科\151102020301\长期股权投资\其他股权投资\其他公司股份\上海萨美细胞技术有限公司\股本投资</t>
+  </si>
+  <si>
+    <t>01 生科\151102020401\长期股权投资\其他股权投资\其他公司股份\江苏美思康医疗科技有限公司\股本投资</t>
+  </si>
+  <si>
+    <t>01 生科\151102020501\长期股权投资\其他股权投资\其他公司股份\江苏美凤力医疗科技有限公司\股本投资</t>
+  </si>
+  <si>
+    <t>05 控股(HK)\151102020401\长期股权投资\其他股权投资\其他公司股份\Ornovi,Inc.\Ornovi,Inc.股本投资</t>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+  </si>
+  <si>
+    <t>其他权益工具投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 生科\11010202\交易性金融资产\债券\债券公允价值变动</t>
+  </si>
+  <si>
+    <t>01 生科\11010301\交易性金融资产\基金\基金成本</t>
+  </si>
+  <si>
+    <t>02 其胜\11010301\交易性金融资产\基金\基金成本</t>
+  </si>
+  <si>
+    <t>04 利康瑞\11010301\交易性金融资产\基金\基金成本</t>
+  </si>
+  <si>
+    <t>02 其胜\11010302\交易性金融资产\基金\基金公允价值变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04 利康瑞\11010302\交易性金融资产\基金\基金公允价值变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主科目名称</t>
+  </si>
+  <si>
+    <t>224106\其他应付款\代管工会经费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应付款（工会经费）</t>
+  </si>
+  <si>
     <t>224111/借</t>
-  </si>
-  <si>
-    <t>12210302/借</t>
-  </si>
-  <si>
-    <t>122101/贷</t>
-  </si>
-  <si>
-    <t>122102/贷</t>
-  </si>
-  <si>
-    <t>224101/贷</t>
-  </si>
-  <si>
-    <t>12210301/贷</t>
-  </si>
-  <si>
-    <t>12210401/贷</t>
-  </si>
-  <si>
-    <t>12210402/贷</t>
-  </si>
-  <si>
-    <t>122105/贷</t>
-  </si>
-  <si>
-    <t>122108/贷</t>
-  </si>
-  <si>
-    <t>122125/贷</t>
-  </si>
-  <si>
-    <t>224102/贷</t>
-  </si>
-  <si>
-    <t>224103/贷</t>
-  </si>
-  <si>
-    <t>224104/贷</t>
-  </si>
-  <si>
-    <t>224111/贷</t>
-  </si>
-  <si>
-    <t>12210302/贷</t>
-  </si>
-  <si>
-    <t>112201/借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112201/贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112202/贷</t>
-  </si>
-  <si>
-    <t>预收账款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付预付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220201/贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220201/借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220202/借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220299/借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3科目名称</t>
   </si>
   <si>
     <t>预付账款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付账款\借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付账款\贷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付账款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预付账款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>122106/贷</t>
-  </si>
-  <si>
-    <t>其他应付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反方向科目重分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>224199/借</t>
-  </si>
-  <si>
-    <t>224105/借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>670100\资产减值损失\资产减值损失结转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12219801/贷</t>
-  </si>
-  <si>
-    <t>信用减值损失</t>
-  </si>
-  <si>
-    <t>坏账准备从资产减值损失中单独列示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67010101/借</t>
-  </si>
-  <si>
-    <t>67010101\资产减值损失\坏账准备\计提坏帐准备</t>
+  </si>
+  <si>
+    <t>01 生科\224111\其他应付款\其他费用应付\客商:松江财政国库存款</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地预付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16040101/借</t>
+  </si>
+  <si>
+    <t>16040102/借</t>
+  </si>
+  <si>
+    <t>1604010303/借</t>
+  </si>
+  <si>
+    <t>1604010309/借</t>
+  </si>
+  <si>
+    <t>1604010401/借</t>
+  </si>
+  <si>
+    <t>1604010402/借</t>
+  </si>
+  <si>
+    <t>1604010498/借</t>
+  </si>
+  <si>
+    <t>16040198/借</t>
+  </si>
+  <si>
+    <t>16040201/借</t>
+  </si>
+  <si>
+    <t>16040202/借</t>
+  </si>
+  <si>
+    <t>在建工程项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在建其他应付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在建工程\借</t>
+  </si>
+  <si>
+    <t>在建工程\贷</t>
+  </si>
+  <si>
+    <t>在建工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>220299/贷</t>
-  </si>
-  <si>
-    <t>22/01/12针对HK进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16040202/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16040201/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16040198/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16040101/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16040102/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1604010303/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1604010309/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1604010401/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1604010402/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1604010498/贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16040101/贷</t>
+  </si>
+  <si>
+    <t>16040102/贷</t>
+  </si>
+  <si>
+    <t>1604010303/贷</t>
+  </si>
+  <si>
+    <t>1604010309/贷</t>
+  </si>
+  <si>
+    <t>1604010401/贷</t>
+  </si>
+  <si>
+    <t>1604010402/贷</t>
+  </si>
+  <si>
+    <t>1604010498/贷</t>
+  </si>
+  <si>
+    <t>16040198/贷</t>
+  </si>
+  <si>
+    <t>16040201/贷</t>
+  </si>
+  <si>
+    <t>16040202/贷</t>
+  </si>
+  <si>
+    <t>01 生科\1503\可供出售金融资产</t>
+  </si>
+  <si>
+    <t>长期股权投资</t>
+  </si>
+  <si>
+    <t>对瑞济的投资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +743,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -535,10 +784,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -804,7 +1055,7 @@
             <v>USD/BS</v>
           </cell>
           <cell r="G3">
-            <v>6.3757000000000001</v>
+            <v>6.3482000000000003</v>
           </cell>
         </row>
         <row r="4">
@@ -812,7 +1063,7 @@
             <v>HKD/BS</v>
           </cell>
           <cell r="G4">
-            <v>0.81759999999999999</v>
+            <v>0.81101000000000001</v>
           </cell>
         </row>
         <row r="5">
@@ -820,7 +1071,7 @@
             <v>GBP/BS</v>
           </cell>
           <cell r="G5">
-            <v>8.6064000000000007</v>
+            <v>8.3377999999999997</v>
           </cell>
         </row>
         <row r="6">
@@ -844,7 +1095,7 @@
             <v>USD/PL</v>
           </cell>
           <cell r="G10">
-            <v>6.4503000000000004</v>
+            <v>6.3619500000000002</v>
           </cell>
         </row>
         <row r="11">
@@ -852,7 +1103,7 @@
             <v>HKD/PL</v>
           </cell>
           <cell r="G11">
-            <v>0.82962000000000002</v>
+            <v>0.81430500000000006</v>
           </cell>
         </row>
         <row r="12">
@@ -860,7 +1111,7 @@
             <v>GBP/PL</v>
           </cell>
           <cell r="G12">
-            <v>8.7483500000000003</v>
+            <v>8.4721000000000011</v>
           </cell>
         </row>
         <row r="14">
@@ -894,7 +1145,7 @@
             <v>05 控股(HK)\4003\其他综合收益</v>
           </cell>
           <cell r="B3">
-            <v>-52328140.099999994</v>
+            <v>10254009.109999999</v>
           </cell>
         </row>
         <row r="4">
@@ -902,7 +1153,7 @@
             <v>05 控股(HK)\410498\利润分配\未分配利润</v>
           </cell>
           <cell r="B4">
-            <v>-240730882.72279382</v>
+            <v>-253464040.58000001</v>
           </cell>
         </row>
         <row r="5">
@@ -918,7 +1169,15 @@
             <v>05 控股(HK)\151102020301\长期股权投资\其他股权投资\其他公司股份\Bioxis Pharmaceuticals\Bioxis Pharmaceuticals股本投资</v>
           </cell>
           <cell r="B6">
-            <v>15218225.360000001</v>
+            <v>15260600</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>05 控股(HK)\151102020401\长期股权投资\其他股权投资\其他公司股份\Ornovi,Inc.\Ornovi,Inc.股本投资</v>
+          </cell>
+          <cell r="B7">
+            <v>6348200</v>
           </cell>
         </row>
       </sheetData>
@@ -1400,13 +1659,13 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>固定资产</v>
+            <v>使用权资产累计折旧</v>
           </cell>
           <cell r="B34" t="str">
-            <v xml:space="preserve">    固定资产</v>
+            <v xml:space="preserve">    使用权资产</v>
           </cell>
           <cell r="C34" t="str">
-            <v>固定资产原价</v>
+            <v>使用权资产</v>
           </cell>
           <cell r="D34" t="str">
             <v>BS</v>
@@ -1414,13 +1673,13 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>累计折旧</v>
+            <v>固定资产</v>
           </cell>
           <cell r="B35" t="str">
             <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C35" t="str">
-            <v>减：累计折旧</v>
+            <v>固定资产原价</v>
           </cell>
           <cell r="D35" t="str">
             <v>BS</v>
@@ -1428,13 +1687,13 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>固定资产减值准备</v>
+            <v>累计折旧</v>
           </cell>
           <cell r="B36" t="str">
             <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C36" t="str">
-            <v>固定资产</v>
+            <v>减：累计折旧</v>
           </cell>
           <cell r="D36" t="str">
             <v>BS</v>
@@ -1442,13 +1701,13 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>在建工程</v>
+            <v>固定资产减值准备</v>
           </cell>
           <cell r="B37" t="str">
-            <v xml:space="preserve">    在建工程</v>
+            <v xml:space="preserve">    固定资产</v>
           </cell>
           <cell r="C37" t="str">
-            <v>在建工程</v>
+            <v>固定资产</v>
           </cell>
           <cell r="D37" t="str">
             <v>BS</v>
@@ -1456,13 +1715,13 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>工程物资</v>
+            <v>在建工程</v>
           </cell>
           <cell r="B38" t="str">
-            <v>工程物资</v>
+            <v xml:space="preserve">    在建工程</v>
           </cell>
           <cell r="C38" t="str">
-            <v>工程物资</v>
+            <v>在建工程</v>
           </cell>
           <cell r="D38" t="str">
             <v>BS</v>
@@ -1470,13 +1729,13 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>固定资产清理</v>
+            <v>工程物资</v>
           </cell>
           <cell r="B39" t="str">
-            <v>固定资产清理</v>
+            <v>工程物资</v>
           </cell>
           <cell r="C39" t="str">
-            <v>固定资产清理</v>
+            <v>工程物资</v>
           </cell>
           <cell r="D39" t="str">
             <v>BS</v>
@@ -1484,13 +1743,13 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="B40" t="str">
-            <v xml:space="preserve">    无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="C40" t="str">
-            <v>无形资产</v>
+            <v>固定资产清理</v>
           </cell>
           <cell r="D40" t="str">
             <v>BS</v>
@@ -1498,7 +1757,7 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>累计摊销</v>
+            <v>无形资产</v>
           </cell>
           <cell r="B41" t="str">
             <v xml:space="preserve">    无形资产</v>
@@ -1512,7 +1771,7 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>无形资产减值准备</v>
+            <v>累计摊销</v>
           </cell>
           <cell r="B42" t="str">
             <v xml:space="preserve">    无形资产</v>
@@ -1526,13 +1785,13 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>商誉</v>
+            <v>无形资产减值准备</v>
           </cell>
           <cell r="B43" t="str">
-            <v xml:space="preserve">    商誉</v>
+            <v xml:space="preserve">    无形资产</v>
           </cell>
           <cell r="C43" t="str">
-            <v>商誉</v>
+            <v>无形资产</v>
           </cell>
           <cell r="D43" t="str">
             <v>BS</v>
@@ -1540,13 +1799,13 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>长期待摊费用</v>
+            <v>商誉</v>
           </cell>
           <cell r="B44" t="str">
-            <v xml:space="preserve">    长期待摊费用</v>
+            <v xml:space="preserve">    商誉</v>
           </cell>
           <cell r="C44" t="str">
-            <v>长期待摊费用</v>
+            <v>商誉</v>
           </cell>
           <cell r="D44" t="str">
             <v>BS</v>
@@ -1554,13 +1813,13 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>递延所得税资产</v>
+            <v>长期待摊费用</v>
           </cell>
           <cell r="B45" t="str">
-            <v xml:space="preserve">    递延所得税资产</v>
+            <v xml:space="preserve">    长期待摊费用</v>
           </cell>
           <cell r="C45" t="str">
-            <v>递延所得税资产</v>
+            <v>长期待摊费用</v>
           </cell>
           <cell r="D45" t="str">
             <v>BS</v>
@@ -1568,13 +1827,13 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>短期借款</v>
+            <v>递延所得税资产</v>
           </cell>
           <cell r="B46" t="str">
-            <v xml:space="preserve">    短期借款</v>
+            <v xml:space="preserve">    递延所得税资产</v>
           </cell>
           <cell r="C46" t="str">
-            <v>短期借款</v>
+            <v>递延所得税资产</v>
           </cell>
           <cell r="D46" t="str">
             <v>BS</v>
@@ -1582,13 +1841,13 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>应付票据</v>
+            <v>短期借款</v>
           </cell>
           <cell r="B47" t="str">
-            <v xml:space="preserve">    应付票据</v>
+            <v xml:space="preserve">    短期借款</v>
           </cell>
           <cell r="C47" t="str">
-            <v>应付票据</v>
+            <v>短期借款</v>
           </cell>
           <cell r="D47" t="str">
             <v>BS</v>
@@ -1596,13 +1855,13 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>应付账款</v>
+            <v>应付票据</v>
           </cell>
           <cell r="B48" t="str">
-            <v xml:space="preserve">    应付账款</v>
+            <v xml:space="preserve">    应付票据</v>
           </cell>
           <cell r="C48" t="str">
-            <v>应付账款</v>
+            <v>应付票据</v>
           </cell>
           <cell r="D48" t="str">
             <v>BS</v>
@@ -1610,13 +1869,13 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>预收账款</v>
+            <v>应付账款</v>
           </cell>
           <cell r="B49" t="str">
-            <v xml:space="preserve">    预收款项</v>
+            <v xml:space="preserve">    应付账款</v>
           </cell>
           <cell r="C49" t="str">
-            <v>预收账款</v>
+            <v>应付账款</v>
           </cell>
           <cell r="D49" t="str">
             <v>BS</v>
@@ -1624,13 +1883,13 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>应付职工薪酬</v>
+            <v>预收账款</v>
           </cell>
           <cell r="B50" t="str">
-            <v xml:space="preserve">    应付职工薪酬</v>
+            <v xml:space="preserve">    预收款项</v>
           </cell>
           <cell r="C50" t="str">
-            <v>应付职工薪酬</v>
+            <v>预收账款</v>
           </cell>
           <cell r="D50" t="str">
             <v>BS</v>
@@ -1638,13 +1897,13 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>应交税费</v>
+            <v>应付职工薪酬</v>
           </cell>
           <cell r="B51" t="str">
-            <v xml:space="preserve">    应交税费</v>
+            <v xml:space="preserve">    应付职工薪酬</v>
           </cell>
           <cell r="C51" t="str">
-            <v>应交税费</v>
+            <v>应付职工薪酬</v>
           </cell>
           <cell r="D51" t="str">
             <v>BS</v>
@@ -1652,13 +1911,13 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>应付利息</v>
+            <v>应交税费</v>
           </cell>
           <cell r="B52" t="str">
-            <v xml:space="preserve">    其他应付款</v>
+            <v xml:space="preserve">    应交税费</v>
           </cell>
           <cell r="C52" t="str">
-            <v>应付利息</v>
+            <v>应交税费</v>
           </cell>
           <cell r="D52" t="str">
             <v>BS</v>
@@ -1666,13 +1925,13 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>应付股利</v>
+            <v>应付利息</v>
           </cell>
           <cell r="B53" t="str">
             <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C53" t="str">
-            <v>应付股利</v>
+            <v>应付利息</v>
           </cell>
           <cell r="D53" t="str">
             <v>BS</v>
@@ -1680,13 +1939,13 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>其他应付款</v>
+            <v>应付股利</v>
           </cell>
           <cell r="B54" t="str">
             <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C54" t="str">
-            <v>其他应付款</v>
+            <v>应付股利</v>
           </cell>
           <cell r="D54" t="str">
             <v>BS</v>
@@ -1694,10 +1953,13 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>递延收益</v>
+            <v>其他应付款</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C55" t="str">
-            <v>递延收益-非流动</v>
+            <v>其他应付款</v>
           </cell>
           <cell r="D55" t="str">
             <v>BS</v>
@@ -1705,13 +1967,13 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>租赁负债</v>
+            <v>其他应付款（工会经费）</v>
           </cell>
           <cell r="B56" t="str">
-            <v xml:space="preserve">    租赁负债</v>
+            <v xml:space="preserve">    其他应付款</v>
           </cell>
           <cell r="C56" t="str">
-            <v>租赁负债</v>
+            <v>应付职工薪酬</v>
           </cell>
           <cell r="D56" t="str">
             <v>BS</v>
@@ -1719,13 +1981,10 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>长期借款</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v xml:space="preserve">    长期借款</v>
+            <v>递延收益</v>
           </cell>
           <cell r="C57" t="str">
-            <v>长期借款</v>
+            <v>递延收益-非流动</v>
           </cell>
           <cell r="D57" t="str">
             <v>BS</v>
@@ -1733,13 +1992,13 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>长期应付款</v>
+            <v>租赁负债</v>
           </cell>
           <cell r="B58" t="str">
-            <v xml:space="preserve">    长期应付款</v>
+            <v xml:space="preserve">    租赁负债</v>
           </cell>
           <cell r="C58" t="str">
-            <v>长期应付款</v>
+            <v>租赁负债</v>
           </cell>
           <cell r="D58" t="str">
             <v>BS</v>
@@ -1747,13 +2006,13 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>预计负债</v>
+            <v>长期借款</v>
           </cell>
           <cell r="B59" t="str">
-            <v xml:space="preserve">    预计负债</v>
+            <v xml:space="preserve">    长期借款</v>
           </cell>
           <cell r="C59" t="str">
-            <v>预计负债</v>
+            <v>长期借款</v>
           </cell>
           <cell r="D59" t="str">
             <v>BS</v>
@@ -1761,13 +2020,13 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>递延所得税负债</v>
+            <v>长期应付款</v>
           </cell>
           <cell r="B60" t="str">
-            <v xml:space="preserve">    递延所得税负债</v>
+            <v xml:space="preserve">    长期应付款</v>
           </cell>
           <cell r="C60" t="str">
-            <v>递延所得税负债</v>
+            <v>长期应付款</v>
           </cell>
           <cell r="D60" t="str">
             <v>BS</v>
@@ -1775,41 +2034,41 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>实收资本</v>
+            <v>预计负债</v>
           </cell>
           <cell r="B61" t="str">
-            <v xml:space="preserve">    实收资本(或股本)</v>
+            <v xml:space="preserve">    预计负债</v>
           </cell>
           <cell r="C61" t="str">
-            <v>实收资本</v>
+            <v>预计负债</v>
           </cell>
           <cell r="D61" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>资本公积</v>
+            <v>递延所得税负债</v>
           </cell>
           <cell r="B62" t="str">
-            <v xml:space="preserve">    资本公积</v>
+            <v xml:space="preserve">    递延所得税负债</v>
           </cell>
           <cell r="C62" t="str">
-            <v>资本公积</v>
+            <v>递延所得税负债</v>
           </cell>
           <cell r="D62" t="str">
-            <v>PV</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>盈余公积</v>
+            <v>实收资本</v>
           </cell>
           <cell r="B63" t="str">
-            <v xml:space="preserve">    盈余公积</v>
+            <v xml:space="preserve">    实收资本(或股本)</v>
           </cell>
           <cell r="C63" t="str">
-            <v>盈余公积</v>
+            <v>实收资本</v>
           </cell>
           <cell r="D63" t="str">
             <v>PV</v>
@@ -1817,13 +2076,13 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>利润分配</v>
+            <v>资本公积</v>
           </cell>
           <cell r="B64" t="str">
-            <v xml:space="preserve">    未分配利润</v>
+            <v xml:space="preserve">    资本公积</v>
           </cell>
           <cell r="C64" t="str">
-            <v>未分配利润</v>
+            <v>资本公积</v>
           </cell>
           <cell r="D64" t="str">
             <v>PV</v>
@@ -1831,13 +2090,13 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>库存股</v>
+            <v>盈余公积</v>
           </cell>
           <cell r="B65" t="str">
-            <v xml:space="preserve">       减:库存股</v>
+            <v xml:space="preserve">    盈余公积</v>
           </cell>
           <cell r="C65" t="str">
-            <v>减：库存股</v>
+            <v>盈余公积</v>
           </cell>
           <cell r="D65" t="str">
             <v>PV</v>
@@ -1845,13 +2104,13 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>其他综合收益</v>
+            <v>利润分配</v>
           </cell>
           <cell r="B66" t="str">
-            <v xml:space="preserve">    其他综合收益</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C66" t="str">
-            <v>其他综合收益</v>
+            <v>未分配利润</v>
           </cell>
           <cell r="D66" t="str">
             <v>PV</v>
@@ -1859,55 +2118,55 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>生产成本</v>
+            <v>库存股</v>
           </cell>
           <cell r="B67" t="str">
-            <v xml:space="preserve">    存货</v>
+            <v xml:space="preserve">       减:库存股</v>
           </cell>
           <cell r="C67" t="str">
-            <v>存货</v>
+            <v>减：库存股</v>
           </cell>
           <cell r="D67" t="str">
-            <v>BS</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>主营业务收入</v>
+            <v>其他综合收益</v>
           </cell>
           <cell r="B68" t="str">
-            <v>一、营业收入</v>
+            <v xml:space="preserve">    其他综合收益</v>
           </cell>
           <cell r="C68" t="str">
-            <v>主营业务收入</v>
+            <v>其他综合收益</v>
           </cell>
           <cell r="D68" t="str">
-            <v>PL</v>
+            <v>PV</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>利息收入</v>
+            <v>生产成本</v>
           </cell>
           <cell r="B69" t="str">
-            <v xml:space="preserve">        财务费用</v>
+            <v xml:space="preserve">    存货</v>
           </cell>
           <cell r="C69" t="str">
-            <v>财务费用</v>
+            <v>存货</v>
           </cell>
           <cell r="D69" t="str">
-            <v>PL</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>其他业务收入</v>
+            <v>主营业务收入</v>
           </cell>
           <cell r="B70" t="str">
             <v>一、营业收入</v>
           </cell>
           <cell r="C70" t="str">
-            <v>其他业务收入</v>
+            <v>主营业务收入</v>
           </cell>
           <cell r="D70" t="str">
             <v>PL</v>
@@ -1915,7 +2174,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>汇兑损益</v>
+            <v>利息收入</v>
           </cell>
           <cell r="B71" t="str">
             <v xml:space="preserve">        财务费用</v>
@@ -1929,13 +2188,13 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>公允价值变动损益</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="B72" t="str">
-            <v xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</v>
+            <v>一、营业收入</v>
           </cell>
           <cell r="C72" t="str">
-            <v>公允价值变动收益</v>
+            <v>其他业务收入</v>
           </cell>
           <cell r="D72" t="str">
             <v>PL</v>
@@ -1943,13 +2202,13 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>投资收益</v>
+            <v>汇兑损益</v>
           </cell>
           <cell r="B73" t="str">
-            <v xml:space="preserve">         投资收益（损失以“－”号填列）</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C73" t="str">
-            <v>投资收益</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D73" t="str">
             <v>PL</v>
@@ -1957,13 +2216,13 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>营业外收入</v>
+            <v>公允价值变动损益</v>
           </cell>
           <cell r="B74" t="str">
-            <v xml:space="preserve">    加: 营业外收入</v>
+            <v xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C74" t="str">
-            <v>加：营业外收入</v>
+            <v>公允价值变动收益</v>
           </cell>
           <cell r="D74" t="str">
             <v>PL</v>
@@ -1971,13 +2230,13 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>主营业务成本</v>
+            <v>投资收益</v>
           </cell>
           <cell r="B75" t="str">
-            <v xml:space="preserve">    减：营业成本</v>
+            <v xml:space="preserve">         投资收益（损失以“－”号填列）</v>
           </cell>
           <cell r="C75" t="str">
-            <v>其中：主营业务成本</v>
+            <v>投资收益</v>
           </cell>
           <cell r="D75" t="str">
             <v>PL</v>
@@ -1985,13 +2244,13 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>其他业务成本</v>
+            <v>营业外收入</v>
           </cell>
           <cell r="B76" t="str">
-            <v xml:space="preserve">    减：营业成本</v>
+            <v xml:space="preserve">    加: 营业外收入</v>
           </cell>
           <cell r="C76" t="str">
-            <v>其他业务支出</v>
+            <v>加：营业外收入</v>
           </cell>
           <cell r="D76" t="str">
             <v>PL</v>
@@ -1999,13 +2258,13 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>营业税金及附加</v>
+            <v>主营业务成本</v>
           </cell>
           <cell r="B77" t="str">
-            <v xml:space="preserve">        税金及附加</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C77" t="str">
-            <v>营业税金及附加</v>
+            <v>其中：主营业务成本</v>
           </cell>
           <cell r="D77" t="str">
             <v>PL</v>
@@ -2013,13 +2272,13 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>利息支出</v>
+            <v>其他业务成本</v>
           </cell>
           <cell r="B78" t="str">
-            <v xml:space="preserve">        财务费用</v>
+            <v xml:space="preserve">    减：营业成本</v>
           </cell>
           <cell r="C78" t="str">
-            <v>财务费用</v>
+            <v>其他业务支出</v>
           </cell>
           <cell r="D78" t="str">
             <v>PL</v>
@@ -2027,13 +2286,13 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>销售费用</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="B79" t="str">
-            <v xml:space="preserve">        销售费用</v>
+            <v xml:space="preserve">        税金及附加</v>
           </cell>
           <cell r="C79" t="str">
-            <v>营业费用</v>
+            <v>营业税金及附加</v>
           </cell>
           <cell r="D79" t="str">
             <v>PL</v>
@@ -2041,13 +2300,13 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>管理费用</v>
+            <v>利息支出</v>
           </cell>
           <cell r="B80" t="str">
-            <v xml:space="preserve">        管理费用</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C80" t="str">
-            <v>管理费用</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D80" t="str">
             <v>PL</v>
@@ -2055,13 +2314,13 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>研发费用</v>
+            <v>销售费用</v>
           </cell>
           <cell r="B81" t="str">
-            <v xml:space="preserve">        研发费用</v>
+            <v xml:space="preserve">        销售费用</v>
           </cell>
           <cell r="C81" t="str">
-            <v>研发费用</v>
+            <v>营业费用</v>
           </cell>
           <cell r="D81" t="str">
             <v>PL</v>
@@ -2069,13 +2328,13 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>财务费用</v>
+            <v>管理费用</v>
           </cell>
           <cell r="B82" t="str">
-            <v xml:space="preserve">        财务费用</v>
+            <v xml:space="preserve">        管理费用</v>
           </cell>
           <cell r="C82" t="str">
-            <v>财务费用</v>
+            <v>管理费用</v>
           </cell>
           <cell r="D82" t="str">
             <v>PL</v>
@@ -2083,13 +2342,13 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>信用减值损失</v>
+            <v>研发费用</v>
           </cell>
           <cell r="B83" t="str">
-            <v xml:space="preserve">   信用减值损失（损失以“－”号填列）</v>
+            <v xml:space="preserve">        研发费用</v>
           </cell>
           <cell r="C83" t="str">
-            <v>信用减值损失</v>
+            <v>研发费用</v>
           </cell>
           <cell r="D83" t="str">
             <v>PL</v>
@@ -2097,13 +2356,13 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>资产减值损失</v>
+            <v>财务费用</v>
           </cell>
           <cell r="B84" t="str">
-            <v xml:space="preserve">   资产减值损失（损失以“－”号填列）</v>
+            <v xml:space="preserve">        财务费用</v>
           </cell>
           <cell r="C84" t="str">
-            <v>资产减值损失</v>
+            <v>财务费用</v>
           </cell>
           <cell r="D84" t="str">
             <v>PL</v>
@@ -2111,13 +2370,13 @@
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>营业外支出</v>
+            <v>信用减值损失</v>
           </cell>
           <cell r="B85" t="str">
-            <v xml:space="preserve">    减：营业外支出</v>
+            <v xml:space="preserve">   信用减值损失（损失以“－”号填列）</v>
           </cell>
           <cell r="C85" t="str">
-            <v>减：营业外支出</v>
+            <v>信用减值损失</v>
           </cell>
           <cell r="D85" t="str">
             <v>PL</v>
@@ -2125,77 +2384,77 @@
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>所得税费用</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="B86" t="str">
-            <v xml:space="preserve">    减：所得税费用</v>
+            <v xml:space="preserve">   资产减值损失（损失以“－”号填列）</v>
           </cell>
           <cell r="C86" t="str">
-            <v>减：所得税</v>
+            <v>资产减值损失</v>
           </cell>
           <cell r="D86" t="str">
             <v>PL</v>
           </cell>
         </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>营业外支出</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v xml:space="preserve">    减：营业外支出</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>减：营业外支出</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>重复明细</v>
+            <v>所得税费用</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v xml:space="preserve">    减：所得税费用</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>减：所得税</v>
           </cell>
           <cell r="D88" t="str">
-            <v>BS</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>本年利润</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v xml:space="preserve">    未分配利润</v>
-          </cell>
-          <cell r="C89" t="str">
-            <v>未分配利润</v>
-          </cell>
-          <cell r="D89" t="str">
             <v>PL</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-          <cell r="C90" t="str">
-            <v>本年利润抵消明细</v>
+            <v>重复明细</v>
           </cell>
           <cell r="D90" t="str">
-            <v>PL</v>
+            <v>BS</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>外币报表折算差额</v>
+            <v>本年利润</v>
           </cell>
           <cell r="B91" t="str">
-            <v>外币报表折算</v>
+            <v xml:space="preserve">    未分配利润</v>
           </cell>
           <cell r="C91" t="str">
-            <v>外币报表折算</v>
+            <v>未分配利润</v>
           </cell>
           <cell r="D91" t="str">
-            <v>CV</v>
+            <v>PL</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="B92" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="C92" t="str">
-            <v>其他收益</v>
+            <v>本年利润抵消明细</v>
           </cell>
           <cell r="D92" t="str">
             <v>PL</v>
@@ -2203,48 +2462,76 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+            <v>外币报表折算差额</v>
           </cell>
           <cell r="B93" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+            <v>外币报表折算</v>
           </cell>
           <cell r="C93" t="str">
-            <v>资产处置收益</v>
+            <v>外币报表折算</v>
           </cell>
           <cell r="D93" t="str">
-            <v>PL</v>
+            <v>CV</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>代扣代缴特殊逻辑</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
           <cell r="B94" t="str">
-            <v xml:space="preserve">    其他应收款</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
           <cell r="C94" t="str">
-            <v>其他应收款</v>
+            <v>其他收益</v>
           </cell>
           <cell r="D94" t="str">
-            <v>BS</v>
+            <v>PL</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>资产处置收益</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>PL</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>代扣代缴特殊逻辑</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v xml:space="preserve">    其他应收款</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>其他应收款</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>BS</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
             <v>制造费用</v>
           </cell>
-          <cell r="B95" t="str">
+          <cell r="B97" t="str">
             <v xml:space="preserve">    存货</v>
           </cell>
-          <cell r="C95" t="str">
+          <cell r="C97" t="str">
             <v>存货</v>
           </cell>
-          <cell r="D95" t="str">
+          <cell r="D97" t="str">
             <v>BS</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2513,172 +2800,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR100"/>
+  <dimension ref="A1:AR127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" t="s">
-        <v>48</v>
-      </c>
       <c r="AO1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>29</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B55" si="0">LEFT(A2,E2-1)&amp;F2</f>
+        <v>123101/借</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B51" si="0">LEFT(A2,E2-1)&amp;F2</f>
-        <v>123101/借</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
       </c>
       <c r="E2">
         <f>FIND("\",A2)</f>
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>123101/贷</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <f>FIND("\",A3)</f>
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>123102/借</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E50" si="1">FIND("\",A4)</f>
+        <f t="shared" ref="E4:E54" si="1">FIND("\",A4)</f>
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U4" t="e">
         <f>VLOOKUP($A4,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" ref="V4:V100" si="2">TRIM($B4)</f>
+        <f t="shared" ref="V4:V125" si="2">TRIM($B4)</f>
         <v>123102/借</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W100" si="3">_xlfn.IFNA(AE4,AH4)</f>
+        <f t="shared" ref="W4:W125" si="3">_xlfn.IFNA(AE4,AH4)</f>
         <v>其他应收款坏账准备</v>
       </c>
       <c r="X4" t="str">
@@ -2690,15 +2977,15 @@
         <v>减：其他应收款坏账准备</v>
       </c>
       <c r="Z4" t="e">
-        <f t="shared" ref="Z4:Z100" si="4">U4&amp;"\"&amp;$C4</f>
+        <f t="shared" ref="Z4:Z125" si="4">U4&amp;"\"&amp;$C4</f>
         <v>#N/A</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA100" si="5">IF($P4="借",$R4,-$R4)</f>
+        <f t="shared" ref="AA4:AA125" si="5">IF($P4="借",$R4,-$R4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB100" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
+        <f t="shared" ref="AB4:AB125" si="6">_xlfn.IFNA(IF(AE4="重复明细",0,AO4),AO4)</f>
         <v>0</v>
       </c>
       <c r="AE4" t="str">
@@ -2706,15 +2993,15 @@
         <v>其他应收款坏账准备</v>
       </c>
       <c r="AF4" t="e">
-        <f t="shared" ref="AF4:AF100" si="7">FIND("\",$C4)</f>
+        <f t="shared" ref="AF4:AF125" si="7">FIND("\",$C4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG100" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
+        <f t="shared" ref="AG4:AG125" si="8">IFERROR(FIND("\",$C4,AF4+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH4" t="e">
-        <f t="shared" ref="AH4:AH100" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
+        <f t="shared" ref="AH4:AH125" si="9">MID($C4,AF4+1,AG4-AF4-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
@@ -2726,7 +3013,7 @@
         <v>BS</v>
       </c>
       <c r="AK4" t="e">
-        <f t="shared" ref="AK4:AK100" si="10">AI4&amp;"/"&amp;AJ4</f>
+        <f t="shared" ref="AK4:AK125" si="10">AI4&amp;"/"&amp;AJ4</f>
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
@@ -2734,7 +3021,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
-        <f t="shared" ref="AM4:AM100" si="11">ROUND(AA4*AL4,2)</f>
+        <f t="shared" ref="AM4:AM125" si="11">ROUND(AA4*AL4,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
@@ -2742,414 +3029,204 @@
         <v>#N/A</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO100" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
+        <f t="shared" ref="AO4:AO125" si="12">IFERROR(_xlfn.IFNA(AM4,AN4),0)</f>
         <v>0</v>
       </c>
       <c r="AP4" t="e">
-        <f t="shared" ref="AP4:AP100" si="13">FIND("]",AO4)</f>
+        <f t="shared" ref="AP4:AP125" si="13">FIND("]",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ4" t="e">
-        <f t="shared" ref="AQ4:AQ100" si="14">FIND("#",AO4)</f>
+        <f t="shared" ref="AQ4:AQ125" si="14">FIND("#",AO4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR4" t="e">
-        <f t="shared" ref="AR4:AR100" si="15">FIND("#",AO4,AQ4+1)</f>
+        <f t="shared" ref="AR4:AR125" si="15">FIND("#",AO4,AQ4+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>123102/贷</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5" si="16">FIND("\",A5)</f>
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="str">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="3" customFormat="1"/>
+    <row r="14" spans="1:44" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ref="B14" si="17">LEFT(A14,E14-1)&amp;F14</f>
+        <v>224106/贷</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <f t="shared" ref="E14" si="18">FIND("\",A14)</f>
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ref="B15" si="19">LEFT(A15,E15-1)&amp;F15</f>
+        <v>224106/借</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <f t="shared" ref="E15" si="20">FIND("\",A15)</f>
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" s="3" customFormat="1"/>
+    <row r="17" spans="1:44">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>53010200/借</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13" si="17">FIND("\",A13)</f>
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="str">
+      <c r="E17">
+        <f t="shared" ref="E17" si="21">FIND("\",A17)</f>
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>53010200/贷</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14" si="18">FIND("\",A14)</f>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="str">
+      <c r="E18">
+        <f t="shared" ref="E18" si="22">FIND("\",A18)</f>
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>600100/借</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="U15" t="e">
-        <f>VLOOKUP($A15,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="2"/>
-        <v>600100/借</v>
-      </c>
-      <c r="W15" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X15" t="str">
-        <f>VLOOKUP(W15,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y15" t="str">
-        <f>VLOOKUP(W15,[2]科目!$A:$C,3,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Z15" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" t="str">
-        <f>VLOOKUP(V15,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI15" t="e">
-        <f>VLOOKUP(U15,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" t="str">
-        <f>VLOOKUP(W15,[2]科目!$A:$D,4,0)</f>
-        <v>PL</v>
-      </c>
-      <c r="AK15" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL15" t="e">
-        <f>VLOOKUP(AK15,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM15" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN15" t="e">
-        <f>VLOOKUP(Z15,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ15" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR15" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>600100/贷</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16" si="19">FIND("\",A16)</f>
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>605100/借</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U17" t="e">
-        <f>VLOOKUP($A17,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" si="2"/>
-        <v>605100/借</v>
-      </c>
-      <c r="W17" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X17" t="str">
-        <f>VLOOKUP(W17,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y17" t="str">
-        <f>VLOOKUP(W17,[2]科目!$A:$C,3,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Z17" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" t="str">
-        <f>VLOOKUP(V17,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF17" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI17" t="e">
-        <f>VLOOKUP(U17,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ17" t="str">
-        <f>VLOOKUP(W17,[2]科目!$A:$D,4,0)</f>
-        <v>PL</v>
-      </c>
-      <c r="AK17" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL17" t="e">
-        <f>VLOOKUP(AK17,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM17" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN17" t="e">
-        <f>VLOOKUP(Z17,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP17" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ17" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR17" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>605100/贷</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18" si="20">FIND("\",A18)</f>
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>611100/借</v>
-      </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U19" t="e">
         <f>VLOOKUP($A19,[1]Basic!$A:$B,2,0)</f>
@@ -3157,7 +3234,7 @@
       </c>
       <c r="V19" t="str">
         <f t="shared" si="2"/>
-        <v>611100/借</v>
+        <v>600100/借</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="3"/>
@@ -3242,78 +3319,166 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>611100/贷</v>
+        <v>600100/贷</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="21">FIND("\",A20)</f>
+        <f t="shared" ref="E20" si="23">FIND("\",A20)</f>
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>605100/借</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="22">FIND("\",A21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="U21" t="e">
+        <f>VLOOKUP($A21,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="2"/>
+        <v>605100/借</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X21" t="str">
+        <f>VLOOKUP(W21,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y21" t="str">
+        <f>VLOOKUP(W21,[2]科目!$A:$C,3,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Z21" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" t="str">
+        <f>VLOOKUP(V21,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF21" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI21" t="e">
+        <f>VLOOKUP(U21,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f>VLOOKUP(W21,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK21" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" t="e">
+        <f>VLOOKUP(AK21,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM21" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN21" t="e">
+        <f>VLOOKUP(Z21,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP21" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ21" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR21" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>605100/贷</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="23">FIND("\",A22)</f>
+        <f t="shared" ref="E22" si="24">FIND("\",A22)</f>
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>630100/借</v>
+        <v>611100/借</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U23" t="e">
         <f>VLOOKUP($A23,[1]Basic!$A:$B,2,0)</f>
@@ -3321,7 +3486,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="2"/>
-        <v>630100/借</v>
+        <v>611100/借</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="3"/>
@@ -3406,280 +3571,280 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>630100/贷</v>
+        <v>611100/贷</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24" si="24">FIND("\",A24)</f>
+        <f t="shared" ref="E24" si="25">FIND("\",A24)</f>
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>630102/借</v>
+        <v>605100/借</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E25">
+        <f t="shared" ref="E25" si="26">FIND("\",A25)</f>
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>605100/贷</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="27">FIND("\",A26)</f>
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>630100/借</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>630102/贷</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26" si="25">FIND("\",A26)</f>
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:44">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>63019801/借</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ref="E27" si="26">FIND("\",A27)</f>
-        <v>9</v>
-      </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="U27" t="e">
+        <f>VLOOKUP($A27,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="2"/>
+        <v>630100/借</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X27" t="str">
+        <f>VLOOKUP(W27,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y27" t="str">
+        <f>VLOOKUP(W27,[2]科目!$A:$C,3,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" t="str">
+        <f>VLOOKUP(V27,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI27" t="e">
+        <f>VLOOKUP(U27,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" t="str">
+        <f>VLOOKUP(W27,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK27" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" t="e">
+        <f>VLOOKUP(AK27,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM27" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN27" t="e">
+        <f>VLOOKUP(Z27,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ27" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR27" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>63019801/贷</v>
+        <v>630100/贷</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28" si="27">FIND("\",A28)</f>
-        <v>9</v>
+        <f t="shared" ref="E28" si="28">FIND("\",A28)</f>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>640100/借</v>
+        <v>630102/借</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
-      </c>
-      <c r="U29" t="e">
-        <f>VLOOKUP($A29,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V29" t="str">
-        <f t="shared" si="2"/>
-        <v>640100/借</v>
-      </c>
-      <c r="W29" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X29" t="str">
-        <f>VLOOKUP(W29,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y29" t="str">
-        <f>VLOOKUP(W29,[2]科目!$A:$C,3,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Z29" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" t="str">
-        <f>VLOOKUP(V29,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF29" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH29" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI29" t="e">
-        <f>VLOOKUP(U29,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ29" t="str">
-        <f>VLOOKUP(W29,[2]科目!$A:$D,4,0)</f>
-        <v>PL</v>
-      </c>
-      <c r="AK29" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL29" t="e">
-        <f>VLOOKUP(AK29,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM29" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN29" t="e">
-        <f>VLOOKUP(Z29,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP29" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ29" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR29" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>640100/贷</v>
+        <v>630102/贷</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" si="28">FIND("\",A30)</f>
+        <f t="shared" ref="E30" si="29">FIND("\",A30)</f>
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>640200/借</v>
+        <v>63019801/借</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31" si="29">FIND("\",A31)</f>
-        <v>7</v>
+        <f t="shared" ref="E31" si="30">FIND("\",A31)</f>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>640200/贷</v>
+        <v>63019801/贷</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32" si="30">FIND("\",A32)</f>
-        <v>7</v>
+        <f t="shared" ref="E32" si="31">FIND("\",A32)</f>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>640300/借</v>
+        <v>640100/借</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U33" t="e">
         <f>VLOOKUP($A33,[1]Basic!$A:$B,2,0)</f>
@@ -3687,7 +3852,7 @@
       </c>
       <c r="V33" t="str">
         <f t="shared" si="2"/>
-        <v>640300/借</v>
+        <v>640100/借</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="3"/>
@@ -3772,338 +3937,424 @@
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>640300/贷</v>
+        <v>640100/贷</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="31">FIND("\",A34)</f>
+        <f t="shared" ref="E34" si="32">FIND("\",A34)</f>
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>660100/借</v>
+        <v>640200/借</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E35" si="33">FIND("\",A35)</f>
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
-      </c>
-      <c r="U35" t="e">
-        <f>VLOOKUP($A35,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V35" t="str">
-        <f t="shared" si="2"/>
-        <v>660100/借</v>
-      </c>
-      <c r="W35" t="str">
-        <f t="shared" si="3"/>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="X35" t="str">
-        <f>VLOOKUP(W35,[2]科目!$A:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Y35" t="str">
-        <f>VLOOKUP(W35,[2]科目!$A:$C,3,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="Z35" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" t="str">
-        <f>VLOOKUP(V35,科目!$B:$C,2,0)</f>
-        <v>本年利润抵消明细</v>
-      </c>
-      <c r="AF35" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH35" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI35" t="e">
-        <f>VLOOKUP(U35,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ35" t="str">
-        <f>VLOOKUP(W35,[2]科目!$A:$D,4,0)</f>
-        <v>PL</v>
-      </c>
-      <c r="AK35" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL35" t="e">
-        <f>VLOOKUP(AK35,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM35" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN35" t="e">
-        <f>VLOOKUP(Z35,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP35" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ35" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR35" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>660100/贷</v>
+        <v>640200/贷</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36" si="32">FIND("\",A36)</f>
+        <f t="shared" ref="E36" si="34">FIND("\",A36)</f>
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>660200/借</v>
+        <v>640300/借</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="U37" t="e">
+        <f>VLOOKUP($A37,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="2"/>
+        <v>640300/借</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X37" t="str">
+        <f>VLOOKUP(W37,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y37" t="str">
+        <f>VLOOKUP(W37,[2]科目!$A:$C,3,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Z37" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" t="str">
+        <f>VLOOKUP(V37,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF37" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI37" t="e">
+        <f>VLOOKUP(U37,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ37" t="str">
+        <f>VLOOKUP(W37,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK37" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL37" t="e">
+        <f>VLOOKUP(AK37,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM37" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN37" t="e">
+        <f>VLOOKUP(Z37,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ37" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR37" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>660200/贷</v>
+        <v>640300/贷</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="33">FIND("\",A38)</f>
+        <f t="shared" ref="E38" si="35">FIND("\",A38)</f>
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>660216/借</v>
+        <v>660100/借</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="34">FIND("\",A39)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="U39" t="e">
+        <f>VLOOKUP($A39,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="2"/>
+        <v>660100/借</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="3"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="X39" t="str">
+        <f>VLOOKUP(W39,[2]科目!$A:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Y39" t="str">
+        <f>VLOOKUP(W39,[2]科目!$A:$C,3,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="Z39" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" t="str">
+        <f>VLOOKUP(V39,科目!$B:$C,2,0)</f>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="AF39" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI39" t="e">
+        <f>VLOOKUP(U39,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ39" t="str">
+        <f>VLOOKUP(W39,[2]科目!$A:$D,4,0)</f>
+        <v>PL</v>
+      </c>
+      <c r="AK39" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL39" t="e">
+        <f>VLOOKUP(AK39,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM39" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN39" t="e">
+        <f>VLOOKUP(Z39,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ39" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR39" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>660216/贷</v>
+        <v>660100/贷</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40" si="35">FIND("\",A40)</f>
+        <f t="shared" ref="E40" si="36">FIND("\",A40)</f>
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>660300/借</v>
+        <v>660200/借</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>660300/贷</v>
+        <v>660200/贷</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E44" si="36">FIND("\",A42)</f>
+        <f t="shared" ref="E42" si="37">FIND("\",A42)</f>
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" ref="B43:B44" si="37">LEFT(A43,E43-1)&amp;F43</f>
-        <v>670100/借</v>
+        <f t="shared" si="0"/>
+        <v>660216/借</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="E43" si="38">FIND("\",A43)</f>
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="37"/>
-        <v>670100/贷</v>
+        <f t="shared" si="0"/>
+        <v>660216/贷</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="E44" si="39">FIND("\",A44)</f>
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>660300/借</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" si="38">FIND("\",A45)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:44">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>671100/借</v>
+        <v>660300/贷</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E46:E48" si="40">FIND("\",A46)</f>
         <v>7</v>
       </c>
       <c r="F46" t="s">
@@ -4112,36 +4363,36 @@
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>671100/贷</v>
+        <f t="shared" ref="B47:B48" si="41">LEFT(A47,E47-1)&amp;F47</f>
+        <v>670100/借</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47" si="39">FIND("\",A47)</f>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>671102/借</v>
+        <f t="shared" si="41"/>
+        <v>670100/贷</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48" si="40">FIND("\",A48)</f>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="F48" t="s">
@@ -4150,821 +4401,491 @@
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>671102/贷</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49" si="41">FIND("\",A49)</f>
-        <v>7</v>
+        <f t="shared" ref="E49" si="42">FIND("\",A49)</f>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>680100/借</v>
+        <v>671100/借</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
+        <v>671100/贷</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="43">FIND("\",A51)</f>
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>671102/借</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52" si="44">FIND("\",A52)</f>
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>671102/贷</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="45">FIND("\",A53)</f>
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>680100/借</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
         <v>680100/贷</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ref="E51" si="42">FIND("\",A51)</f>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="46">FIND("\",A55)</f>
         <v>7</v>
       </c>
-      <c r="F51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44">
-      <c r="U52" t="e">
-        <f>VLOOKUP($A52,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V52" t="str">
+      <c r="F55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44">
+      <c r="U56" t="e">
+        <f>VLOOKUP($A56,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V56" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W52" t="e">
+      <c r="W56" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X52" t="e">
-        <f>VLOOKUP(W52,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y52" t="e">
-        <f>VLOOKUP(W52,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z52" t="e">
+      <c r="X56" t="e">
+        <f>VLOOKUP(W56,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y56" t="e">
+        <f>VLOOKUP(W56,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z56" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA52">
+      <c r="AA56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB52">
+      <c r="AB56">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE52" t="e">
-        <f>VLOOKUP(V52,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF52" t="e">
+      <c r="AE56" t="e">
+        <f>VLOOKUP(V56,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF56" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG52">
+      <c r="AG56">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH52" t="e">
+      <c r="AH56" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI52" t="e">
-        <f>VLOOKUP(U52,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ52" t="e">
-        <f>VLOOKUP(W52,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK52" t="e">
+      <c r="AI56" t="e">
+        <f>VLOOKUP(U56,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ56" t="e">
+        <f>VLOOKUP(W56,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK56" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL52" t="e">
-        <f>VLOOKUP(AK52,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM52" t="e">
+      <c r="AL56" t="e">
+        <f>VLOOKUP(AK56,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM56" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN52" t="e">
-        <f>VLOOKUP(Z52,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO52">
+      <c r="AN56" t="e">
+        <f>VLOOKUP(Z56,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP52" t="e">
+      <c r="AP56" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ52" t="e">
+      <c r="AQ56" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR52" t="e">
+      <c r="AR56" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
-      <c r="B53" s="1" t="s">
+    <row r="57" spans="1:44">
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
         <v>20</v>
       </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="U53" t="e">
-        <f>VLOOKUP($A53,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V53" t="str">
+      <c r="U57" t="e">
+        <f>VLOOKUP($A57,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V57" t="str">
         <f t="shared" si="2"/>
         <v>9999</v>
       </c>
-      <c r="W53" t="str">
+      <c r="W57" t="str">
         <f t="shared" si="3"/>
         <v>外币报表折算差额</v>
       </c>
-      <c r="X53" t="str">
-        <f>VLOOKUP(W53,[2]科目!$A:$C,2,0)</f>
+      <c r="X57" t="str">
+        <f>VLOOKUP(W57,[2]科目!$A:$C,2,0)</f>
         <v>外币报表折算</v>
       </c>
-      <c r="Y53" t="str">
-        <f>VLOOKUP(W53,[2]科目!$A:$C,3,0)</f>
+      <c r="Y57" t="str">
+        <f>VLOOKUP(W57,[2]科目!$A:$C,3,0)</f>
         <v>外币报表折算</v>
       </c>
-      <c r="Z53" t="e">
+      <c r="Z57" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA53">
+      <c r="AA57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB53">
+      <c r="AB57">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE53" t="str">
-        <f>VLOOKUP(V53,科目!$B:$C,2,0)</f>
+      <c r="AE57" t="str">
+        <f>VLOOKUP(V57,科目!$B:$C,2,0)</f>
         <v>外币报表折算差额</v>
       </c>
-      <c r="AF53" t="e">
+      <c r="AF57" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG53">
+      <c r="AG57">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH53" t="e">
+      <c r="AH57" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI53" t="e">
-        <f>VLOOKUP(U53,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ53" t="str">
-        <f>VLOOKUP(W53,[2]科目!$A:$D,4,0)</f>
+      <c r="AI57" t="e">
+        <f>VLOOKUP(U57,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ57" t="str">
+        <f>VLOOKUP(W57,[2]科目!$A:$D,4,0)</f>
         <v>CV</v>
       </c>
-      <c r="AK53" t="e">
+      <c r="AK57" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL53" t="e">
-        <f>VLOOKUP(AK53,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM53" t="e">
+      <c r="AL57" t="e">
+        <f>VLOOKUP(AK57,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM57" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN53" t="e">
-        <f>VLOOKUP(Z53,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO53">
+      <c r="AN57" t="e">
+        <f>VLOOKUP(Z57,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP53" t="e">
+      <c r="AP57" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ53" t="e">
+      <c r="AQ57" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR53" t="e">
+      <c r="AR57" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:44">
-      <c r="U54" t="e">
-        <f>VLOOKUP($A54,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V54" t="str">
+    <row r="58" spans="1:44">
+      <c r="U58" t="e">
+        <f>VLOOKUP($A58,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W54" t="e">
+      <c r="W58" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X54" t="e">
-        <f>VLOOKUP(W54,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y54" t="e">
-        <f>VLOOKUP(W54,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z54" t="e">
+      <c r="X58" t="e">
+        <f>VLOOKUP(W58,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y58" t="e">
+        <f>VLOOKUP(W58,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z58" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA54">
+      <c r="AA58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB54">
+      <c r="AB58">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE54" t="e">
-        <f>VLOOKUP(V54,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF54" t="e">
+      <c r="AE58" t="e">
+        <f>VLOOKUP(V58,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF58" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG54">
+      <c r="AG58">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH54" t="e">
+      <c r="AH58" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI54" t="e">
-        <f>VLOOKUP(U54,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ54" t="e">
-        <f>VLOOKUP(W54,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK54" t="e">
+      <c r="AI58" t="e">
+        <f>VLOOKUP(U58,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ58" t="e">
+        <f>VLOOKUP(W58,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK58" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL54" t="e">
-        <f>VLOOKUP(AK54,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM54" t="e">
+      <c r="AL58" t="e">
+        <f>VLOOKUP(AK58,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM58" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN54" t="e">
-        <f>VLOOKUP(Z54,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO54">
+      <c r="AN58" t="e">
+        <f>VLOOKUP(Z58,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO58">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP54" t="e">
+      <c r="AP58" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ54" t="e">
+      <c r="AQ58" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR54" t="e">
+      <c r="AR58" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:44">
-      <c r="B55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44">
-      <c r="B56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:44">
-      <c r="B58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:44">
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44">
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44">
+      <c r="B62" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:44">
-      <c r="B61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
         <v>15</v>
       </c>
-      <c r="E61" t="s">
-        <v>63</v>
-      </c>
-      <c r="U61" t="e">
-        <f>VLOOKUP($A61,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V61" t="str">
+      <c r="E62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44">
+      <c r="B63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:44">
+      <c r="B65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="U65" t="e">
+        <f>VLOOKUP($A65,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V65" t="str">
         <f t="shared" si="2"/>
         <v>122101/贷</v>
-      </c>
-      <c r="W61" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X61">
-        <f>VLOOKUP(W61,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <f>VLOOKUP(W61,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE61" t="str">
-        <f>VLOOKUP(V61,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF61" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG61">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH61" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI61" t="e">
-        <f>VLOOKUP(U61,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ61" t="str">
-        <f>VLOOKUP(W61,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK61" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL61" t="e">
-        <f>VLOOKUP(AK61,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM61" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN61" t="e">
-        <f>VLOOKUP(Z61,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO61">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP61" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ61" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR61" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:44">
-      <c r="B62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" t="s">
-        <v>63</v>
-      </c>
-      <c r="U62" t="e">
-        <f>VLOOKUP($A62,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V62" t="str">
-        <f t="shared" si="2"/>
-        <v>122101/借</v>
-      </c>
-      <c r="W62" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X62">
-        <f>VLOOKUP(W62,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <f>VLOOKUP(W62,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z62" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE62" t="str">
-        <f>VLOOKUP(V62,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF62" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG62">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH62" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI62" t="e">
-        <f>VLOOKUP(U62,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ62" t="str">
-        <f>VLOOKUP(W62,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK62" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL62" t="e">
-        <f>VLOOKUP(AK62,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM62" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN62" t="e">
-        <f>VLOOKUP(Z62,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO62">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP62" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ62" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR62" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:44">
-      <c r="B63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>63</v>
-      </c>
-      <c r="U63" t="e">
-        <f>VLOOKUP($A63,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V63" t="str">
-        <f t="shared" si="2"/>
-        <v>122102/贷</v>
-      </c>
-      <c r="W63" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X63">
-        <f>VLOOKUP(W63,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <f>VLOOKUP(W63,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z63" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE63" t="str">
-        <f>VLOOKUP(V63,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF63" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG63">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH63" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI63" t="e">
-        <f>VLOOKUP(U63,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ63" t="str">
-        <f>VLOOKUP(W63,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK63" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL63" t="e">
-        <f>VLOOKUP(AK63,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM63" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN63" t="e">
-        <f>VLOOKUP(Z63,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO63">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP63" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ63" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR63" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:44">
-      <c r="B64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" t="s">
-        <v>63</v>
-      </c>
-      <c r="U64" t="e">
-        <f>VLOOKUP($A64,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V64" t="str">
-        <f t="shared" si="2"/>
-        <v>122102/借</v>
-      </c>
-      <c r="W64" t="str">
-        <f t="shared" si="3"/>
-        <v>重复明细</v>
-      </c>
-      <c r="X64">
-        <f>VLOOKUP(W64,[2]科目!$A:$C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <f>VLOOKUP(W64,[2]科目!$A:$C,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z64" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE64" t="str">
-        <f>VLOOKUP(V64,科目!$B:$C,2,0)</f>
-        <v>重复明细</v>
-      </c>
-      <c r="AF64" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG64">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="AH64" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI64" t="e">
-        <f>VLOOKUP(U64,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ64" t="str">
-        <f>VLOOKUP(W64,[2]科目!$A:$D,4,0)</f>
-        <v>BS</v>
-      </c>
-      <c r="AK64" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL64" t="e">
-        <f>VLOOKUP(AK64,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM64" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN64" t="e">
-        <f>VLOOKUP(Z64,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO64">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP64" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ64" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR64" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:44">
-      <c r="B65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
-        <v>63</v>
-      </c>
-      <c r="U65" t="e">
-        <f>VLOOKUP($A65,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V65" t="str">
-        <f t="shared" si="2"/>
-        <v>12210301/贷</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="3"/>
@@ -5049,16 +4970,16 @@
     </row>
     <row r="66" spans="2:44">
       <c r="B66" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U66" t="e">
         <f>VLOOKUP($A66,[1]Basic!$A:$B,2,0)</f>
@@ -5066,7 +4987,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" si="2"/>
-        <v>12210301/借</v>
+        <v>122101/借</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="3"/>
@@ -5151,16 +5072,16 @@
     </row>
     <row r="67" spans="2:44">
       <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U67" t="e">
         <f>VLOOKUP($A67,[1]Basic!$A:$B,2,0)</f>
@@ -5168,7 +5089,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/贷</v>
+        <v>122102/贷</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" si="3"/>
@@ -5253,16 +5174,16 @@
     </row>
     <row r="68" spans="2:44">
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U68" t="e">
         <f>VLOOKUP($A68,[1]Basic!$A:$B,2,0)</f>
@@ -5270,7 +5191,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="2"/>
-        <v>12210302/借</v>
+        <v>122102/借</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="3"/>
@@ -5355,16 +5276,16 @@
     </row>
     <row r="69" spans="2:44">
       <c r="B69" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U69" t="e">
         <f>VLOOKUP($A69,[1]Basic!$A:$B,2,0)</f>
@@ -5372,7 +5293,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/贷</v>
+        <v>12210301/贷</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="3"/>
@@ -5457,16 +5378,16 @@
     </row>
     <row r="70" spans="2:44">
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U70" t="e">
         <f>VLOOKUP($A70,[1]Basic!$A:$B,2,0)</f>
@@ -5474,7 +5395,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="2"/>
-        <v>12210401/借</v>
+        <v>12210301/借</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="3"/>
@@ -5559,16 +5480,16 @@
     </row>
     <row r="71" spans="2:44">
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U71" t="e">
         <f>VLOOKUP($A71,[1]Basic!$A:$B,2,0)</f>
@@ -5576,7 +5497,7 @@
       </c>
       <c r="V71" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/贷</v>
+        <v>12210302/贷</v>
       </c>
       <c r="W71" t="str">
         <f t="shared" si="3"/>
@@ -5661,16 +5582,16 @@
     </row>
     <row r="72" spans="2:44">
       <c r="B72" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U72" t="e">
         <f>VLOOKUP($A72,[1]Basic!$A:$B,2,0)</f>
@@ -5678,7 +5599,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="2"/>
-        <v>12210402/借</v>
+        <v>12210302/借</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="3"/>
@@ -5763,16 +5684,16 @@
     </row>
     <row r="73" spans="2:44">
       <c r="B73" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U73" t="e">
         <f>VLOOKUP($A73,[1]Basic!$A:$B,2,0)</f>
@@ -5780,7 +5701,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="2"/>
-        <v>122105/贷</v>
+        <v>12210401/贷</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="3"/>
@@ -5865,755 +5786,1462 @@
     </row>
     <row r="74" spans="2:44">
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="U74" t="e">
+        <f>VLOOKUP($A74,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="2"/>
+        <v>12210401/借</v>
+      </c>
+      <c r="W74" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X74">
+        <f>VLOOKUP(W74,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <f>VLOOKUP(W74,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z74" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" t="str">
+        <f>VLOOKUP(V74,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF74" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG74">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH74" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI74" t="e">
+        <f>VLOOKUP(U74,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ74" t="str">
+        <f>VLOOKUP(W74,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK74" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL74" t="e">
+        <f>VLOOKUP(AK74,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM74" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN74" t="e">
+        <f>VLOOKUP(Z74,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP74" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ74" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR74" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="2:44">
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="U75" t="e">
+        <f>VLOOKUP($A75,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="2"/>
+        <v>12210402/贷</v>
+      </c>
+      <c r="W75" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X75">
+        <f>VLOOKUP(W75,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <f>VLOOKUP(W75,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z75" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" t="str">
+        <f>VLOOKUP(V75,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF75" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG75">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH75" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI75" t="e">
+        <f>VLOOKUP(U75,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ75" t="str">
+        <f>VLOOKUP(W75,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK75" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL75" t="e">
+        <f>VLOOKUP(AK75,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM75" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN75" t="e">
+        <f>VLOOKUP(Z75,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP75" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ75" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR75" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="2:44">
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="U76" t="e">
+        <f>VLOOKUP($A76,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="2"/>
+        <v>12210402/借</v>
+      </c>
+      <c r="W76" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X76">
+        <f>VLOOKUP(W76,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <f>VLOOKUP(W76,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z76" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" t="str">
+        <f>VLOOKUP(V76,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF76" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG76">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH76" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI76" t="e">
+        <f>VLOOKUP(U76,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ76" t="str">
+        <f>VLOOKUP(W76,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK76" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL76" t="e">
+        <f>VLOOKUP(AK76,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM76" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN76" t="e">
+        <f>VLOOKUP(Z76,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP76" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ76" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR76" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="2:44">
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="U77" t="e">
+        <f>VLOOKUP($A77,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="2"/>
+        <v>122105/贷</v>
+      </c>
+      <c r="W77" t="str">
+        <f t="shared" si="3"/>
+        <v>重复明细</v>
+      </c>
+      <c r="X77">
+        <f>VLOOKUP(W77,[2]科目!$A:$C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <f>VLOOKUP(W77,[2]科目!$A:$C,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z77" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" t="str">
+        <f>VLOOKUP(V77,科目!$B:$C,2,0)</f>
+        <v>重复明细</v>
+      </c>
+      <c r="AF77" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG77">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AH77" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI77" t="e">
+        <f>VLOOKUP(U77,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ77" t="str">
+        <f>VLOOKUP(W77,[2]科目!$A:$D,4,0)</f>
+        <v>BS</v>
+      </c>
+      <c r="AK77" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL77" t="e">
+        <f>VLOOKUP(AK77,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM77" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN77" t="e">
+        <f>VLOOKUP(Z77,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP77" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ77" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR77" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="2:44">
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="2:44">
       <c r="B79" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="2:44">
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:44">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:44">
-      <c r="B82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:44">
-      <c r="B83" s="1" t="s">
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:44">
-      <c r="B84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:44">
-      <c r="B85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:44">
-      <c r="B86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:44">
-      <c r="B87" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:44">
-      <c r="B88" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:44">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:44">
-      <c r="B90" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:44">
-      <c r="B91" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:44">
-      <c r="U92" t="e">
-        <f>VLOOKUP($A98,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V92" t="str">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>170</v>
+      </c>
+      <c r="E94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>170</v>
+      </c>
+      <c r="E95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>170</v>
+      </c>
+      <c r="E96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>170</v>
+      </c>
+      <c r="E97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>170</v>
+      </c>
+      <c r="E99" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>170</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>170</v>
+      </c>
+      <c r="E104" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:44">
+      <c r="B113" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:44">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:44">
+      <c r="B115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44">
+      <c r="B116" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" t="s">
+        <v>103</v>
+      </c>
+      <c r="G116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44">
+      <c r="U117" t="e">
+        <f>VLOOKUP($A123,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V117" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W92" t="e">
+      <c r="W117" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X92" t="e">
-        <f>VLOOKUP(W92,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y92" t="e">
-        <f>VLOOKUP(W92,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z92" t="e">
+      <c r="X117" t="e">
+        <f>VLOOKUP(W117,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y117" t="e">
+        <f>VLOOKUP(W117,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z117" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA92">
+      <c r="AA117">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB92">
+      <c r="AB117">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE92" t="e">
-        <f>VLOOKUP(V92,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF92" t="e">
+      <c r="AE117" t="e">
+        <f>VLOOKUP(V117,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF117" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG92">
+      <c r="AG117">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH92" t="e">
+      <c r="AH117" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI92" t="e">
-        <f>VLOOKUP(U92,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ92" t="e">
-        <f>VLOOKUP(W92,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK92" t="e">
+      <c r="AI117" t="e">
+        <f>VLOOKUP(U117,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ117" t="e">
+        <f>VLOOKUP(W117,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK117" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL92" t="e">
-        <f>VLOOKUP(AK92,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM92" t="e">
+      <c r="AL117" t="e">
+        <f>VLOOKUP(AK117,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM117" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN92" t="e">
-        <f>VLOOKUP(Z92,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO92">
+      <c r="AN117" t="e">
+        <f>VLOOKUP(Z117,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO117">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP92" t="e">
+      <c r="AP117" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ92" t="e">
+      <c r="AQ117" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR92" t="e">
+      <c r="AR117" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:44">
-      <c r="A93" t="s">
+    <row r="118" spans="1:44">
+      <c r="A118" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" t="s">
         <v>65</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="119" spans="1:44">
+      <c r="A119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:44">
-      <c r="A94" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:44">
-      <c r="A95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" t="s">
-        <v>26</v>
-      </c>
-      <c r="U95" t="e">
-        <f>VLOOKUP($A95,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V95" t="str">
+    <row r="120" spans="1:44">
+      <c r="A120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="U120" t="e">
+        <f>VLOOKUP($A120,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V120" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W95" t="e">
+      <c r="W120" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X95" t="e">
-        <f>VLOOKUP(W95,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y95" t="e">
-        <f>VLOOKUP(W95,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z95" t="e">
+      <c r="X120" t="e">
+        <f>VLOOKUP(W120,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y120" t="e">
+        <f>VLOOKUP(W120,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z120" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA95">
+      <c r="AA120">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB95">
+      <c r="AB120">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE95" t="e">
-        <f>VLOOKUP(V95,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF95" t="e">
+      <c r="AE120" t="e">
+        <f>VLOOKUP(V120,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF120" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG95">
+      <c r="AG120">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH95" t="e">
+      <c r="AH120" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI95" t="e">
-        <f>VLOOKUP(U95,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ95" t="e">
-        <f>VLOOKUP(W95,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK95" t="e">
+      <c r="AI120" t="e">
+        <f>VLOOKUP(U120,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ120" t="e">
+        <f>VLOOKUP(W120,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK120" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL95" t="e">
-        <f>VLOOKUP(AK95,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM95" t="e">
+      <c r="AL120" t="e">
+        <f>VLOOKUP(AK120,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM120" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN95" t="e">
-        <f>VLOOKUP(Z95,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO95">
+      <c r="AN120" t="e">
+        <f>VLOOKUP(Z120,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO120">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP95" t="e">
+      <c r="AP120" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ95" t="e">
+      <c r="AQ120" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR95" t="e">
+      <c r="AR120" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:44">
-      <c r="A96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" t="s">
-        <v>27</v>
-      </c>
-      <c r="U96" t="e">
-        <f>VLOOKUP($A96,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V96" t="str">
+    <row r="121" spans="1:44">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+      <c r="U121" t="e">
+        <f>VLOOKUP($A121,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V121" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W96" t="e">
+      <c r="W121" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X96" t="e">
-        <f>VLOOKUP(W96,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y96" t="e">
-        <f>VLOOKUP(W96,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z96" t="e">
+      <c r="X121" t="e">
+        <f>VLOOKUP(W121,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y121" t="e">
+        <f>VLOOKUP(W121,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z121" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA96">
+      <c r="AA121">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB96">
+      <c r="AB121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE96" t="e">
-        <f>VLOOKUP(V96,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF96" t="e">
+      <c r="AE121" t="e">
+        <f>VLOOKUP(V121,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF121" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG96">
+      <c r="AG121">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH96" t="e">
+      <c r="AH121" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI96" t="e">
-        <f>VLOOKUP(U96,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ96" t="e">
-        <f>VLOOKUP(W96,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK96" t="e">
+      <c r="AI121" t="e">
+        <f>VLOOKUP(U121,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ121" t="e">
+        <f>VLOOKUP(W121,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK121" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL96" t="e">
-        <f>VLOOKUP(AK96,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM96" t="e">
+      <c r="AL121" t="e">
+        <f>VLOOKUP(AK121,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM121" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN96" t="e">
-        <f>VLOOKUP(Z96,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO96">
+      <c r="AN121" t="e">
+        <f>VLOOKUP(Z121,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO121">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP96" t="e">
+      <c r="AP121" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ96" t="e">
+      <c r="AQ121" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR96" t="e">
+      <c r="AR121" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:44">
-      <c r="A97" t="s">
+    <row r="122" spans="1:44">
+      <c r="A122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44">
+      <c r="A123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" t="s">
         <v>111</v>
       </c>
-      <c r="C97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:44">
-      <c r="A98" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:44">
-      <c r="A99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-      <c r="U99" t="e">
-        <f>VLOOKUP($A99,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V99" t="str">
+    </row>
+    <row r="124" spans="1:44">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="U124" t="e">
+        <f>VLOOKUP($A124,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V124" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W99" t="e">
+      <c r="W124" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X99" t="e">
-        <f>VLOOKUP(W99,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y99" t="e">
-        <f>VLOOKUP(W99,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z99" t="e">
+      <c r="X124" t="e">
+        <f>VLOOKUP(W124,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y124" t="e">
+        <f>VLOOKUP(W124,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z124" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA99">
+      <c r="AA124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB99">
+      <c r="AB124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE99" t="e">
-        <f>VLOOKUP(V99,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF99" t="e">
+      <c r="AE124" t="e">
+        <f>VLOOKUP(V124,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF124" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG99">
+      <c r="AG124">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH99" t="e">
+      <c r="AH124" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI99" t="e">
-        <f>VLOOKUP(U99,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ99" t="e">
-        <f>VLOOKUP(W99,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK99" t="e">
+      <c r="AI124" t="e">
+        <f>VLOOKUP(U124,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ124" t="e">
+        <f>VLOOKUP(W124,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK124" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL99" t="e">
-        <f>VLOOKUP(AK99,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM99" t="e">
+      <c r="AL124" t="e">
+        <f>VLOOKUP(AK124,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM124" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN99" t="e">
-        <f>VLOOKUP(Z99,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO99">
+      <c r="AN124" t="e">
+        <f>VLOOKUP(Z124,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO124">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP99" t="e">
+      <c r="AP124" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ99" t="e">
+      <c r="AQ124" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR99" t="e">
+      <c r="AR124" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:44">
-      <c r="A100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" t="s">
-        <v>27</v>
-      </c>
-      <c r="U100" t="e">
-        <f>VLOOKUP($A100,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V100" t="str">
+    <row r="125" spans="1:44">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="U125" t="e">
+        <f>VLOOKUP($A125,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W100" t="e">
+      <c r="W125" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X100" t="e">
-        <f>VLOOKUP(W100,[2]科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y100" t="e">
-        <f>VLOOKUP(W100,[2]科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z100" t="e">
+      <c r="X125" t="e">
+        <f>VLOOKUP(W125,[2]科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y125" t="e">
+        <f>VLOOKUP(W125,[2]科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z125" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="AA100">
+      <c r="AA125">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB100">
+      <c r="AB125">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE100" t="e">
-        <f>VLOOKUP(V100,科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF100" t="e">
+      <c r="AE125" t="e">
+        <f>VLOOKUP(V125,科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF125" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG100">
+      <c r="AG125">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AH100" t="e">
+      <c r="AH125" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI100" t="e">
-        <f>VLOOKUP(U100,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ100" t="e">
-        <f>VLOOKUP(W100,[2]科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK100" t="e">
+      <c r="AI125" t="e">
+        <f>VLOOKUP(U125,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ125" t="e">
+        <f>VLOOKUP(W125,[2]科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK125" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="AL100" t="e">
-        <f>VLOOKUP(AK100,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM100" t="e">
+      <c r="AL125" t="e">
+        <f>VLOOKUP(AK125,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM125" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="AN100" t="e">
-        <f>VLOOKUP(Z100,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO100">
+      <c r="AN125" t="e">
+        <f>VLOOKUP(Z125,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP100" t="e">
+      <c r="AP125" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ100" t="e">
+      <c r="AQ125" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR100" t="e">
+      <c r="AR125" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44">
+      <c r="A126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44">
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6621,4 +7249,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F5FA60-1A47-4BBD-8769-1D5AB5217E74}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853C52B1-A49C-4C28-B43F-72DF79E9837A}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="98.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/00框架文件/02SR.xlsx
+++ b/00框架文件/02SR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23254B6B-6C85-4CEA-A83B-A015DAB49303}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE74DBC-0ECF-4FD0-93E4-5C60FBBC6B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="科目" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="205">
   <si>
     <t>123102\坏帐准备\其它应收款坏帐准备</t>
   </si>
@@ -727,6 +727,26 @@
   <si>
     <t>对瑞济的投资</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 其胜\224111\其他应付款\其他费用应付\客商:上海交通大学</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*交通大学款项重分类 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 其胜\63019802\营业外收入\其它营业外收入\其他</t>
+  </si>
+  <si>
+    <t>*放的是政府补助收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他收益</t>
   </si>
 </sst>
 </file>
@@ -2802,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7368,10 +7388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853C52B1-A49C-4C28-B43F-72DF79E9837A}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7517,7 +7537,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -7525,7 +7545,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -7533,7 +7553,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -7541,7 +7561,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -7549,12 +7569,34 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>141</v>
       </c>
       <c r="B21" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
